--- a/Data/out/Re-organization_0.xlsx
+++ b/Data/out/Re-organization_0.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="1700">
   <si>
     <t>Label</t>
   </si>
@@ -3581,6 +3581,993 @@
   </si>
   <si>
     <t>t12</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t29</t>
+  </si>
+  <si>
+    <t>t19</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t41</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t38</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t61</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t21</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t47</t>
+  </si>
+  <si>
+    <t>t63</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
+    <t>t52</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t7</t>
   </si>
   <si>
     <t>Depth</t>
@@ -4218,120 +5205,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1008</v>
+        <v>1371</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1019</v>
+        <v>1382</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1020</v>
+        <v>1383</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1022</v>
+        <v>1385</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1023</v>
+        <v>1386</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1048</v>
+        <v>1411</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1049</v>
+        <v>1412</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1050</v>
+        <v>1413</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1051</v>
+        <v>1414</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1052</v>
+        <v>1415</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1053</v>
+        <v>1416</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1054</v>
+        <v>1417</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1055</v>
+        <v>1418</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1056</v>
+        <v>1419</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1057</v>
+        <v>1420</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1058</v>
+        <v>1421</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1059</v>
+        <v>1422</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1060</v>
+        <v>1423</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1061</v>
+        <v>1424</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1062</v>
+        <v>1425</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1063</v>
+        <v>1426</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1064</v>
+        <v>1427</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1065</v>
+        <v>1428</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1066</v>
+        <v>1429</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1067</v>
+        <v>1430</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1068</v>
+        <v>1431</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1069</v>
+        <v>1432</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1070</v>
+        <v>1433</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1071</v>
+        <v>1434</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1072</v>
+        <v>1435</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1074</v>
+        <v>1437</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1075</v>
+        <v>1438</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1076</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1009</v>
+        <v>1372</v>
       </c>
       <c r="B2" s="0">
         <v>70518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1024</v>
+        <v>1387</v>
       </c>
       <c r="F2" s="0">
         <v>509.87200000000001</v>
@@ -4404,7 +5391,7 @@
       </c>
       <c r="AC2" s="0"/>
       <c r="AD2" s="0" t="s">
-        <v>1073</v>
+        <v>1436</v>
       </c>
       <c r="AE2" s="0">
         <v>11.666666666666668</v>
@@ -4418,19 +5405,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1009</v>
+        <v>1372</v>
       </c>
       <c r="B3" s="0">
         <v>70518</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D3" s="0">
         <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1025</v>
+        <v>1388</v>
       </c>
       <c r="F3" s="0">
         <v>414.42200000000003</v>
@@ -4505,7 +5492,7 @@
         <v>5.09375</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>1073</v>
+        <v>1436</v>
       </c>
       <c r="AE3" s="0">
         <v>0</v>
@@ -4519,19 +5506,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1010</v>
+        <v>1373</v>
       </c>
       <c r="B4" s="0">
         <v>70518</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1026</v>
+        <v>1389</v>
       </c>
       <c r="F4" s="0">
         <v>466.68799999999999</v>
@@ -4604,7 +5591,7 @@
       </c>
       <c r="AC4" s="0"/>
       <c r="AD4" s="0" t="s">
-        <v>1073</v>
+        <v>1436</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -4618,19 +5605,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1010</v>
+        <v>1373</v>
       </c>
       <c r="B5" s="0">
         <v>70518</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1027</v>
+        <v>1390</v>
       </c>
       <c r="F5" s="0">
         <v>403.43200000000002</v>
@@ -4705,7 +5692,7 @@
         <v>3.96875</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>1073</v>
+        <v>1436</v>
       </c>
       <c r="AE5" s="0">
         <v>0</v>
@@ -4719,19 +5706,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1011</v>
+        <v>1374</v>
       </c>
       <c r="B6" s="0">
         <v>50618</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1028</v>
+        <v>1391</v>
       </c>
       <c r="F6" s="0">
         <v>476.22300000000001</v>
@@ -4804,7 +5791,7 @@
       </c>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0" t="s">
-        <v>1073</v>
+        <v>1436</v>
       </c>
       <c r="AE6" s="0">
         <v>40</v>
@@ -4818,19 +5805,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1012</v>
+        <v>1375</v>
       </c>
       <c r="B7" s="0">
         <v>260420</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1029</v>
+        <v>1392</v>
       </c>
       <c r="F7" s="0">
         <v>373.99900000000002</v>
@@ -4917,19 +5904,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1012</v>
+        <v>1375</v>
       </c>
       <c r="B8" s="0">
         <v>280420</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1029</v>
+        <v>1392</v>
       </c>
       <c r="F8" s="0">
         <v>319.63099999999997</v>
@@ -5016,19 +6003,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1013</v>
+        <v>1376</v>
       </c>
       <c r="B9" s="0">
         <v>280420</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D9" s="0">
         <v>3</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1030</v>
+        <v>1393</v>
       </c>
       <c r="F9" s="0">
         <v>375.012</v>
@@ -5115,19 +6102,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1013</v>
+        <v>1376</v>
       </c>
       <c r="B10" s="0">
         <v>290420</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1031</v>
+        <v>1394</v>
       </c>
       <c r="F10" s="0">
         <v>381.83600000000001</v>
@@ -5212,19 +6199,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1014</v>
+        <v>1377</v>
       </c>
       <c r="B11" s="0">
         <v>290420</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1032</v>
+        <v>1395</v>
       </c>
       <c r="F11" s="0">
         <v>386.48500000000001</v>
@@ -5311,19 +6298,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1015</v>
+        <v>1378</v>
       </c>
       <c r="B12" s="0">
         <v>20520</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D12" s="0">
         <v>3</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1033</v>
+        <v>1396</v>
       </c>
       <c r="F12" s="0">
         <v>426.51900000000001</v>
@@ -5410,19 +6397,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1016</v>
+        <v>1379</v>
       </c>
       <c r="B13" s="0">
         <v>20520</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D13" s="0">
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1034</v>
+        <v>1397</v>
       </c>
       <c r="F13" s="0">
         <v>397.04599999999999</v>
@@ -5509,19 +6496,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1016</v>
+        <v>1379</v>
       </c>
       <c r="B14" s="0">
         <v>60520</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D14" s="0">
         <v>3</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1035</v>
+        <v>1398</v>
       </c>
       <c r="F14" s="0">
         <v>439.82600000000002</v>
@@ -5608,19 +6595,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1017</v>
+        <v>1380</v>
       </c>
       <c r="B15" s="0">
         <v>60520</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D15" s="0">
         <v>3</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1036</v>
+        <v>1399</v>
       </c>
       <c r="F15" s="0">
         <v>427.69200000000001</v>
@@ -5705,19 +6692,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1018</v>
+        <v>1381</v>
       </c>
       <c r="B16" s="0">
         <v>40221</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D16" s="0">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1037</v>
+        <v>1400</v>
       </c>
       <c r="F16" s="0">
         <v>531.20100000000002</v>
@@ -5808,13 +6795,13 @@
         <v>300518</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D17" s="0">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1038</v>
+        <v>1401</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -5875,13 +6862,13 @@
         <v>300518</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D18" s="0">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1039</v>
+        <v>1402</v>
       </c>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
@@ -5942,13 +6929,13 @@
         <v>70618</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D19" s="0">
         <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1040</v>
+        <v>1403</v>
       </c>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
@@ -6009,13 +6996,13 @@
         <v>70618</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D20" s="0">
         <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1041</v>
+        <v>1404</v>
       </c>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
@@ -6076,13 +7063,13 @@
         <v>70618</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D21" s="0">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1042</v>
+        <v>1405</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -6143,13 +7130,13 @@
         <v>70618</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D22" s="0">
         <v>3</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1043</v>
+        <v>1406</v>
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
@@ -6210,13 +7197,13 @@
         <v>70618</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D23" s="0">
         <v>3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1044</v>
+        <v>1407</v>
       </c>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
@@ -6277,13 +7264,13 @@
         <v>80618</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D24" s="0">
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1045</v>
+        <v>1408</v>
       </c>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
@@ -6344,13 +7331,13 @@
         <v>80618</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D25" s="0">
         <v>3</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1046</v>
+        <v>1409</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
@@ -6411,13 +7398,13 @@
         <v>80618</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1021</v>
+        <v>1384</v>
       </c>
       <c r="D26" s="0">
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1047</v>
+        <v>1410</v>
       </c>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
@@ -6652,120 +7639,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1077</v>
+        <v>1440</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1087</v>
+        <v>1450</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1088</v>
+        <v>1451</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1090</v>
+        <v>1453</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1091</v>
+        <v>1454</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1107</v>
+        <v>1470</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1108</v>
+        <v>1471</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1109</v>
+        <v>1472</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1110</v>
+        <v>1473</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1111</v>
+        <v>1474</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1112</v>
+        <v>1475</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1113</v>
+        <v>1476</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1114</v>
+        <v>1477</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1115</v>
+        <v>1478</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1116</v>
+        <v>1479</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1117</v>
+        <v>1480</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1118</v>
+        <v>1481</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1119</v>
+        <v>1482</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1120</v>
+        <v>1483</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1121</v>
+        <v>1484</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1122</v>
+        <v>1485</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1123</v>
+        <v>1486</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1124</v>
+        <v>1487</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1125</v>
+        <v>1488</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1126</v>
+        <v>1489</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1127</v>
+        <v>1490</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1128</v>
+        <v>1491</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1129</v>
+        <v>1492</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1130</v>
+        <v>1493</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1131</v>
+        <v>1494</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1133</v>
+        <v>1496</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1134</v>
+        <v>1497</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1135</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1078</v>
+        <v>1441</v>
       </c>
       <c r="B2" s="0">
         <v>310120</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1092</v>
+        <v>1455</v>
       </c>
       <c r="F2" s="0">
         <v>380.67500000000001</v>
@@ -6840,7 +7827,7 @@
         <v>3.90625</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1132</v>
+        <v>1495</v>
       </c>
       <c r="AE2" s="0">
         <v>21.666666666666668</v>
@@ -6854,19 +7841,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1079</v>
+        <v>1442</v>
       </c>
       <c r="B3" s="0">
         <v>250320</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1093</v>
+        <v>1456</v>
       </c>
       <c r="F3" s="0">
         <v>428.44900000000001</v>
@@ -6953,19 +7940,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1080</v>
+        <v>1443</v>
       </c>
       <c r="B4" s="0">
         <v>260320</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1094</v>
+        <v>1457</v>
       </c>
       <c r="F4" s="0">
         <v>465.96699999999998</v>
@@ -7052,19 +8039,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1081</v>
+        <v>1444</v>
       </c>
       <c r="B5" s="0">
         <v>260320</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1095</v>
+        <v>1458</v>
       </c>
       <c r="F5" s="0">
         <v>514.60299999999995</v>
@@ -7145,19 +8132,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1081</v>
+        <v>1444</v>
       </c>
       <c r="B6" s="0">
         <v>140520</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1096</v>
+        <v>1459</v>
       </c>
       <c r="F6" s="0">
         <v>490.94</v>
@@ -7238,19 +8225,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1081</v>
+        <v>1444</v>
       </c>
       <c r="B7" s="0">
         <v>150520</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1097</v>
+        <v>1460</v>
       </c>
       <c r="F7" s="0">
         <v>500.041</v>
@@ -7333,19 +8320,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1081</v>
+        <v>1444</v>
       </c>
       <c r="B8" s="0">
         <v>190520</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1098</v>
+        <v>1461</v>
       </c>
       <c r="F8" s="0">
         <v>475.017</v>
@@ -7432,19 +8419,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1081</v>
+        <v>1444</v>
       </c>
       <c r="B9" s="0">
         <v>190520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1099</v>
+        <v>1462</v>
       </c>
       <c r="F9" s="0">
         <v>570.43799999999999</v>
@@ -7529,19 +8516,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1082</v>
+        <v>1445</v>
       </c>
       <c r="B10" s="0">
         <v>200520</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1100</v>
+        <v>1463</v>
       </c>
       <c r="F10" s="0">
         <v>512.58900000000006</v>
@@ -7628,19 +8615,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1083</v>
+        <v>1446</v>
       </c>
       <c r="B11" s="0">
         <v>210520</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D11" s="0">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1101</v>
+        <v>1464</v>
       </c>
       <c r="F11" s="0">
         <v>482.98500000000001</v>
@@ -7727,19 +8714,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1084</v>
+        <v>1447</v>
       </c>
       <c r="B12" s="0">
         <v>210520</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D12" s="0">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1102</v>
+        <v>1465</v>
       </c>
       <c r="F12" s="0">
         <v>510.274</v>
@@ -7826,19 +8813,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1084</v>
+        <v>1447</v>
       </c>
       <c r="B13" s="0">
         <v>210520</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1103</v>
+        <v>1466</v>
       </c>
       <c r="F13" s="0">
         <v>570.12</v>
@@ -7925,19 +8912,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1085</v>
+        <v>1448</v>
       </c>
       <c r="B14" s="0">
         <v>240520</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D14" s="0">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1104</v>
+        <v>1467</v>
       </c>
       <c r="F14" s="0">
         <v>352.471</v>
@@ -8024,19 +9011,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1086</v>
+        <v>1449</v>
       </c>
       <c r="B15" s="0">
         <v>240520</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1105</v>
+        <v>1468</v>
       </c>
       <c r="F15" s="0">
         <v>432.50099999999998</v>
@@ -8123,19 +9110,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1086</v>
+        <v>1449</v>
       </c>
       <c r="B16" s="0">
         <v>240520</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1089</v>
+        <v>1452</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1106</v>
+        <v>1469</v>
       </c>
       <c r="F16" s="0">
         <v>420.47899999999998</v>
@@ -8226,7 +9213,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
@@ -8241,7 +9228,7 @@
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
     <col min="11" max="11" width="9.42578125" customWidth="true"/>
     <col min="12" max="12" width="10" customWidth="true"/>
-    <col min="13" max="13" width="6.7109375" customWidth="true"/>
+    <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
     <col min="15" max="15" width="4.7109375" customWidth="true"/>
     <col min="16" max="16" width="8.140625" customWidth="true"/>
@@ -8260,126 +9247,126 @@
     <col min="29" max="29" width="7.7109375" customWidth="true"/>
     <col min="30" max="30" width="5.7109375" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="6.7109375" customWidth="true"/>
+    <col min="32" max="32" width="7.7109375" customWidth="true"/>
     <col min="33" max="33" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1173</v>
+        <v>1499</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1178</v>
+        <v>1504</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1179</v>
+        <v>1505</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1181</v>
+        <v>1507</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1182</v>
+        <v>1508</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1187</v>
+        <v>1516</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1188</v>
+        <v>1517</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1189</v>
+        <v>1518</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1190</v>
+        <v>1519</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1191</v>
+        <v>1520</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1192</v>
+        <v>1521</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1193</v>
+        <v>1522</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1194</v>
+        <v>1523</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1195</v>
+        <v>1524</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1196</v>
+        <v>1525</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1197</v>
+        <v>1526</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1198</v>
+        <v>1527</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1199</v>
+        <v>1528</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1200</v>
+        <v>1529</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1201</v>
+        <v>1530</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1202</v>
+        <v>1531</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1203</v>
+        <v>1532</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1204</v>
+        <v>1533</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1205</v>
+        <v>1534</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1206</v>
+        <v>1535</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1207</v>
+        <v>1536</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1208</v>
+        <v>1537</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1209</v>
+        <v>1538</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1210</v>
+        <v>1539</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1211</v>
+        <v>1540</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1213</v>
+        <v>1542</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1214</v>
+        <v>1543</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1215</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1174</v>
+        <v>1500</v>
       </c>
       <c r="B2" s="0">
         <v>21018</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1180</v>
+        <v>1506</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1183</v>
+        <v>1509</v>
       </c>
       <c r="F2" s="0">
         <v>363.99400000000003</v>
@@ -8450,7 +9437,7 @@
         <v>0.25</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1212</v>
+        <v>1541</v>
       </c>
       <c r="AE2" s="0">
         <v>28.333333333333336</v>
@@ -8464,19 +9451,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1175</v>
+        <v>1501</v>
       </c>
       <c r="B3" s="0">
         <v>150519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1180</v>
+        <v>1506</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1184</v>
+        <v>1510</v>
       </c>
       <c r="F3" s="0">
         <v>543.94600000000003</v>
@@ -8563,19 +9550,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1176</v>
+        <v>1502</v>
       </c>
       <c r="B4" s="0">
         <v>160519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1180</v>
+        <v>1506</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1185</v>
+        <v>1511</v>
       </c>
       <c r="F4" s="0">
         <v>503.45100000000002</v>
@@ -8662,19 +9649,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1177</v>
+        <v>1503</v>
       </c>
       <c r="B5" s="0">
         <v>160519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1180</v>
+        <v>1506</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1186</v>
+        <v>1512</v>
       </c>
       <c r="F5" s="0">
         <v>480.70400000000001</v>
@@ -8756,6 +9743,201 @@
         <v>2.3437999999999999</v>
       </c>
       <c r="AG5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0">
+        <v>21018</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D6" s="0">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0">
+        <v>1.058457711442786</v>
+      </c>
+      <c r="V6" s="0">
+        <v>1.46875</v>
+      </c>
+      <c r="W6" s="0">
+        <v>80.968750000000014</v>
+      </c>
+      <c r="X6" s="0">
+        <v>-67.240624999999994</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>103.98393335187315</v>
+      </c>
+      <c r="Z6" s="0">
+        <v>14</v>
+      </c>
+      <c r="AA6" s="0">
+        <v>110.74062499999999</v>
+      </c>
+      <c r="AB6" s="0">
+        <v>1.0290353798435561</v>
+      </c>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0">
+        <v>23.333333333333336</v>
+      </c>
+      <c r="AF6" s="0">
+        <v>0.21875</v>
+      </c>
+      <c r="AG6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0">
+        <v>21018</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D7" s="0">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0">
+        <v>1.1147036181678214</v>
+      </c>
+      <c r="V7" s="0">
+        <v>2.328125</v>
+      </c>
+      <c r="W7" s="0">
+        <v>68.427083333333343</v>
+      </c>
+      <c r="X7" s="0">
+        <v>-68.049999999999997</v>
+      </c>
+      <c r="Y7" s="0">
+        <v>115.16829686048196</v>
+      </c>
+      <c r="Z7" s="0">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="0">
+        <v>114.11250000000001</v>
+      </c>
+      <c r="AB7" s="0">
+        <v>1.0509376151631962</v>
+      </c>
+      <c r="AC7" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0">
+        <v>11.666666666666668</v>
+      </c>
+      <c r="AF7" s="0">
+        <v>1.1875</v>
+      </c>
+      <c r="AG7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0">
+        <v>270319</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0">
+        <v>1.0929203539823009</v>
+      </c>
+      <c r="V8" s="0">
+        <v>2.625</v>
+      </c>
+      <c r="W8" s="0">
+        <v>95.885416666666657</v>
+      </c>
+      <c r="X8" s="0">
+        <v>-67.640625</v>
+      </c>
+      <c r="Y8" s="0">
+        <v>102.89439262185155</v>
+      </c>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0">
+        <v>113.734375</v>
+      </c>
+      <c r="AB8" s="0">
+        <v>0.64929628877543166</v>
+      </c>
+      <c r="AC8" s="0">
+        <v>18</v>
+      </c>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0">
+        <v>28.333333333333336</v>
+      </c>
+      <c r="AF8" s="0">
+        <v>0.5625</v>
+      </c>
+      <c r="AG8" s="0">
         <v>0</v>
       </c>
     </row>
@@ -8805,120 +9987,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1216</v>
+        <v>1545</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1219</v>
+        <v>1548</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1220</v>
+        <v>1549</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1222</v>
+        <v>1551</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1223</v>
+        <v>1552</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1244</v>
+        <v>1573</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1245</v>
+        <v>1574</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1246</v>
+        <v>1575</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1247</v>
+        <v>1576</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1248</v>
+        <v>1577</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1249</v>
+        <v>1578</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1250</v>
+        <v>1579</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1251</v>
+        <v>1580</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1252</v>
+        <v>1581</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1253</v>
+        <v>1582</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1254</v>
+        <v>1583</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1255</v>
+        <v>1584</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1256</v>
+        <v>1585</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1257</v>
+        <v>1586</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1258</v>
+        <v>1587</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1259</v>
+        <v>1588</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1260</v>
+        <v>1589</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1261</v>
+        <v>1590</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1262</v>
+        <v>1591</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1263</v>
+        <v>1592</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1264</v>
+        <v>1593</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1265</v>
+        <v>1594</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1266</v>
+        <v>1595</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1267</v>
+        <v>1596</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1268</v>
+        <v>1597</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1270</v>
+        <v>1599</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1271</v>
+        <v>1600</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1272</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1217</v>
+        <v>1546</v>
       </c>
       <c r="B2" s="0">
         <v>30518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1224</v>
+        <v>1553</v>
       </c>
       <c r="F2" s="0">
         <v>590.19000000000005</v>
@@ -8993,7 +10175,7 @@
         <v>1.625</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1269</v>
+        <v>1598</v>
       </c>
       <c r="AE2" s="0">
         <v>21.666666666666668</v>
@@ -9007,19 +10189,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1217</v>
+        <v>1546</v>
       </c>
       <c r="B3" s="0">
         <v>41220</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1225</v>
+        <v>1554</v>
       </c>
       <c r="F3" s="0">
         <v>527.303</v>
@@ -9106,19 +10288,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1217</v>
+        <v>1546</v>
       </c>
       <c r="B4" s="0">
         <v>180121</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1226</v>
+        <v>1555</v>
       </c>
       <c r="F4" s="0">
         <v>402.56</v>
@@ -9205,19 +10387,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1217</v>
+        <v>1546</v>
       </c>
       <c r="B5" s="0">
         <v>190121</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1227</v>
+        <v>1556</v>
       </c>
       <c r="F5" s="0">
         <v>531.99300000000005</v>
@@ -9304,19 +10486,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1217</v>
+        <v>1546</v>
       </c>
       <c r="B6" s="0">
         <v>190121</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D6" s="0">
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1228</v>
+        <v>1557</v>
       </c>
       <c r="F6" s="0">
         <v>406.07999999999998</v>
@@ -9403,19 +10585,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1217</v>
+        <v>1546</v>
       </c>
       <c r="B7" s="0">
         <v>190121</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D7" s="0">
         <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1229</v>
+        <v>1558</v>
       </c>
       <c r="F7" s="0">
         <v>363.67099999999999</v>
@@ -9502,19 +10684,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1217</v>
+        <v>1546</v>
       </c>
       <c r="B8" s="0">
         <v>250121</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1230</v>
+        <v>1559</v>
       </c>
       <c r="F8" s="0">
         <v>455.69900000000001</v>
@@ -9601,19 +10783,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1218</v>
+        <v>1547</v>
       </c>
       <c r="B9" s="0">
         <v>210618</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1231</v>
+        <v>1560</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -9674,13 +10856,13 @@
         <v>30818</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D10" s="0">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1232</v>
+        <v>1561</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -9741,13 +10923,13 @@
         <v>30818</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D11" s="0">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1233</v>
+        <v>1562</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -9808,13 +10990,13 @@
         <v>30818</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1234</v>
+        <v>1563</v>
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -9873,13 +11055,13 @@
         <v>60818</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D13" s="0">
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1235</v>
+        <v>1564</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -9940,13 +11122,13 @@
         <v>70818</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D14" s="0">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1236</v>
+        <v>1565</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -10007,13 +11189,13 @@
         <v>70818</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1237</v>
+        <v>1566</v>
       </c>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
@@ -10074,13 +11256,13 @@
         <v>70818</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D16" s="0">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1238</v>
+        <v>1567</v>
       </c>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -10141,13 +11323,13 @@
         <v>70818</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1239</v>
+        <v>1568</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -10206,13 +11388,13 @@
         <v>70818</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D18" s="0">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1240</v>
+        <v>1569</v>
       </c>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
@@ -10273,13 +11455,13 @@
         <v>140818</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D19" s="0">
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1241</v>
+        <v>1570</v>
       </c>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
@@ -10340,13 +11522,13 @@
         <v>140818</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D20" s="0">
         <v>2</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1242</v>
+        <v>1571</v>
       </c>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
@@ -10405,13 +11587,13 @@
         <v>140818</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1221</v>
+        <v>1550</v>
       </c>
       <c r="D21" s="0">
         <v>3</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1243</v>
+        <v>1572</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -10640,120 +11822,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1273</v>
+        <v>1602</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1277</v>
+        <v>1606</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1278</v>
+        <v>1607</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1280</v>
+        <v>1609</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1281</v>
+        <v>1610</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1291</v>
+        <v>1620</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1292</v>
+        <v>1621</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1293</v>
+        <v>1622</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1294</v>
+        <v>1623</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1295</v>
+        <v>1624</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1296</v>
+        <v>1625</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1297</v>
+        <v>1626</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1298</v>
+        <v>1627</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1299</v>
+        <v>1628</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1300</v>
+        <v>1629</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1301</v>
+        <v>1630</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1302</v>
+        <v>1631</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1303</v>
+        <v>1632</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1304</v>
+        <v>1633</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1305</v>
+        <v>1634</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1306</v>
+        <v>1635</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1307</v>
+        <v>1636</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1308</v>
+        <v>1637</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1309</v>
+        <v>1638</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1310</v>
+        <v>1639</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1311</v>
+        <v>1640</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1312</v>
+        <v>1641</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1313</v>
+        <v>1642</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1314</v>
+        <v>1643</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1315</v>
+        <v>1644</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1317</v>
+        <v>1646</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1318</v>
+        <v>1647</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1319</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1274</v>
+        <v>1603</v>
       </c>
       <c r="B2" s="0">
         <v>220519</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1279</v>
+        <v>1608</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1282</v>
+        <v>1611</v>
       </c>
       <c r="F2" s="0">
         <v>507.31400000000002</v>
@@ -10840,19 +12022,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1274</v>
+        <v>1603</v>
       </c>
       <c r="B3" s="0">
         <v>290519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1279</v>
+        <v>1608</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1283</v>
+        <v>1612</v>
       </c>
       <c r="F3" s="0">
         <v>404.71699999999998</v>
@@ -10939,19 +12121,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1275</v>
+        <v>1604</v>
       </c>
       <c r="B4" s="0">
         <v>290519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1279</v>
+        <v>1608</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1284</v>
+        <v>1613</v>
       </c>
       <c r="F4" s="0">
         <v>585.452</v>
@@ -11024,7 +12206,7 @@
       </c>
       <c r="AC4" s="0"/>
       <c r="AD4" s="0" t="s">
-        <v>1316</v>
+        <v>1645</v>
       </c>
       <c r="AE4" s="0">
         <v>31.666666666666668</v>
@@ -11038,19 +12220,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1276</v>
+        <v>1605</v>
       </c>
       <c r="B5" s="0">
         <v>300519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1279</v>
+        <v>1608</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1285</v>
+        <v>1614</v>
       </c>
       <c r="F5" s="0">
         <v>589.42399999999998</v>
@@ -11135,19 +12317,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1276</v>
+        <v>1605</v>
       </c>
       <c r="B6" s="0">
         <v>300519</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1279</v>
+        <v>1608</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1286</v>
+        <v>1615</v>
       </c>
       <c r="F6" s="0">
         <v>593.97900000000004</v>
@@ -11220,7 +12402,7 @@
       </c>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0" t="s">
-        <v>1316</v>
+        <v>1645</v>
       </c>
       <c r="AE6" s="0">
         <v>18.333333333333336</v>
@@ -11234,19 +12416,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1276</v>
+        <v>1605</v>
       </c>
       <c r="B7" s="0">
         <v>270520</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1279</v>
+        <v>1608</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1287</v>
+        <v>1616</v>
       </c>
       <c r="F7" s="0">
         <v>393.995</v>
@@ -11337,13 +12519,13 @@
         <v>251018</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1279</v>
+        <v>1608</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1288</v>
+        <v>1617</v>
       </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
@@ -11404,13 +12586,13 @@
         <v>251018</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1279</v>
+        <v>1608</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1289</v>
+        <v>1618</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -11471,13 +12653,13 @@
         <v>220519</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1279</v>
+        <v>1608</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1290</v>
+        <v>1619</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -11645,120 +12827,120 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1320</v>
+        <v>1649</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1327</v>
+        <v>1656</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1328</v>
+        <v>1657</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1330</v>
+        <v>1659</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1331</v>
+        <v>1660</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1342</v>
+        <v>1671</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1343</v>
+        <v>1672</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1344</v>
+        <v>1673</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1345</v>
+        <v>1674</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1346</v>
+        <v>1675</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1347</v>
+        <v>1676</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1348</v>
+        <v>1677</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1349</v>
+        <v>1678</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1350</v>
+        <v>1679</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1351</v>
+        <v>1680</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1352</v>
+        <v>1681</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1353</v>
+        <v>1682</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1354</v>
+        <v>1683</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1355</v>
+        <v>1684</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1356</v>
+        <v>1685</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1357</v>
+        <v>1686</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1358</v>
+        <v>1687</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1359</v>
+        <v>1688</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1360</v>
+        <v>1689</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1361</v>
+        <v>1690</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1362</v>
+        <v>1691</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1363</v>
+        <v>1692</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1364</v>
+        <v>1693</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1365</v>
+        <v>1694</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1366</v>
+        <v>1695</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1368</v>
+        <v>1697</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1369</v>
+        <v>1698</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1370</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1321</v>
+        <v>1650</v>
       </c>
       <c r="B2" s="0">
         <v>31218</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1329</v>
+        <v>1658</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1332</v>
+        <v>1661</v>
       </c>
       <c r="F2" s="0">
         <v>360.89699999999999</v>
@@ -11831,7 +13013,7 @@
       </c>
       <c r="AC2" s="0"/>
       <c r="AD2" s="0" t="s">
-        <v>1367</v>
+        <v>1696</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -11845,19 +13027,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1321</v>
+        <v>1650</v>
       </c>
       <c r="B3" s="0">
         <v>171218</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1329</v>
+        <v>1658</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1333</v>
+        <v>1662</v>
       </c>
       <c r="F3" s="0">
         <v>457.68700000000001</v>
@@ -11932,7 +13114,7 @@
         <v>5.0625</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>1367</v>
+        <v>1696</v>
       </c>
       <c r="AE3" s="0">
         <v>26.666666666666668</v>
@@ -11946,19 +13128,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1322</v>
+        <v>1651</v>
       </c>
       <c r="B4" s="0">
         <v>171218</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1329</v>
+        <v>1658</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1334</v>
+        <v>1663</v>
       </c>
       <c r="F4" s="0">
         <v>426.435</v>
@@ -12033,7 +13215,7 @@
         <v>3.15625</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>1367</v>
+        <v>1696</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -12047,19 +13229,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1323</v>
+        <v>1652</v>
       </c>
       <c r="B5" s="0">
         <v>171218</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1329</v>
+        <v>1658</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1335</v>
+        <v>1664</v>
       </c>
       <c r="F5" s="0">
         <v>428.84899999999999</v>
@@ -12134,7 +13316,7 @@
         <v>3.78125</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>1367</v>
+        <v>1696</v>
       </c>
       <c r="AE5" s="0">
         <v>0</v>
@@ -12148,19 +13330,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1323</v>
+        <v>1652</v>
       </c>
       <c r="B6" s="0">
         <v>171218</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1329</v>
+        <v>1658</v>
       </c>
       <c r="D6" s="0">
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1336</v>
+        <v>1665</v>
       </c>
       <c r="F6" s="0">
         <v>378.36900000000003</v>
@@ -12235,7 +13417,7 @@
         <v>3.71875</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>1367</v>
+        <v>1696</v>
       </c>
       <c r="AE6" s="0">
         <v>16.666666666666668</v>
@@ -12249,19 +13431,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1324</v>
+        <v>1653</v>
       </c>
       <c r="B7" s="0">
         <v>171218</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1329</v>
+        <v>1658</v>
       </c>
       <c r="D7" s="0">
         <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1337</v>
+        <v>1666</v>
       </c>
       <c r="F7" s="0">
         <v>416.42399999999998</v>
@@ -12334,7 +13516,7 @@
       </c>
       <c r="AC7" s="0"/>
       <c r="AD7" s="0" t="s">
-        <v>1367</v>
+        <v>1696</v>
       </c>
       <c r="AE7" s="0">
         <v>0</v>
@@ -12348,19 +13530,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1325</v>
+        <v>1654</v>
       </c>
       <c r="B8" s="0">
         <v>70219</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1329</v>
+        <v>1658</v>
       </c>
       <c r="D8" s="0">
         <v>3</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1338</v>
+        <v>1667</v>
       </c>
       <c r="F8" s="0">
         <v>546.37099999999998</v>
@@ -12435,7 +13617,7 @@
         <v>5.03125</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>1367</v>
+        <v>1696</v>
       </c>
       <c r="AE8" s="0">
         <v>83.333333333333343</v>
@@ -12449,19 +13631,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1325</v>
+        <v>1654</v>
       </c>
       <c r="B9" s="0">
         <v>80219</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1329</v>
+        <v>1658</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1339</v>
+        <v>1668</v>
       </c>
       <c r="F9" s="0">
         <v>500.19600000000003</v>
@@ -12548,19 +13730,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1325</v>
+        <v>1654</v>
       </c>
       <c r="B10" s="0">
         <v>80219</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1329</v>
+        <v>1658</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1340</v>
+        <v>1669</v>
       </c>
       <c r="F10" s="0">
         <v>459.149</v>
@@ -12645,19 +13827,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1326</v>
+        <v>1655</v>
       </c>
       <c r="B11" s="0">
         <v>120219</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1329</v>
+        <v>1658</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1341</v>
+        <v>1670</v>
       </c>
       <c r="F11" s="0">
         <v>500.5</v>

--- a/Data/out/Re-organization_0.xlsx
+++ b/Data/out/Re-organization_0.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Saline d1" sheetId="5" r:id="rId7"/>
     <sheet name="Saline d7" sheetId="6" r:id="rId8"/>
     <sheet name="Saline d7NS" sheetId="7" r:id="rId9"/>
-    <sheet name="CFA d7 NS" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -20,4120 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="1700">
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t61</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t26</t>
-  </si>
-  <si>
-    <t>t30</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t30</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t22</t>
-  </si>
-  <si>
-    <t>t61</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t26</t>
-  </si>
-  <si>
-    <t>t30</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t35</t>
-  </si>
-  <si>
-    <t>t47</t>
-  </si>
-  <si>
-    <t>t63</t>
-  </si>
-  <si>
-    <t>t33</t>
-  </si>
-  <si>
-    <t>t35</t>
-  </si>
-  <si>
-    <t>t52</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t25</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7 NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t29</t>
-  </si>
-  <si>
-    <t>t19</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t27</t>
-  </si>
-  <si>
-    <t>t22</t>
-  </si>
-  <si>
-    <t>t28</t>
-  </si>
-  <si>
-    <t>t41</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t30</t>
-  </si>
-  <si>
-    <t>t38</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t22</t>
-  </si>
-  <si>
-    <t>t61</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t26</t>
-  </si>
-  <si>
-    <t>t30</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t35</t>
-  </si>
-  <si>
-    <t>t47</t>
-  </si>
-  <si>
-    <t>t63</t>
-  </si>
-  <si>
-    <t>t33</t>
-  </si>
-  <si>
-    <t>t35</t>
-  </si>
-  <si>
-    <t>t52</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t25</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7 NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t29</t>
-  </si>
-  <si>
-    <t>t19</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t27</t>
-  </si>
-  <si>
-    <t>t22</t>
-  </si>
-  <si>
-    <t>t28</t>
-  </si>
-  <si>
-    <t>t41</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t30</t>
-  </si>
-  <si>
-    <t>t38</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t22</t>
-  </si>
-  <si>
-    <t>t61</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t26</t>
-  </si>
-  <si>
-    <t>t30</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t35</t>
-  </si>
-  <si>
-    <t>t47</t>
-  </si>
-  <si>
-    <t>t63</t>
-  </si>
-  <si>
-    <t>t33</t>
-  </si>
-  <si>
-    <t>t35</t>
-  </si>
-  <si>
-    <t>t52</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t25</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7 NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t29</t>
-  </si>
-  <si>
-    <t>t19</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t27</t>
-  </si>
-  <si>
-    <t>t22</t>
-  </si>
-  <si>
-    <t>t28</t>
-  </si>
-  <si>
-    <t>t41</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t30</t>
-  </si>
-  <si>
-    <t>t38</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>LabelPrediction</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="329">
   <si>
     <t>Label</t>
   </si>
@@ -5140,7 +1026,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -5149,13 +1035,23 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5165,160 +1061,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG26"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
+    <col min="7" max="7" width="10.15625" customWidth="true"/>
+    <col min="8" max="8" width="7.37890625" customWidth="true"/>
+    <col min="9" max="9" width="9.15625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
+    <col min="15" max="15" width="4.37890625" customWidth="true"/>
+    <col min="16" max="16" width="7.93359375" customWidth="true"/>
+    <col min="17" max="17" width="7.82421875" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
+    <col min="19" max="19" width="9.37890625" customWidth="true"/>
+    <col min="20" max="20" width="7.37890625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
+    <col min="22" max="22" width="8.046875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.42578125" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
+    <col min="24" max="24" width="10.37890625" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.26953125" customWidth="true"/>
+    <col min="27" max="27" width="11.48828125" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="8.7109375" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
+    <col min="30" max="30" width="5.37890625" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="7.7109375" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
+    <col min="33" max="33" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1371</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1382</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1383</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1385</v>
+        <v>14</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1386</v>
+        <v>15</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1411</v>
+        <v>40</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1412</v>
+        <v>41</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1413</v>
+        <v>42</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1414</v>
+        <v>43</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1415</v>
+        <v>44</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1416</v>
+        <v>45</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1417</v>
+        <v>46</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1418</v>
+        <v>47</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1419</v>
+        <v>48</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1420</v>
+        <v>49</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1421</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1422</v>
+        <v>51</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1423</v>
+        <v>52</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1424</v>
+        <v>53</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1425</v>
+        <v>54</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1426</v>
+        <v>55</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1427</v>
+        <v>56</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1428</v>
+        <v>57</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1429</v>
+        <v>58</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1430</v>
+        <v>59</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1431</v>
+        <v>60</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1432</v>
+        <v>61</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1433</v>
+        <v>62</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1434</v>
+        <v>63</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1435</v>
+        <v>64</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1437</v>
+        <v>66</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1438</v>
+        <v>67</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1439</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1372</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0">
         <v>70518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1387</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0">
         <v>509.87200000000001</v>
@@ -5391,7 +1287,7 @@
       </c>
       <c r="AC2" s="0"/>
       <c r="AD2" s="0" t="s">
-        <v>1436</v>
+        <v>65</v>
       </c>
       <c r="AE2" s="0">
         <v>11.666666666666668</v>
@@ -5405,19 +1301,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1372</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0">
         <v>70518</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D3" s="0">
         <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1388</v>
+        <v>17</v>
       </c>
       <c r="F3" s="0">
         <v>414.42200000000003</v>
@@ -5492,7 +1388,7 @@
         <v>5.09375</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>1436</v>
+        <v>65</v>
       </c>
       <c r="AE3" s="0">
         <v>0</v>
@@ -5506,19 +1402,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1373</v>
+        <v>2</v>
       </c>
       <c r="B4" s="0">
         <v>70518</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1389</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0">
         <v>466.68799999999999</v>
@@ -5591,7 +1487,7 @@
       </c>
       <c r="AC4" s="0"/>
       <c r="AD4" s="0" t="s">
-        <v>1436</v>
+        <v>65</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -5605,19 +1501,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1373</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0">
         <v>70518</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1390</v>
+        <v>19</v>
       </c>
       <c r="F5" s="0">
         <v>403.43200000000002</v>
@@ -5692,7 +1588,7 @@
         <v>3.96875</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>1436</v>
+        <v>65</v>
       </c>
       <c r="AE5" s="0">
         <v>0</v>
@@ -5706,19 +1602,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1374</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0">
         <v>50618</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1391</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0">
         <v>476.22300000000001</v>
@@ -5791,7 +1687,7 @@
       </c>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0" t="s">
-        <v>1436</v>
+        <v>65</v>
       </c>
       <c r="AE6" s="0">
         <v>40</v>
@@ -5805,19 +1701,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1375</v>
+        <v>4</v>
       </c>
       <c r="B7" s="0">
         <v>260420</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1392</v>
+        <v>21</v>
       </c>
       <c r="F7" s="0">
         <v>373.99900000000002</v>
@@ -5904,19 +1800,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1375</v>
+        <v>4</v>
       </c>
       <c r="B8" s="0">
         <v>280420</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1392</v>
+        <v>21</v>
       </c>
       <c r="F8" s="0">
         <v>319.63099999999997</v>
@@ -6003,19 +1899,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1376</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0">
         <v>280420</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D9" s="0">
         <v>3</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1393</v>
+        <v>22</v>
       </c>
       <c r="F9" s="0">
         <v>375.012</v>
@@ -6102,19 +1998,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1376</v>
+        <v>5</v>
       </c>
       <c r="B10" s="0">
         <v>290420</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1394</v>
+        <v>23</v>
       </c>
       <c r="F10" s="0">
         <v>381.83600000000001</v>
@@ -6199,19 +2095,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1377</v>
+        <v>6</v>
       </c>
       <c r="B11" s="0">
         <v>290420</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1395</v>
+        <v>24</v>
       </c>
       <c r="F11" s="0">
         <v>386.48500000000001</v>
@@ -6298,19 +2194,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1378</v>
+        <v>7</v>
       </c>
       <c r="B12" s="0">
         <v>20520</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D12" s="0">
         <v>3</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1396</v>
+        <v>25</v>
       </c>
       <c r="F12" s="0">
         <v>426.51900000000001</v>
@@ -6397,19 +2293,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1379</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0">
         <v>20520</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D13" s="0">
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1397</v>
+        <v>26</v>
       </c>
       <c r="F13" s="0">
         <v>397.04599999999999</v>
@@ -6496,19 +2392,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1379</v>
+        <v>8</v>
       </c>
       <c r="B14" s="0">
         <v>60520</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D14" s="0">
         <v>3</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1398</v>
+        <v>27</v>
       </c>
       <c r="F14" s="0">
         <v>439.82600000000002</v>
@@ -6595,19 +2491,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1380</v>
+        <v>9</v>
       </c>
       <c r="B15" s="0">
         <v>60520</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D15" s="0">
         <v>3</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1399</v>
+        <v>28</v>
       </c>
       <c r="F15" s="0">
         <v>427.69200000000001</v>
@@ -6692,19 +2588,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1381</v>
+        <v>10</v>
       </c>
       <c r="B16" s="0">
         <v>40221</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D16" s="0">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1400</v>
+        <v>29</v>
       </c>
       <c r="F16" s="0">
         <v>531.20100000000002</v>
@@ -6795,13 +2691,13 @@
         <v>300518</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D17" s="0">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1401</v>
+        <v>30</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -6862,13 +2758,13 @@
         <v>300518</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D18" s="0">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1402</v>
+        <v>31</v>
       </c>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
@@ -6929,13 +2825,13 @@
         <v>70618</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D19" s="0">
         <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1403</v>
+        <v>32</v>
       </c>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
@@ -6996,13 +2892,13 @@
         <v>70618</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D20" s="0">
         <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1404</v>
+        <v>33</v>
       </c>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
@@ -7063,13 +2959,13 @@
         <v>70618</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D21" s="0">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1405</v>
+        <v>34</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -7130,13 +3026,13 @@
         <v>70618</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D22" s="0">
         <v>3</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>1406</v>
+        <v>35</v>
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
@@ -7197,13 +3093,13 @@
         <v>70618</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D23" s="0">
         <v>3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>1407</v>
+        <v>36</v>
       </c>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
@@ -7264,13 +3160,13 @@
         <v>80618</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D24" s="0">
         <v>3</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>1408</v>
+        <v>37</v>
       </c>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
@@ -7331,13 +3227,13 @@
         <v>80618</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D25" s="0">
         <v>3</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>1409</v>
+        <v>38</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
@@ -7398,13 +3294,13 @@
         <v>80618</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>1384</v>
+        <v>13</v>
       </c>
       <c r="D26" s="0">
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>1410</v>
+        <v>39</v>
       </c>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
@@ -7459,140 +3355,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0">
-        <v>80618</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="D27" s="0">
-        <v>3</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="0"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="0">
-        <v>1.0529556650246306</v>
-      </c>
-      <c r="V27" s="0">
-        <v>1.34375</v>
-      </c>
-      <c r="W27" s="0">
-        <v>86.145833333333329</v>
-      </c>
-      <c r="X27" s="0">
-        <v>-60.34375</v>
-      </c>
-      <c r="Y27" s="0">
-        <v>144.4396258816318</v>
-      </c>
-      <c r="Z27" s="0">
-        <v>2</v>
-      </c>
-      <c r="AA27" s="0">
-        <v>108.5</v>
-      </c>
-      <c r="AB27" s="0">
-        <v>1.2949654448429726</v>
-      </c>
-      <c r="AC27" s="0">
-        <v>2.46875</v>
-      </c>
-      <c r="AD27" s="0"/>
-      <c r="AE27" s="0">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="AF27" s="0">
-        <v>-0.125</v>
-      </c>
-      <c r="AG27" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0">
-        <v>80618</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="D28" s="0">
-        <v>3</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-      <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
-      <c r="M28" s="0"/>
-      <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-      <c r="P28" s="0"/>
-      <c r="Q28" s="0"/>
-      <c r="R28" s="0"/>
-      <c r="S28" s="0"/>
-      <c r="T28" s="0"/>
-      <c r="U28" s="0">
-        <v>1.0683139534883721</v>
-      </c>
-      <c r="V28" s="0">
-        <v>1.46875</v>
-      </c>
-      <c r="W28" s="0">
-        <v>71.177083333333343</v>
-      </c>
-      <c r="X28" s="0">
-        <v>-66.365624999999994</v>
-      </c>
-      <c r="Y28" s="0">
-        <v>134.93550076958346</v>
-      </c>
-      <c r="Z28" s="0">
-        <v>3</v>
-      </c>
-      <c r="AA28" s="0">
-        <v>102.83437499999999</v>
-      </c>
-      <c r="AB28" s="0">
-        <v>1.2666978281064374</v>
-      </c>
-      <c r="AC28" s="0">
-        <v>1.9375</v>
-      </c>
-      <c r="AD28" s="0"/>
-      <c r="AE28" s="0">
-        <v>5</v>
-      </c>
-      <c r="AF28" s="0">
-        <v>0.75</v>
-      </c>
-      <c r="AG28" s="0">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -7602,157 +3364,157 @@
   <dimension ref="A1:AG16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
+    <col min="7" max="7" width="10.15625" customWidth="true"/>
+    <col min="8" max="8" width="7.37890625" customWidth="true"/>
+    <col min="9" max="9" width="9.15625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="6.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
+    <col min="15" max="15" width="4.37890625" customWidth="true"/>
+    <col min="16" max="16" width="7.93359375" customWidth="true"/>
+    <col min="17" max="17" width="7.82421875" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
+    <col min="19" max="19" width="9.37890625" customWidth="true"/>
+    <col min="20" max="20" width="7.37890625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
+    <col min="22" max="22" width="8.046875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.42578125" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
+    <col min="24" max="24" width="10.37890625" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.26953125" customWidth="true"/>
+    <col min="27" max="27" width="11.48828125" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="7.7109375" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
+    <col min="30" max="30" width="5.37890625" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="7.7109375" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
+    <col min="33" max="33" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1440</v>
+        <v>69</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1450</v>
+        <v>79</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1451</v>
+        <v>80</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1453</v>
+        <v>82</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1454</v>
+        <v>83</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1470</v>
+        <v>99</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1471</v>
+        <v>100</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1472</v>
+        <v>101</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1473</v>
+        <v>102</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1474</v>
+        <v>103</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1475</v>
+        <v>104</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1476</v>
+        <v>105</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1477</v>
+        <v>106</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1478</v>
+        <v>107</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1479</v>
+        <v>108</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1480</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1481</v>
+        <v>110</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1482</v>
+        <v>111</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1483</v>
+        <v>112</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1484</v>
+        <v>113</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1485</v>
+        <v>114</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1486</v>
+        <v>115</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1487</v>
+        <v>116</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1488</v>
+        <v>117</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1489</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1490</v>
+        <v>119</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1491</v>
+        <v>120</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1492</v>
+        <v>121</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1493</v>
+        <v>122</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1494</v>
+        <v>123</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1496</v>
+        <v>125</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1497</v>
+        <v>126</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1498</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1441</v>
+        <v>70</v>
       </c>
       <c r="B2" s="0">
         <v>310120</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1455</v>
+        <v>84</v>
       </c>
       <c r="F2" s="0">
         <v>380.67500000000001</v>
@@ -7827,7 +3589,7 @@
         <v>3.90625</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1495</v>
+        <v>124</v>
       </c>
       <c r="AE2" s="0">
         <v>21.666666666666668</v>
@@ -7841,19 +3603,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1442</v>
+        <v>71</v>
       </c>
       <c r="B3" s="0">
         <v>250320</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1456</v>
+        <v>85</v>
       </c>
       <c r="F3" s="0">
         <v>428.44900000000001</v>
@@ -7940,19 +3702,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1443</v>
+        <v>72</v>
       </c>
       <c r="B4" s="0">
         <v>260320</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1457</v>
+        <v>86</v>
       </c>
       <c r="F4" s="0">
         <v>465.96699999999998</v>
@@ -8039,19 +3801,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1444</v>
+        <v>73</v>
       </c>
       <c r="B5" s="0">
         <v>260320</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1458</v>
+        <v>87</v>
       </c>
       <c r="F5" s="0">
         <v>514.60299999999995</v>
@@ -8132,19 +3894,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1444</v>
+        <v>73</v>
       </c>
       <c r="B6" s="0">
         <v>140520</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1459</v>
+        <v>88</v>
       </c>
       <c r="F6" s="0">
         <v>490.94</v>
@@ -8225,19 +3987,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1444</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0">
         <v>150520</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1460</v>
+        <v>89</v>
       </c>
       <c r="F7" s="0">
         <v>500.041</v>
@@ -8320,19 +4082,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1444</v>
+        <v>73</v>
       </c>
       <c r="B8" s="0">
         <v>190520</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1461</v>
+        <v>90</v>
       </c>
       <c r="F8" s="0">
         <v>475.017</v>
@@ -8419,19 +4181,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1444</v>
+        <v>73</v>
       </c>
       <c r="B9" s="0">
         <v>190520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1462</v>
+        <v>91</v>
       </c>
       <c r="F9" s="0">
         <v>570.43799999999999</v>
@@ -8516,19 +4278,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1445</v>
+        <v>74</v>
       </c>
       <c r="B10" s="0">
         <v>200520</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1463</v>
+        <v>92</v>
       </c>
       <c r="F10" s="0">
         <v>512.58900000000006</v>
@@ -8615,19 +4377,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1446</v>
+        <v>75</v>
       </c>
       <c r="B11" s="0">
         <v>210520</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D11" s="0">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1464</v>
+        <v>93</v>
       </c>
       <c r="F11" s="0">
         <v>482.98500000000001</v>
@@ -8714,19 +4476,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1447</v>
+        <v>76</v>
       </c>
       <c r="B12" s="0">
         <v>210520</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D12" s="0">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1465</v>
+        <v>94</v>
       </c>
       <c r="F12" s="0">
         <v>510.274</v>
@@ -8813,19 +4575,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1447</v>
+        <v>76</v>
       </c>
       <c r="B13" s="0">
         <v>210520</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1466</v>
+        <v>95</v>
       </c>
       <c r="F13" s="0">
         <v>570.12</v>
@@ -8912,19 +4674,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1448</v>
+        <v>77</v>
       </c>
       <c r="B14" s="0">
         <v>240520</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D14" s="0">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1467</v>
+        <v>96</v>
       </c>
       <c r="F14" s="0">
         <v>352.471</v>
@@ -9011,19 +4773,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1449</v>
+        <v>78</v>
       </c>
       <c r="B15" s="0">
         <v>240520</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1468</v>
+        <v>97</v>
       </c>
       <c r="F15" s="0">
         <v>432.50099999999998</v>
@@ -9110,19 +4872,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1449</v>
+        <v>78</v>
       </c>
       <c r="B16" s="0">
         <v>240520</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1452</v>
+        <v>81</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1469</v>
+        <v>98</v>
       </c>
       <c r="F16" s="0">
         <v>420.47899999999998</v>
@@ -9216,157 +4978,157 @@
   <dimension ref="A1:AG8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
+    <col min="7" max="7" width="10.15625" customWidth="true"/>
+    <col min="8" max="8" width="7.37890625" customWidth="true"/>
+    <col min="9" max="9" width="9.15625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
+    <col min="15" max="15" width="4.37890625" customWidth="true"/>
+    <col min="16" max="16" width="7.93359375" customWidth="true"/>
+    <col min="17" max="17" width="7.82421875" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
+    <col min="19" max="19" width="9.37890625" customWidth="true"/>
+    <col min="20" max="20" width="7.37890625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
+    <col min="22" max="22" width="8.7109375" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.42578125" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
+    <col min="24" max="24" width="10.37890625" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.26953125" customWidth="true"/>
+    <col min="27" max="27" width="11.48828125" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="7.7109375" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
+    <col min="30" max="30" width="5.37890625" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="7.7109375" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
+    <col min="33" max="33" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1499</v>
+        <v>128</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1504</v>
+        <v>133</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1505</v>
+        <v>134</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1507</v>
+        <v>136</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1508</v>
+        <v>137</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1516</v>
+        <v>145</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1517</v>
+        <v>146</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1518</v>
+        <v>147</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1519</v>
+        <v>148</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1520</v>
+        <v>149</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1521</v>
+        <v>150</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1522</v>
+        <v>151</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1523</v>
+        <v>152</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1524</v>
+        <v>153</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1525</v>
+        <v>154</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1526</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1527</v>
+        <v>156</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1528</v>
+        <v>157</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1529</v>
+        <v>158</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1530</v>
+        <v>159</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1531</v>
+        <v>160</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1532</v>
+        <v>161</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1533</v>
+        <v>162</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1534</v>
+        <v>163</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1535</v>
+        <v>164</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1536</v>
+        <v>165</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1537</v>
+        <v>166</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1538</v>
+        <v>167</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1539</v>
+        <v>168</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1540</v>
+        <v>169</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1542</v>
+        <v>171</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1543</v>
+        <v>172</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1544</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1500</v>
+        <v>129</v>
       </c>
       <c r="B2" s="0">
         <v>21018</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1506</v>
+        <v>135</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1509</v>
+        <v>138</v>
       </c>
       <c r="F2" s="0">
         <v>363.99400000000003</v>
@@ -9437,7 +5199,7 @@
         <v>0.25</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1541</v>
+        <v>170</v>
       </c>
       <c r="AE2" s="0">
         <v>28.333333333333336</v>
@@ -9451,19 +5213,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1501</v>
+        <v>130</v>
       </c>
       <c r="B3" s="0">
         <v>150519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1506</v>
+        <v>135</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1510</v>
+        <v>139</v>
       </c>
       <c r="F3" s="0">
         <v>543.94600000000003</v>
@@ -9550,19 +5312,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1502</v>
+        <v>131</v>
       </c>
       <c r="B4" s="0">
         <v>160519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1506</v>
+        <v>135</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1511</v>
+        <v>140</v>
       </c>
       <c r="F4" s="0">
         <v>503.45100000000002</v>
@@ -9649,19 +5411,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1503</v>
+        <v>132</v>
       </c>
       <c r="B5" s="0">
         <v>160519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1506</v>
+        <v>135</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1512</v>
+        <v>141</v>
       </c>
       <c r="F5" s="0">
         <v>480.70400000000001</v>
@@ -9752,13 +5514,13 @@
         <v>21018</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1506</v>
+        <v>135</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1513</v>
+        <v>142</v>
       </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
@@ -9817,13 +5579,13 @@
         <v>21018</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1506</v>
+        <v>135</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1514</v>
+        <v>143</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
@@ -9884,11 +5646,11 @@
         <v>270319</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1506</v>
+        <v>135</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0" t="s">
-        <v>1515</v>
+        <v>144</v>
       </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
@@ -9947,160 +5709,160 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG23"/>
+  <dimension ref="A1:AG21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
+    <col min="7" max="7" width="10.15625" customWidth="true"/>
+    <col min="8" max="8" width="7.37890625" customWidth="true"/>
+    <col min="9" max="9" width="9.15625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
+    <col min="15" max="15" width="4.37890625" customWidth="true"/>
+    <col min="16" max="16" width="7.93359375" customWidth="true"/>
+    <col min="17" max="17" width="7.82421875" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
+    <col min="19" max="19" width="9.37890625" customWidth="true"/>
+    <col min="20" max="20" width="7.37890625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
+    <col min="22" max="22" width="8.046875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="12.42578125" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
+    <col min="24" max="24" width="12.37890625" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.26953125" customWidth="true"/>
+    <col min="27" max="27" width="11.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="7.7109375" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
+    <col min="30" max="30" width="5.37890625" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="8.42578125" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
+    <col min="32" max="32" width="8.37890625" customWidth="true"/>
+    <col min="33" max="33" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1545</v>
+        <v>174</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1548</v>
+        <v>177</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1549</v>
+        <v>178</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1551</v>
+        <v>180</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1552</v>
+        <v>181</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1573</v>
+        <v>202</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1574</v>
+        <v>203</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1575</v>
+        <v>204</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1576</v>
+        <v>205</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1577</v>
+        <v>206</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1578</v>
+        <v>207</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1579</v>
+        <v>208</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1580</v>
+        <v>209</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1581</v>
+        <v>210</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1582</v>
+        <v>211</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1583</v>
+        <v>212</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1584</v>
+        <v>213</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1585</v>
+        <v>214</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1586</v>
+        <v>215</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1587</v>
+        <v>216</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1588</v>
+        <v>217</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1589</v>
+        <v>218</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1590</v>
+        <v>219</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1591</v>
+        <v>220</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1592</v>
+        <v>221</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1593</v>
+        <v>222</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1594</v>
+        <v>223</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1595</v>
+        <v>224</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1596</v>
+        <v>225</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1597</v>
+        <v>226</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1599</v>
+        <v>228</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1600</v>
+        <v>229</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1601</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1546</v>
+        <v>175</v>
       </c>
       <c r="B2" s="0">
         <v>30518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1553</v>
+        <v>182</v>
       </c>
       <c r="F2" s="0">
         <v>590.19000000000005</v>
@@ -10175,7 +5937,7 @@
         <v>1.625</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>1598</v>
+        <v>227</v>
       </c>
       <c r="AE2" s="0">
         <v>21.666666666666668</v>
@@ -10189,19 +5951,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1546</v>
+        <v>175</v>
       </c>
       <c r="B3" s="0">
         <v>41220</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1554</v>
+        <v>183</v>
       </c>
       <c r="F3" s="0">
         <v>527.303</v>
@@ -10288,19 +6050,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1546</v>
+        <v>175</v>
       </c>
       <c r="B4" s="0">
         <v>180121</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1555</v>
+        <v>184</v>
       </c>
       <c r="F4" s="0">
         <v>402.56</v>
@@ -10387,19 +6149,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1546</v>
+        <v>175</v>
       </c>
       <c r="B5" s="0">
         <v>190121</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1556</v>
+        <v>185</v>
       </c>
       <c r="F5" s="0">
         <v>531.99300000000005</v>
@@ -10486,19 +6248,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1546</v>
+        <v>175</v>
       </c>
       <c r="B6" s="0">
         <v>190121</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D6" s="0">
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1557</v>
+        <v>186</v>
       </c>
       <c r="F6" s="0">
         <v>406.07999999999998</v>
@@ -10585,19 +6347,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1546</v>
+        <v>175</v>
       </c>
       <c r="B7" s="0">
         <v>190121</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D7" s="0">
         <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1558</v>
+        <v>187</v>
       </c>
       <c r="F7" s="0">
         <v>363.67099999999999</v>
@@ -10684,19 +6446,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1546</v>
+        <v>175</v>
       </c>
       <c r="B8" s="0">
         <v>250121</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1559</v>
+        <v>188</v>
       </c>
       <c r="F8" s="0">
         <v>455.69900000000001</v>
@@ -10783,19 +6545,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1547</v>
+        <v>176</v>
       </c>
       <c r="B9" s="0">
         <v>210618</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1560</v>
+        <v>189</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -10856,13 +6618,13 @@
         <v>30818</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D10" s="0">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1561</v>
+        <v>190</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -10923,13 +6685,13 @@
         <v>30818</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D11" s="0">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1562</v>
+        <v>191</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -10990,13 +6752,13 @@
         <v>30818</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>1563</v>
+        <v>192</v>
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
@@ -11055,13 +6817,13 @@
         <v>60818</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D13" s="0">
         <v>3</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>1564</v>
+        <v>193</v>
       </c>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
@@ -11122,13 +6884,13 @@
         <v>70818</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D14" s="0">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>1565</v>
+        <v>194</v>
       </c>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
@@ -11189,13 +6951,13 @@
         <v>70818</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>1566</v>
+        <v>195</v>
       </c>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
@@ -11256,13 +7018,13 @@
         <v>70818</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D16" s="0">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>1567</v>
+        <v>196</v>
       </c>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -11323,13 +7085,13 @@
         <v>70818</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D17" s="0">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>1568</v>
+        <v>197</v>
       </c>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -11388,13 +7150,13 @@
         <v>70818</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D18" s="0">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>1569</v>
+        <v>198</v>
       </c>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
@@ -11455,13 +7217,13 @@
         <v>140818</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D19" s="0">
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>1570</v>
+        <v>199</v>
       </c>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
@@ -11522,13 +7284,13 @@
         <v>140818</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D20" s="0">
         <v>2</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>1571</v>
+        <v>200</v>
       </c>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
@@ -11587,13 +7349,13 @@
         <v>140818</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1550</v>
+        <v>179</v>
       </c>
       <c r="D21" s="0">
         <v>3</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>1572</v>
+        <v>201</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -11646,296 +7408,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0">
-        <v>140818</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="D22" s="0">
-        <v>2</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="0"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="0">
-        <v>1.060556464811784</v>
-      </c>
-      <c r="V22" s="0">
-        <v>1.15625</v>
-      </c>
-      <c r="W22" s="0">
-        <v>66.593750000000014</v>
-      </c>
-      <c r="X22" s="0">
-        <v>-74.646874999999994</v>
-      </c>
-      <c r="Y22" s="0">
-        <v>105.82011441241487</v>
-      </c>
-      <c r="Z22" s="0">
-        <v>11</v>
-      </c>
-      <c r="AA22" s="0">
-        <v>121.45937499999999</v>
-      </c>
-      <c r="AB22" s="0">
-        <v>0.87894171019452472</v>
-      </c>
-      <c r="AC22" s="0"/>
-      <c r="AD22" s="0"/>
-      <c r="AE22" s="0">
-        <v>18.333333333333336</v>
-      </c>
-      <c r="AF22" s="0">
-        <v>0.34375</v>
-      </c>
-      <c r="AG22" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0">
-        <v>140818</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="D23" s="0">
-        <v>3</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="0"/>
-      <c r="N23" s="0"/>
-      <c r="O23" s="0"/>
-      <c r="P23" s="0"/>
-      <c r="Q23" s="0"/>
-      <c r="R23" s="0"/>
-      <c r="S23" s="0"/>
-      <c r="T23" s="0"/>
-      <c r="U23" s="0">
-        <v>1.072139303482587</v>
-      </c>
-      <c r="V23" s="0">
-        <v>1.8125</v>
-      </c>
-      <c r="W23" s="0">
-        <v>86.5625</v>
-      </c>
-      <c r="X23" s="0">
-        <v>-78.5625</v>
-      </c>
-      <c r="Y23" s="0">
-        <v>104.78026963125701</v>
-      </c>
-      <c r="Z23" s="0">
-        <v>12</v>
-      </c>
-      <c r="AA23" s="0">
-        <v>125.15625</v>
-      </c>
-      <c r="AB23" s="0">
-        <v>0.75128759574338133</v>
-      </c>
-      <c r="AC23" s="0"/>
-      <c r="AD23" s="0"/>
-      <c r="AE23" s="0">
-        <v>20</v>
-      </c>
-      <c r="AF23" s="0">
-        <v>1.4061999999999999</v>
-      </c>
-      <c r="AG23" s="0">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AG10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.37890625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
+    <col min="7" max="7" width="10.15625" customWidth="true"/>
+    <col min="8" max="8" width="7.37890625" customWidth="true"/>
+    <col min="9" max="9" width="9.15625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="6.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
+    <col min="15" max="15" width="4.37890625" customWidth="true"/>
+    <col min="16" max="16" width="7.93359375" customWidth="true"/>
+    <col min="17" max="17" width="7.82421875" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
+    <col min="19" max="19" width="9.37890625" customWidth="true"/>
+    <col min="20" max="20" width="7.37890625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
+    <col min="22" max="22" width="8.046875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.42578125" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
+    <col min="24" max="24" width="10.37890625" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.26953125" customWidth="true"/>
+    <col min="27" max="27" width="11.48828125" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="8.7109375" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
+    <col min="30" max="30" width="5.37890625" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="7.7109375" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
+    <col min="33" max="33" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1602</v>
+        <v>231</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1606</v>
+        <v>235</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1607</v>
+        <v>236</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1609</v>
+        <v>238</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1610</v>
+        <v>239</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1620</v>
+        <v>249</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1621</v>
+        <v>250</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1622</v>
+        <v>251</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1623</v>
+        <v>252</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1624</v>
+        <v>253</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1625</v>
+        <v>254</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1626</v>
+        <v>255</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1627</v>
+        <v>256</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1628</v>
+        <v>257</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1629</v>
+        <v>258</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1630</v>
+        <v>259</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1631</v>
+        <v>260</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1632</v>
+        <v>261</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1633</v>
+        <v>262</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1634</v>
+        <v>263</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1635</v>
+        <v>264</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1636</v>
+        <v>265</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1637</v>
+        <v>266</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1638</v>
+        <v>267</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1639</v>
+        <v>268</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1640</v>
+        <v>269</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1641</v>
+        <v>270</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1642</v>
+        <v>271</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1643</v>
+        <v>272</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1644</v>
+        <v>273</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1646</v>
+        <v>275</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1647</v>
+        <v>276</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1648</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1603</v>
+        <v>232</v>
       </c>
       <c r="B2" s="0">
         <v>220519</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1608</v>
+        <v>237</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1611</v>
+        <v>240</v>
       </c>
       <c r="F2" s="0">
         <v>507.31400000000002</v>
@@ -12022,19 +7654,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1603</v>
+        <v>232</v>
       </c>
       <c r="B3" s="0">
         <v>290519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1608</v>
+        <v>237</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1612</v>
+        <v>241</v>
       </c>
       <c r="F3" s="0">
         <v>404.71699999999998</v>
@@ -12121,19 +7753,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1604</v>
+        <v>233</v>
       </c>
       <c r="B4" s="0">
         <v>290519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1608</v>
+        <v>237</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1613</v>
+        <v>242</v>
       </c>
       <c r="F4" s="0">
         <v>585.452</v>
@@ -12206,7 +7838,7 @@
       </c>
       <c r="AC4" s="0"/>
       <c r="AD4" s="0" t="s">
-        <v>1645</v>
+        <v>274</v>
       </c>
       <c r="AE4" s="0">
         <v>31.666666666666668</v>
@@ -12220,19 +7852,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1605</v>
+        <v>234</v>
       </c>
       <c r="B5" s="0">
         <v>300519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1608</v>
+        <v>237</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1614</v>
+        <v>243</v>
       </c>
       <c r="F5" s="0">
         <v>589.42399999999998</v>
@@ -12317,19 +7949,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1605</v>
+        <v>234</v>
       </c>
       <c r="B6" s="0">
         <v>300519</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1608</v>
+        <v>237</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1615</v>
+        <v>244</v>
       </c>
       <c r="F6" s="0">
         <v>593.97900000000004</v>
@@ -12402,7 +8034,7 @@
       </c>
       <c r="AC6" s="0"/>
       <c r="AD6" s="0" t="s">
-        <v>1645</v>
+        <v>274</v>
       </c>
       <c r="AE6" s="0">
         <v>18.333333333333336</v>
@@ -12416,19 +8048,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1605</v>
+        <v>234</v>
       </c>
       <c r="B7" s="0">
         <v>270520</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1608</v>
+        <v>237</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1616</v>
+        <v>245</v>
       </c>
       <c r="F7" s="0">
         <v>393.995</v>
@@ -12519,13 +8151,13 @@
         <v>251018</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1608</v>
+        <v>237</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1617</v>
+        <v>246</v>
       </c>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
@@ -12586,13 +8218,13 @@
         <v>251018</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1608</v>
+        <v>237</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1618</v>
+        <v>247</v>
       </c>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -12653,13 +8285,13 @@
         <v>220519</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1608</v>
+        <v>237</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1619</v>
+        <v>248</v>
       </c>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -12714,73 +8346,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0">
-        <v>220519</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>552</v>
-      </c>
-      <c r="D11" s="0">
-        <v>2</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="0"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="0">
-        <v>1.0590943975441289</v>
-      </c>
-      <c r="V11" s="0">
-        <v>2.40625</v>
-      </c>
-      <c r="W11" s="0">
-        <v>135.13541666666666</v>
-      </c>
-      <c r="X11" s="0">
-        <v>-72.428124999999994</v>
-      </c>
-      <c r="Y11" s="0">
-        <v>48.732153600233246</v>
-      </c>
-      <c r="Z11" s="0">
-        <v>17</v>
-      </c>
-      <c r="AA11" s="0">
-        <v>124.24062499999999</v>
-      </c>
-      <c r="AB11" s="0">
-        <v>0.90791852242885795</v>
-      </c>
-      <c r="AC11" s="0">
-        <v>4.6875</v>
-      </c>
-      <c r="AD11" s="0"/>
-      <c r="AE11" s="0">
-        <v>28.333333333333336</v>
-      </c>
-      <c r="AF11" s="0">
-        <v>0.84375</v>
-      </c>
-      <c r="AG11" s="0">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -12790,157 +8355,157 @@
   <dimension ref="A1:AG11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.5703125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
+    <col min="1" max="1" width="5.48828125" customWidth="true"/>
+    <col min="2" max="2" width="7.15625" customWidth="true"/>
+    <col min="3" max="3" width="10.6015625" customWidth="true"/>
+    <col min="4" max="4" width="4.82421875" customWidth="true"/>
+    <col min="5" max="5" width="3.82421875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
+    <col min="7" max="7" width="10.15625" customWidth="true"/>
+    <col min="8" max="8" width="7.37890625" customWidth="true"/>
+    <col min="9" max="9" width="9.15625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="12" max="12" width="9.26953125" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="6.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
+    <col min="15" max="15" width="4.37890625" customWidth="true"/>
+    <col min="16" max="16" width="7.93359375" customWidth="true"/>
+    <col min="17" max="17" width="7.82421875" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
+    <col min="19" max="19" width="9.37890625" customWidth="true"/>
+    <col min="20" max="20" width="7.37890625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
+    <col min="22" max="22" width="8.046875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.42578125" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
+    <col min="24" max="24" width="10.37890625" customWidth="true"/>
+    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="26" max="26" width="10.26953125" customWidth="true"/>
+    <col min="27" max="27" width="11.48828125" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="7.7109375" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
+    <col min="30" max="30" width="5.37890625" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
     <col min="32" max="32" width="7.7109375" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
+    <col min="33" max="33" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1649</v>
+        <v>278</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1656</v>
+        <v>285</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1657</v>
+        <v>286</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1659</v>
+        <v>288</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1660</v>
+        <v>289</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1671</v>
+        <v>300</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1672</v>
+        <v>301</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1673</v>
+        <v>302</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1674</v>
+        <v>303</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1675</v>
+        <v>304</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1676</v>
+        <v>305</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1677</v>
+        <v>306</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1678</v>
+        <v>307</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>1679</v>
+        <v>308</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>1680</v>
+        <v>309</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>1681</v>
+        <v>310</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>1682</v>
+        <v>311</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>1683</v>
+        <v>312</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>1684</v>
+        <v>313</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>1685</v>
+        <v>314</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>1686</v>
+        <v>315</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>1687</v>
+        <v>316</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>1688</v>
+        <v>317</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>1689</v>
+        <v>318</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>1690</v>
+        <v>319</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>1691</v>
+        <v>320</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>1692</v>
+        <v>321</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>1693</v>
+        <v>322</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>1694</v>
+        <v>323</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>1695</v>
+        <v>324</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>1697</v>
+        <v>326</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>1698</v>
+        <v>327</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>1699</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1650</v>
+        <v>279</v>
       </c>
       <c r="B2" s="0">
         <v>31218</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1658</v>
+        <v>287</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>1661</v>
+        <v>290</v>
       </c>
       <c r="F2" s="0">
         <v>360.89699999999999</v>
@@ -13013,7 +8578,7 @@
       </c>
       <c r="AC2" s="0"/>
       <c r="AD2" s="0" t="s">
-        <v>1696</v>
+        <v>325</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -13027,19 +8592,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1650</v>
+        <v>279</v>
       </c>
       <c r="B3" s="0">
         <v>171218</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1658</v>
+        <v>287</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>1662</v>
+        <v>291</v>
       </c>
       <c r="F3" s="0">
         <v>457.68700000000001</v>
@@ -13114,7 +8679,7 @@
         <v>5.0625</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>1696</v>
+        <v>325</v>
       </c>
       <c r="AE3" s="0">
         <v>26.666666666666668</v>
@@ -13128,19 +8693,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1651</v>
+        <v>280</v>
       </c>
       <c r="B4" s="0">
         <v>171218</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1658</v>
+        <v>287</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>1663</v>
+        <v>292</v>
       </c>
       <c r="F4" s="0">
         <v>426.435</v>
@@ -13215,7 +8780,7 @@
         <v>3.15625</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>1696</v>
+        <v>325</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -13229,19 +8794,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1652</v>
+        <v>281</v>
       </c>
       <c r="B5" s="0">
         <v>171218</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1658</v>
+        <v>287</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>1664</v>
+        <v>293</v>
       </c>
       <c r="F5" s="0">
         <v>428.84899999999999</v>
@@ -13316,7 +8881,7 @@
         <v>3.78125</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>1696</v>
+        <v>325</v>
       </c>
       <c r="AE5" s="0">
         <v>0</v>
@@ -13330,19 +8895,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1652</v>
+        <v>281</v>
       </c>
       <c r="B6" s="0">
         <v>171218</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>1658</v>
+        <v>287</v>
       </c>
       <c r="D6" s="0">
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>1665</v>
+        <v>294</v>
       </c>
       <c r="F6" s="0">
         <v>378.36900000000003</v>
@@ -13417,7 +8982,7 @@
         <v>3.71875</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>1696</v>
+        <v>325</v>
       </c>
       <c r="AE6" s="0">
         <v>16.666666666666668</v>
@@ -13431,19 +8996,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1653</v>
+        <v>282</v>
       </c>
       <c r="B7" s="0">
         <v>171218</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>1658</v>
+        <v>287</v>
       </c>
       <c r="D7" s="0">
         <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>1666</v>
+        <v>295</v>
       </c>
       <c r="F7" s="0">
         <v>416.42399999999998</v>
@@ -13516,7 +9081,7 @@
       </c>
       <c r="AC7" s="0"/>
       <c r="AD7" s="0" t="s">
-        <v>1696</v>
+        <v>325</v>
       </c>
       <c r="AE7" s="0">
         <v>0</v>
@@ -13530,19 +9095,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1654</v>
+        <v>283</v>
       </c>
       <c r="B8" s="0">
         <v>70219</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>1658</v>
+        <v>287</v>
       </c>
       <c r="D8" s="0">
         <v>3</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1667</v>
+        <v>296</v>
       </c>
       <c r="F8" s="0">
         <v>546.37099999999998</v>
@@ -13617,7 +9182,7 @@
         <v>5.03125</v>
       </c>
       <c r="AD8" s="0" t="s">
-        <v>1696</v>
+        <v>325</v>
       </c>
       <c r="AE8" s="0">
         <v>83.333333333333343</v>
@@ -13631,19 +9196,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1654</v>
+        <v>283</v>
       </c>
       <c r="B9" s="0">
         <v>80219</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1658</v>
+        <v>287</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>1668</v>
+        <v>297</v>
       </c>
       <c r="F9" s="0">
         <v>500.19600000000003</v>
@@ -13730,19 +9295,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1654</v>
+        <v>283</v>
       </c>
       <c r="B10" s="0">
         <v>80219</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1658</v>
+        <v>287</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>1669</v>
+        <v>298</v>
       </c>
       <c r="F10" s="0">
         <v>459.149</v>
@@ -13827,19 +9392,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1655</v>
+        <v>284</v>
       </c>
       <c r="B11" s="0">
         <v>120219</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1658</v>
+        <v>287</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>1670</v>
+        <v>299</v>
       </c>
       <c r="F11" s="0">
         <v>500.5</v>
@@ -13919,346 +9484,6 @@
         <v>1.9375</v>
       </c>
       <c r="AG11" s="0">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG4"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="true"/>
-    <col min="2" max="2" width="6.140625" customWidth="true"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true"/>
-    <col min="4" max="4" width="5.28515625" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
-    <col min="6" max="6" width="6.5703125" customWidth="true"/>
-    <col min="7" max="7" width="10.85546875" customWidth="true"/>
-    <col min="8" max="8" width="8" customWidth="true"/>
-    <col min="9" max="9" width="10.140625" customWidth="true"/>
-    <col min="10" max="10" width="5.28515625" customWidth="true"/>
-    <col min="11" max="11" width="9.42578125" customWidth="true"/>
-    <col min="12" max="12" width="10" customWidth="true"/>
-    <col min="13" max="13" width="6.140625" customWidth="true"/>
-    <col min="14" max="14" width="6.140625" customWidth="true"/>
-    <col min="15" max="15" width="4.7109375" customWidth="true"/>
-    <col min="16" max="16" width="8.140625" customWidth="true"/>
-    <col min="17" max="17" width="8.140625" customWidth="true"/>
-    <col min="18" max="18" width="6.28515625" customWidth="true"/>
-    <col min="19" max="19" width="10" customWidth="true"/>
-    <col min="20" max="20" width="8.28515625" customWidth="true"/>
-    <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.85546875" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.42578125" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="11.28515625" customWidth="true"/>
-    <col min="27" max="27" width="13" customWidth="true"/>
-    <col min="28" max="28" width="11.7109375" customWidth="true"/>
-    <col min="29" max="29" width="7" customWidth="true"/>
-    <col min="30" max="30" width="5.7109375" customWidth="true"/>
-    <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="7.7109375" customWidth="true"/>
-    <col min="33" max="33" width="15" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>1147</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>1148</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>1149</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>1150</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>1151</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>1152</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>1154</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>1155</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>1156</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>1157</v>
-      </c>
-      <c r="S1" s="0" t="s">
-        <v>1158</v>
-      </c>
-      <c r="T1" s="0" t="s">
-        <v>1159</v>
-      </c>
-      <c r="U1" s="0" t="s">
-        <v>1160</v>
-      </c>
-      <c r="V1" s="0" t="s">
-        <v>1161</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>1162</v>
-      </c>
-      <c r="X1" s="0" t="s">
-        <v>1163</v>
-      </c>
-      <c r="Y1" s="0" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Z1" s="0" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AA1" s="0" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AB1" s="0" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AC1" s="0" t="s">
-        <v>1168</v>
-      </c>
-      <c r="AD1" s="0" t="s">
-        <v>1169</v>
-      </c>
-      <c r="AE1" s="0" t="s">
-        <v>1170</v>
-      </c>
-      <c r="AF1" s="0" t="s">
-        <v>1171</v>
-      </c>
-      <c r="AG1" s="0" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0">
-        <v>21018</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D2" s="0">
-        <v>2</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0">
-        <v>1.058457711442786</v>
-      </c>
-      <c r="V2" s="0">
-        <v>1.46875</v>
-      </c>
-      <c r="W2" s="0">
-        <v>80.968750000000014</v>
-      </c>
-      <c r="X2" s="0">
-        <v>-67.240624999999994</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>103.98393335187315</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>14</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>110.74062499999999</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>1.0290353798435561</v>
-      </c>
-      <c r="AC2" s="0"/>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="0">
-        <v>23.333333333333336</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>0.21875</v>
-      </c>
-      <c r="AG2" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0">
-        <v>21018</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D3" s="0">
-        <v>2</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0">
-        <v>1.1147036181678214</v>
-      </c>
-      <c r="V3" s="0">
-        <v>2.328125</v>
-      </c>
-      <c r="W3" s="0">
-        <v>68.427083333333343</v>
-      </c>
-      <c r="X3" s="0">
-        <v>-68.049999999999997</v>
-      </c>
-      <c r="Y3" s="0">
-        <v>115.16829686048196</v>
-      </c>
-      <c r="Z3" s="0">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="0">
-        <v>114.11250000000001</v>
-      </c>
-      <c r="AB3" s="0">
-        <v>1.0509376151631962</v>
-      </c>
-      <c r="AC3" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0">
-        <v>11.666666666666668</v>
-      </c>
-      <c r="AF3" s="0">
-        <v>1.1875</v>
-      </c>
-      <c r="AG3" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0">
-        <v>270319</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-      <c r="U4" s="0">
-        <v>1.0929203539823009</v>
-      </c>
-      <c r="V4" s="0">
-        <v>2.625</v>
-      </c>
-      <c r="W4" s="0">
-        <v>95.885416666666657</v>
-      </c>
-      <c r="X4" s="0">
-        <v>-67.640625</v>
-      </c>
-      <c r="Y4" s="0">
-        <v>102.89439262185155</v>
-      </c>
-      <c r="Z4" s="0"/>
-      <c r="AA4" s="0">
-        <v>113.734375</v>
-      </c>
-      <c r="AB4" s="0">
-        <v>0.64929628877543166</v>
-      </c>
-      <c r="AC4" s="0">
-        <v>18</v>
-      </c>
-      <c r="AD4" s="0"/>
-      <c r="AE4" s="0">
-        <v>28.333333333333336</v>
-      </c>
-      <c r="AF4" s="0">
-        <v>0.5625</v>
-      </c>
-      <c r="AG4" s="0">
         <v>0</v>
       </c>
     </row>

--- a/Data/out/Re-organization_0.xlsx
+++ b/Data/out/Re-organization_0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="927">
   <si>
     <t>Label</t>
   </si>
@@ -859,6 +859,972 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t45</t>
+  </si>
+  <si>
+    <t>t61</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t38</t>
+  </si>
+  <si>
+    <t>t20</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
   </si>
   <si>
     <t>IInj</t>
@@ -1904,177 +2870,177 @@
   <dimension ref="A1:AL16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.48828125" customWidth="true"/>
-    <col min="2" max="2" width="7.15625" customWidth="true"/>
-    <col min="3" max="3" width="10.37890625" customWidth="true"/>
-    <col min="4" max="4" width="4.82421875" customWidth="true"/>
-    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="5.28515625" customWidth="true"/>
+    <col min="5" max="5" width="3.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.15625" customWidth="true"/>
-    <col min="8" max="8" width="7.37890625" customWidth="true"/>
-    <col min="9" max="9" width="9.15625" customWidth="true"/>
+    <col min="7" max="7" width="10.85546875" customWidth="true"/>
+    <col min="8" max="8" width="8" customWidth="true"/>
+    <col min="9" max="9" width="10.140625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="8.7109375" customWidth="true"/>
-    <col min="12" max="12" width="9.26953125" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.37890625" customWidth="true"/>
-    <col min="16" max="16" width="7.93359375" customWidth="true"/>
-    <col min="17" max="17" width="7.82421875" customWidth="true"/>
+    <col min="15" max="15" width="4.7109375" customWidth="true"/>
+    <col min="16" max="16" width="8.140625" customWidth="true"/>
+    <col min="17" max="17" width="8.140625" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="9.37890625" customWidth="true"/>
-    <col min="20" max="20" width="7.37890625" customWidth="true"/>
+    <col min="19" max="19" width="10" customWidth="true"/>
+    <col min="20" max="20" width="8.28515625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.7109375" customWidth="true"/>
+    <col min="22" max="22" width="8.85546875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.37890625" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="10.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="10.26953125" customWidth="true"/>
-    <col min="30" max="30" width="11.48828125" customWidth="true"/>
+    <col min="29" max="29" width="11.28515625" customWidth="true"/>
+    <col min="30" max="30" width="13" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
-    <col min="32" max="32" width="9.7109375" customWidth="true"/>
+    <col min="32" max="32" width="10" customWidth="true"/>
     <col min="33" max="33" width="8.7109375" customWidth="true"/>
     <col min="34" max="34" width="8.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="3.7109375" customWidth="true"/>
+    <col min="36" max="36" width="4" customWidth="true"/>
     <col min="37" max="37" width="7.7109375" customWidth="true"/>
-    <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="38" max="38" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>283</v>
+        <v>605</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>292</v>
+        <v>614</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>293</v>
+        <v>615</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>295</v>
+        <v>617</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>296</v>
+        <v>618</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>312</v>
+        <v>634</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>313</v>
+        <v>635</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>314</v>
+        <v>636</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>315</v>
+        <v>637</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>316</v>
+        <v>638</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>317</v>
+        <v>639</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>318</v>
+        <v>640</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>319</v>
+        <v>641</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>320</v>
+        <v>642</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>321</v>
+        <v>643</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>322</v>
+        <v>644</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>323</v>
+        <v>645</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>324</v>
+        <v>646</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>325</v>
+        <v>647</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>326</v>
+        <v>648</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>327</v>
+        <v>649</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>328</v>
+        <v>650</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>329</v>
+        <v>651</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>330</v>
+        <v>652</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>331</v>
+        <v>653</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>332</v>
+        <v>654</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>333</v>
+        <v>655</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>334</v>
+        <v>656</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>335</v>
+        <v>657</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>336</v>
+        <v>658</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>337</v>
+        <v>659</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>338</v>
+        <v>660</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>339</v>
+        <v>661</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>340</v>
+        <v>662</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>341</v>
+        <v>663</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>342</v>
+        <v>664</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>343</v>
+        <v>665</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>344</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>284</v>
+        <v>606</v>
       </c>
       <c r="B2" s="0">
         <v>70518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>297</v>
+        <v>619</v>
       </c>
       <c r="F2" s="0">
         <v>527.33900000000006</v>
@@ -2176,19 +3142,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>285</v>
+        <v>607</v>
       </c>
       <c r="B3" s="0">
         <v>70518</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D3" s="0">
         <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>298</v>
+        <v>620</v>
       </c>
       <c r="F3" s="0">
         <v>509.87200000000001</v>
@@ -2290,19 +3256,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>285</v>
+        <v>607</v>
       </c>
       <c r="B4" s="0">
         <v>70518</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>299</v>
+        <v>621</v>
       </c>
       <c r="F4" s="0">
         <v>414.42200000000003</v>
@@ -2404,19 +3370,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>286</v>
+        <v>608</v>
       </c>
       <c r="B5" s="0">
         <v>70518</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>300</v>
+        <v>622</v>
       </c>
       <c r="F5" s="0">
         <v>466.68799999999999</v>
@@ -2516,19 +3482,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>286</v>
+        <v>608</v>
       </c>
       <c r="B6" s="0">
         <v>50618</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>301</v>
+        <v>623</v>
       </c>
       <c r="F6" s="0">
         <v>383.32900000000001</v>
@@ -2632,19 +3598,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>287</v>
+        <v>609</v>
       </c>
       <c r="B7" s="0">
         <v>50618</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>302</v>
+        <v>624</v>
       </c>
       <c r="F7" s="0">
         <v>476.22300000000001</v>
@@ -2746,19 +3712,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>288</v>
+        <v>610</v>
       </c>
       <c r="B8" s="0">
         <v>310120</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D8" s="0">
         <v>3</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>303</v>
+        <v>625</v>
       </c>
       <c r="F8" s="0">
         <v>380.67500000000001</v>
@@ -2862,19 +3828,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>288</v>
+        <v>610</v>
       </c>
       <c r="B9" s="0">
         <v>260420</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>304</v>
+        <v>626</v>
       </c>
       <c r="F9" s="0">
         <v>373.99900000000002</v>
@@ -2976,19 +3942,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>288</v>
+        <v>610</v>
       </c>
       <c r="B10" s="0">
         <v>260420</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>305</v>
+        <v>627</v>
       </c>
       <c r="F10" s="0">
         <v>384.10599999999999</v>
@@ -3090,19 +4056,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>288</v>
+        <v>610</v>
       </c>
       <c r="B11" s="0">
         <v>280420</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>306</v>
+        <v>628</v>
       </c>
       <c r="F11" s="0">
         <v>319.63099999999997</v>
@@ -3204,19 +4170,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>289</v>
+        <v>611</v>
       </c>
       <c r="B12" s="0">
         <v>280420</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D12" s="0">
         <v>3</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>307</v>
+        <v>629</v>
       </c>
       <c r="F12" s="0">
         <v>375.012</v>
@@ -3318,19 +4284,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>289</v>
+        <v>611</v>
       </c>
       <c r="B13" s="0">
         <v>290420</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>308</v>
+        <v>630</v>
       </c>
       <c r="F13" s="0">
         <v>381.83600000000001</v>
@@ -3432,19 +4398,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>289</v>
+        <v>611</v>
       </c>
       <c r="B14" s="0">
         <v>20520</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D14" s="0">
         <v>3</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>309</v>
+        <v>631</v>
       </c>
       <c r="F14" s="0">
         <v>426.51900000000001</v>
@@ -3546,19 +4512,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>290</v>
+        <v>612</v>
       </c>
       <c r="B15" s="0">
         <v>20520</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D15" s="0">
         <v>3</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>310</v>
+        <v>632</v>
       </c>
       <c r="F15" s="0">
         <v>397.04599999999999</v>
@@ -3660,19 +4626,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>291</v>
+        <v>613</v>
       </c>
       <c r="B16" s="0">
         <v>30221</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>294</v>
+        <v>616</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>311</v>
+        <v>633</v>
       </c>
       <c r="F16" s="0">
         <v>378.37099999999998</v>
@@ -3777,177 +4743,177 @@
   <dimension ref="A1:AL16"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.48828125" customWidth="true"/>
-    <col min="2" max="2" width="7.15625" customWidth="true"/>
-    <col min="3" max="3" width="10.37890625" customWidth="true"/>
-    <col min="4" max="4" width="4.82421875" customWidth="true"/>
-    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="5.28515625" customWidth="true"/>
+    <col min="5" max="5" width="3.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.15625" customWidth="true"/>
-    <col min="8" max="8" width="7.37890625" customWidth="true"/>
-    <col min="9" max="9" width="9.15625" customWidth="true"/>
+    <col min="7" max="7" width="10.85546875" customWidth="true"/>
+    <col min="8" max="8" width="8" customWidth="true"/>
+    <col min="9" max="9" width="10.140625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="8.7109375" customWidth="true"/>
-    <col min="12" max="12" width="9.26953125" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="6.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.37890625" customWidth="true"/>
-    <col min="16" max="16" width="7.93359375" customWidth="true"/>
-    <col min="17" max="17" width="7.82421875" customWidth="true"/>
+    <col min="15" max="15" width="4.7109375" customWidth="true"/>
+    <col min="16" max="16" width="8.140625" customWidth="true"/>
+    <col min="17" max="17" width="8.140625" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="9.37890625" customWidth="true"/>
-    <col min="20" max="20" width="7.37890625" customWidth="true"/>
+    <col min="19" max="19" width="10" customWidth="true"/>
+    <col min="20" max="20" width="8.28515625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.046875" customWidth="true"/>
+    <col min="22" max="22" width="8.85546875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.37890625" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="10.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="10.26953125" customWidth="true"/>
-    <col min="30" max="30" width="11.48828125" customWidth="true"/>
+    <col min="29" max="29" width="11.28515625" customWidth="true"/>
+    <col min="30" max="30" width="13" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
-    <col min="32" max="32" width="9.15625" customWidth="true"/>
-    <col min="33" max="33" width="7.93359375" customWidth="true"/>
+    <col min="32" max="32" width="10" customWidth="true"/>
+    <col min="33" max="33" width="8.7109375" customWidth="true"/>
     <col min="34" max="34" width="7.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="3.7109375" customWidth="true"/>
+    <col min="36" max="36" width="4" customWidth="true"/>
     <col min="37" max="37" width="7.7109375" customWidth="true"/>
-    <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="38" max="38" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>345</v>
+        <v>667</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>356</v>
+        <v>678</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>357</v>
+        <v>679</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>359</v>
+        <v>681</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>360</v>
+        <v>682</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>376</v>
+        <v>698</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>377</v>
+        <v>699</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>378</v>
+        <v>700</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>379</v>
+        <v>701</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>380</v>
+        <v>702</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>381</v>
+        <v>703</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>382</v>
+        <v>704</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>383</v>
+        <v>705</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>384</v>
+        <v>706</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>385</v>
+        <v>707</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>386</v>
+        <v>708</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>387</v>
+        <v>709</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>388</v>
+        <v>710</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>389</v>
+        <v>711</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>390</v>
+        <v>712</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>391</v>
+        <v>713</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>392</v>
+        <v>714</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>393</v>
+        <v>715</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>394</v>
+        <v>716</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>395</v>
+        <v>717</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>396</v>
+        <v>718</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>397</v>
+        <v>719</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>398</v>
+        <v>720</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>399</v>
+        <v>721</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>400</v>
+        <v>722</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>401</v>
+        <v>723</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>402</v>
+        <v>724</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>403</v>
+        <v>725</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>404</v>
+        <v>726</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>405</v>
+        <v>727</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>406</v>
+        <v>728</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>407</v>
+        <v>729</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>408</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>346</v>
+        <v>668</v>
       </c>
       <c r="B2" s="0">
         <v>250320</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>361</v>
+        <v>683</v>
       </c>
       <c r="F2" s="0">
         <v>428.44900000000001</v>
@@ -4051,19 +5017,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>347</v>
+        <v>669</v>
       </c>
       <c r="B3" s="0">
         <v>260320</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>362</v>
+        <v>684</v>
       </c>
       <c r="F3" s="0">
         <v>465.96699999999998</v>
@@ -4165,19 +5131,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>348</v>
+        <v>670</v>
       </c>
       <c r="B4" s="0">
         <v>260320</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>363</v>
+        <v>685</v>
       </c>
       <c r="F4" s="0">
         <v>514.60299999999995</v>
@@ -4275,19 +5241,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>348</v>
+        <v>670</v>
       </c>
       <c r="B5" s="0">
         <v>140520</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>364</v>
+        <v>686</v>
       </c>
       <c r="F5" s="0">
         <v>490.94</v>
@@ -4383,19 +5349,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>349</v>
+        <v>671</v>
       </c>
       <c r="B6" s="0">
         <v>150520</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>365</v>
+        <v>687</v>
       </c>
       <c r="F6" s="0">
         <v>515.92899999999997</v>
@@ -4497,19 +5463,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>350</v>
+        <v>672</v>
       </c>
       <c r="B7" s="0">
         <v>150520</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>366</v>
+        <v>688</v>
       </c>
       <c r="F7" s="0">
         <v>500.041</v>
@@ -4607,19 +5573,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>350</v>
+        <v>672</v>
       </c>
       <c r="B8" s="0">
         <v>190520</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>367</v>
+        <v>689</v>
       </c>
       <c r="F8" s="0">
         <v>475.017</v>
@@ -4723,19 +5689,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>350</v>
+        <v>672</v>
       </c>
       <c r="B9" s="0">
         <v>190520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>368</v>
+        <v>690</v>
       </c>
       <c r="F9" s="0">
         <v>570.43799999999999</v>
@@ -4837,19 +5803,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>351</v>
+        <v>673</v>
       </c>
       <c r="B10" s="0">
         <v>200520</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>369</v>
+        <v>691</v>
       </c>
       <c r="F10" s="0">
         <v>512.58900000000006</v>
@@ -4951,19 +5917,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>352</v>
+        <v>674</v>
       </c>
       <c r="B11" s="0">
         <v>210520</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D11" s="0">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>370</v>
+        <v>692</v>
       </c>
       <c r="F11" s="0">
         <v>482.98500000000001</v>
@@ -5065,19 +6031,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>353</v>
+        <v>675</v>
       </c>
       <c r="B12" s="0">
         <v>210520</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D12" s="0">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>371</v>
+        <v>693</v>
       </c>
       <c r="F12" s="0">
         <v>510.274</v>
@@ -5179,19 +6145,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>353</v>
+        <v>675</v>
       </c>
       <c r="B13" s="0">
         <v>210520</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>372</v>
+        <v>694</v>
       </c>
       <c r="F13" s="0">
         <v>570.12</v>
@@ -5293,19 +6259,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>354</v>
+        <v>676</v>
       </c>
       <c r="B14" s="0">
         <v>240520</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D14" s="0">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>373</v>
+        <v>695</v>
       </c>
       <c r="F14" s="0">
         <v>352.471</v>
@@ -5409,19 +6375,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>355</v>
+        <v>677</v>
       </c>
       <c r="B15" s="0">
         <v>240520</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D15" s="0">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>374</v>
+        <v>696</v>
       </c>
       <c r="F15" s="0">
         <v>432.50099999999998</v>
@@ -5523,19 +6489,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>355</v>
+        <v>677</v>
       </c>
       <c r="B16" s="0">
         <v>240520</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>358</v>
+        <v>680</v>
       </c>
       <c r="D16" s="0">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>375</v>
+        <v>697</v>
       </c>
       <c r="F16" s="0">
         <v>420.47899999999998</v>
@@ -5644,177 +6610,177 @@
   <dimension ref="A1:AL6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.48828125" customWidth="true"/>
-    <col min="2" max="2" width="7.15625" customWidth="true"/>
-    <col min="3" max="3" width="10.37890625" customWidth="true"/>
-    <col min="4" max="4" width="4.82421875" customWidth="true"/>
-    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="5.28515625" customWidth="true"/>
+    <col min="5" max="5" width="3.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.15625" customWidth="true"/>
-    <col min="8" max="8" width="7.37890625" customWidth="true"/>
-    <col min="9" max="9" width="9.15625" customWidth="true"/>
+    <col min="7" max="7" width="10.85546875" customWidth="true"/>
+    <col min="8" max="8" width="8" customWidth="true"/>
+    <col min="9" max="9" width="10.140625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="8.7109375" customWidth="true"/>
-    <col min="12" max="12" width="9.26953125" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.37890625" customWidth="true"/>
-    <col min="16" max="16" width="7.93359375" customWidth="true"/>
-    <col min="17" max="17" width="7.82421875" customWidth="true"/>
+    <col min="15" max="15" width="4.7109375" customWidth="true"/>
+    <col min="16" max="16" width="8.140625" customWidth="true"/>
+    <col min="17" max="17" width="8.140625" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="9.37890625" customWidth="true"/>
-    <col min="20" max="20" width="7.37890625" customWidth="true"/>
+    <col min="19" max="19" width="10" customWidth="true"/>
+    <col min="20" max="20" width="8.28515625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.7109375" customWidth="true"/>
+    <col min="22" max="22" width="8.85546875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.37890625" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="10.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="10.26953125" customWidth="true"/>
-    <col min="30" max="30" width="11.48828125" customWidth="true"/>
+    <col min="29" max="29" width="11.28515625" customWidth="true"/>
+    <col min="30" max="30" width="13" customWidth="true"/>
     <col min="31" max="31" width="11.7109375" customWidth="true"/>
-    <col min="32" max="32" width="9.15625" customWidth="true"/>
-    <col min="33" max="33" width="7.93359375" customWidth="true"/>
+    <col min="32" max="32" width="10" customWidth="true"/>
+    <col min="33" max="33" width="8.7109375" customWidth="true"/>
     <col min="34" max="34" width="7.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
     <col min="36" max="36" width="11.7109375" customWidth="true"/>
     <col min="37" max="37" width="6.7109375" customWidth="true"/>
-    <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="38" max="38" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>409</v>
+        <v>731</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>413</v>
+        <v>735</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>414</v>
+        <v>736</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>416</v>
+        <v>738</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>417</v>
+        <v>739</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>422</v>
+        <v>744</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>423</v>
+        <v>745</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>424</v>
+        <v>746</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>425</v>
+        <v>747</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>426</v>
+        <v>748</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>427</v>
+        <v>749</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>428</v>
+        <v>750</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>429</v>
+        <v>751</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>430</v>
+        <v>752</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>431</v>
+        <v>753</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>432</v>
+        <v>754</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>433</v>
+        <v>755</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>434</v>
+        <v>756</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>435</v>
+        <v>757</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>436</v>
+        <v>758</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>437</v>
+        <v>759</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>438</v>
+        <v>760</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>439</v>
+        <v>761</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>440</v>
+        <v>762</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>441</v>
+        <v>763</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>442</v>
+        <v>764</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>443</v>
+        <v>765</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>444</v>
+        <v>766</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>445</v>
+        <v>767</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>446</v>
+        <v>768</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>447</v>
+        <v>769</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>448</v>
+        <v>770</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>449</v>
+        <v>771</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>450</v>
+        <v>772</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>451</v>
+        <v>773</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>452</v>
+        <v>774</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>453</v>
+        <v>775</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>454</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>410</v>
+        <v>732</v>
       </c>
       <c r="B2" s="0">
         <v>21018</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>415</v>
+        <v>737</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>418</v>
+        <v>740</v>
       </c>
       <c r="F2" s="0">
         <v>363.99400000000003</v>
@@ -5916,19 +6882,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>411</v>
+        <v>733</v>
       </c>
       <c r="B3" s="0">
         <v>160519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>415</v>
+        <v>737</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>418</v>
+        <v>740</v>
       </c>
       <c r="F3" s="0">
         <v>407.608</v>
@@ -6030,19 +6996,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>412</v>
+        <v>734</v>
       </c>
       <c r="B4" s="0">
         <v>160519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>415</v>
+        <v>737</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>419</v>
+        <v>741</v>
       </c>
       <c r="F4" s="0">
         <v>503.45100000000002</v>
@@ -6148,13 +7114,13 @@
         <v>21018</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>415</v>
+        <v>737</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>420</v>
+        <v>742</v>
       </c>
       <c r="F5" s="0">
         <v>342.95400000000001</v>
@@ -6260,13 +7226,13 @@
         <v>270319</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>415</v>
+        <v>737</v>
       </c>
       <c r="D6" s="0">
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>421</v>
+        <v>743</v>
       </c>
       <c r="F6" s="0">
         <v>553.14999999999998</v>
@@ -6375,177 +7341,177 @@
   <dimension ref="A1:AL6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.48828125" customWidth="true"/>
-    <col min="2" max="2" width="7.15625" customWidth="true"/>
-    <col min="3" max="3" width="10.37890625" customWidth="true"/>
-    <col min="4" max="4" width="4.82421875" customWidth="true"/>
-    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="5.28515625" customWidth="true"/>
+    <col min="5" max="5" width="3.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.15625" customWidth="true"/>
-    <col min="8" max="8" width="7.37890625" customWidth="true"/>
-    <col min="9" max="9" width="9.15625" customWidth="true"/>
+    <col min="7" max="7" width="10.85546875" customWidth="true"/>
+    <col min="8" max="8" width="8" customWidth="true"/>
+    <col min="9" max="9" width="10.140625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="8.7109375" customWidth="true"/>
-    <col min="12" max="12" width="9.26953125" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.37890625" customWidth="true"/>
-    <col min="16" max="16" width="7.93359375" customWidth="true"/>
-    <col min="17" max="17" width="7.82421875" customWidth="true"/>
+    <col min="15" max="15" width="4.7109375" customWidth="true"/>
+    <col min="16" max="16" width="8.140625" customWidth="true"/>
+    <col min="17" max="17" width="8.140625" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="9.37890625" customWidth="true"/>
-    <col min="20" max="20" width="7.37890625" customWidth="true"/>
+    <col min="19" max="19" width="10" customWidth="true"/>
+    <col min="20" max="20" width="8.28515625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.046875" customWidth="true"/>
+    <col min="22" max="22" width="8.85546875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="9.37890625" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="9.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="10.26953125" customWidth="true"/>
-    <col min="30" max="30" width="11.48828125" customWidth="true"/>
+    <col min="29" max="29" width="11.28515625" customWidth="true"/>
+    <col min="30" max="30" width="13" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
     <col min="32" max="32" width="10.7109375" customWidth="true"/>
     <col min="33" max="33" width="8.7109375" customWidth="true"/>
     <col min="34" max="34" width="7.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="3.7109375" customWidth="true"/>
-    <col min="37" max="37" width="7.37890625" customWidth="true"/>
-    <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="36" max="36" width="4" customWidth="true"/>
+    <col min="37" max="37" width="7.42578125" customWidth="true"/>
+    <col min="38" max="38" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>455</v>
+        <v>777</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>457</v>
+        <v>779</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>458</v>
+        <v>780</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>460</v>
+        <v>782</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>461</v>
+        <v>783</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>467</v>
+        <v>789</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>468</v>
+        <v>790</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>469</v>
+        <v>791</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>470</v>
+        <v>792</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>471</v>
+        <v>793</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>472</v>
+        <v>794</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>473</v>
+        <v>795</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>474</v>
+        <v>796</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>475</v>
+        <v>797</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>476</v>
+        <v>798</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>477</v>
+        <v>799</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>478</v>
+        <v>800</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>479</v>
+        <v>801</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>480</v>
+        <v>802</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>481</v>
+        <v>803</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>482</v>
+        <v>804</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>483</v>
+        <v>805</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>484</v>
+        <v>806</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>485</v>
+        <v>807</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>486</v>
+        <v>808</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>487</v>
+        <v>809</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>488</v>
+        <v>810</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>489</v>
+        <v>811</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>490</v>
+        <v>812</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>491</v>
+        <v>813</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>492</v>
+        <v>814</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>493</v>
+        <v>815</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>494</v>
+        <v>816</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>495</v>
+        <v>817</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>496</v>
+        <v>818</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>497</v>
+        <v>819</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>498</v>
+        <v>820</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>499</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>456</v>
+        <v>778</v>
       </c>
       <c r="B2" s="0">
         <v>30518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>459</v>
+        <v>781</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>462</v>
+        <v>784</v>
       </c>
       <c r="F2" s="0">
         <v>590.19000000000005</v>
@@ -6649,19 +7615,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>456</v>
+        <v>778</v>
       </c>
       <c r="B3" s="0">
         <v>41220</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>459</v>
+        <v>781</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>463</v>
+        <v>785</v>
       </c>
       <c r="F3" s="0">
         <v>527.303</v>
@@ -6763,19 +7729,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>456</v>
+        <v>778</v>
       </c>
       <c r="B4" s="0">
         <v>190121</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>459</v>
+        <v>781</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>464</v>
+        <v>786</v>
       </c>
       <c r="F4" s="0">
         <v>531.99300000000005</v>
@@ -6877,19 +7843,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>456</v>
+        <v>778</v>
       </c>
       <c r="B5" s="0">
         <v>190121</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>459</v>
+        <v>781</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>465</v>
+        <v>787</v>
       </c>
       <c r="F5" s="0">
         <v>406.07999999999998</v>
@@ -6991,19 +7957,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>456</v>
+        <v>778</v>
       </c>
       <c r="B6" s="0">
         <v>190121</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>459</v>
+        <v>781</v>
       </c>
       <c r="D6" s="0">
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>466</v>
+        <v>788</v>
       </c>
       <c r="F6" s="0">
         <v>363.67099999999999</v>
@@ -7112,177 +8078,177 @@
   <dimension ref="A1:AL7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.48828125" customWidth="true"/>
-    <col min="2" max="2" width="7.15625" customWidth="true"/>
-    <col min="3" max="3" width="10.37890625" customWidth="true"/>
-    <col min="4" max="4" width="4.82421875" customWidth="true"/>
-    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.42578125" customWidth="true"/>
+    <col min="4" max="4" width="5.28515625" customWidth="true"/>
+    <col min="5" max="5" width="3.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.15625" customWidth="true"/>
-    <col min="8" max="8" width="7.37890625" customWidth="true"/>
-    <col min="9" max="9" width="9.15625" customWidth="true"/>
+    <col min="7" max="7" width="10.85546875" customWidth="true"/>
+    <col min="8" max="8" width="8" customWidth="true"/>
+    <col min="9" max="9" width="10.140625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="8.7109375" customWidth="true"/>
-    <col min="12" max="12" width="9.26953125" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10" customWidth="true"/>
     <col min="13" max="13" width="6.7109375" customWidth="true"/>
     <col min="14" max="14" width="6.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.37890625" customWidth="true"/>
-    <col min="16" max="16" width="7.93359375" customWidth="true"/>
-    <col min="17" max="17" width="7.82421875" customWidth="true"/>
+    <col min="15" max="15" width="4.7109375" customWidth="true"/>
+    <col min="16" max="16" width="8.140625" customWidth="true"/>
+    <col min="17" max="17" width="8.140625" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="9.37890625" customWidth="true"/>
-    <col min="20" max="20" width="7.37890625" customWidth="true"/>
+    <col min="19" max="19" width="10" customWidth="true"/>
+    <col min="20" max="20" width="8.28515625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.046875" customWidth="true"/>
+    <col min="22" max="22" width="8.85546875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.37890625" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="10.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="10.26953125" customWidth="true"/>
-    <col min="30" max="30" width="11.48828125" customWidth="true"/>
+    <col min="29" max="29" width="11.28515625" customWidth="true"/>
+    <col min="30" max="30" width="13" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
-    <col min="32" max="32" width="9.15625" customWidth="true"/>
-    <col min="33" max="33" width="7.93359375" customWidth="true"/>
+    <col min="32" max="32" width="10" customWidth="true"/>
+    <col min="33" max="33" width="8.7109375" customWidth="true"/>
     <col min="34" max="34" width="7.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="3.7109375" customWidth="true"/>
+    <col min="36" max="36" width="4" customWidth="true"/>
     <col min="37" max="37" width="7.7109375" customWidth="true"/>
-    <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="38" max="38" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>500</v>
+        <v>822</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>504</v>
+        <v>826</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>505</v>
+        <v>827</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>507</v>
+        <v>829</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>508</v>
+        <v>830</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>513</v>
+        <v>835</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>514</v>
+        <v>836</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>515</v>
+        <v>837</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>516</v>
+        <v>838</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>517</v>
+        <v>839</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>518</v>
+        <v>840</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>519</v>
+        <v>841</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>520</v>
+        <v>842</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>521</v>
+        <v>843</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>522</v>
+        <v>844</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>523</v>
+        <v>845</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>524</v>
+        <v>846</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>525</v>
+        <v>847</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>526</v>
+        <v>848</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>527</v>
+        <v>849</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>528</v>
+        <v>850</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>529</v>
+        <v>851</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>530</v>
+        <v>852</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>531</v>
+        <v>853</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>532</v>
+        <v>854</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>533</v>
+        <v>855</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>534</v>
+        <v>856</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>535</v>
+        <v>857</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>536</v>
+        <v>858</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>537</v>
+        <v>859</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>538</v>
+        <v>860</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>539</v>
+        <v>861</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>540</v>
+        <v>862</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>541</v>
+        <v>863</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>542</v>
+        <v>864</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>543</v>
+        <v>865</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>544</v>
+        <v>866</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>545</v>
+        <v>867</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>501</v>
+        <v>823</v>
       </c>
       <c r="B2" s="0">
         <v>220519</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>506</v>
+        <v>828</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>509</v>
+        <v>831</v>
       </c>
       <c r="F2" s="0">
         <v>507.31400000000002</v>
@@ -7386,19 +8352,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>501</v>
+        <v>823</v>
       </c>
       <c r="B3" s="0">
         <v>290519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>506</v>
+        <v>828</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>510</v>
+        <v>832</v>
       </c>
       <c r="F3" s="0">
         <v>404.71699999999998</v>
@@ -7500,19 +8466,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>502</v>
+        <v>824</v>
       </c>
       <c r="B4" s="0">
         <v>290519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>506</v>
+        <v>828</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>511</v>
+        <v>833</v>
       </c>
       <c r="F4" s="0">
         <v>585.452</v>
@@ -7614,19 +8580,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>503</v>
+        <v>825</v>
       </c>
       <c r="B5" s="0">
         <v>270520</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>506</v>
+        <v>828</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>512</v>
+        <v>834</v>
       </c>
       <c r="F5" s="0">
         <v>393.995</v>
@@ -7931,177 +8897,177 @@
   <dimension ref="A1:AL13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.48828125" customWidth="true"/>
-    <col min="2" max="2" width="7.15625" customWidth="true"/>
-    <col min="3" max="3" width="10.6015625" customWidth="true"/>
-    <col min="4" max="4" width="4.82421875" customWidth="true"/>
-    <col min="5" max="5" width="3.82421875" customWidth="true"/>
+    <col min="1" max="1" width="5.85546875" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.5703125" customWidth="true"/>
+    <col min="4" max="4" width="5.28515625" customWidth="true"/>
+    <col min="5" max="5" width="3.85546875" customWidth="true"/>
     <col min="6" max="6" width="7.7109375" customWidth="true"/>
-    <col min="7" max="7" width="10.15625" customWidth="true"/>
-    <col min="8" max="8" width="7.37890625" customWidth="true"/>
-    <col min="9" max="9" width="9.15625" customWidth="true"/>
+    <col min="7" max="7" width="10.85546875" customWidth="true"/>
+    <col min="8" max="8" width="8" customWidth="true"/>
+    <col min="9" max="9" width="10.140625" customWidth="true"/>
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
-    <col min="11" max="11" width="8.7109375" customWidth="true"/>
-    <col min="12" max="12" width="9.26953125" customWidth="true"/>
+    <col min="11" max="11" width="9.42578125" customWidth="true"/>
+    <col min="12" max="12" width="10" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="6.7109375" customWidth="true"/>
-    <col min="15" max="15" width="4.37890625" customWidth="true"/>
-    <col min="16" max="16" width="7.93359375" customWidth="true"/>
-    <col min="17" max="17" width="7.82421875" customWidth="true"/>
+    <col min="15" max="15" width="4.7109375" customWidth="true"/>
+    <col min="16" max="16" width="8.140625" customWidth="true"/>
+    <col min="17" max="17" width="8.140625" customWidth="true"/>
     <col min="18" max="18" width="6.7109375" customWidth="true"/>
-    <col min="19" max="19" width="9.37890625" customWidth="true"/>
-    <col min="20" max="20" width="7.37890625" customWidth="true"/>
+    <col min="19" max="19" width="10" customWidth="true"/>
+    <col min="20" max="20" width="8.28515625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
-    <col min="22" max="22" width="8.046875" customWidth="true"/>
+    <col min="22" max="22" width="8.85546875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="10.37890625" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="10.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="10.26953125" customWidth="true"/>
-    <col min="30" max="30" width="11.48828125" customWidth="true"/>
+    <col min="29" max="29" width="11.28515625" customWidth="true"/>
+    <col min="30" max="30" width="13" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
-    <col min="32" max="32" width="9.15625" customWidth="true"/>
-    <col min="33" max="33" width="7.93359375" customWidth="true"/>
+    <col min="32" max="32" width="10" customWidth="true"/>
+    <col min="33" max="33" width="8.7109375" customWidth="true"/>
     <col min="34" max="34" width="7.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="3.7109375" customWidth="true"/>
+    <col min="36" max="36" width="4" customWidth="true"/>
     <col min="37" max="37" width="7.7109375" customWidth="true"/>
-    <col min="38" max="38" width="13.7109375" customWidth="true"/>
+    <col min="38" max="38" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>546</v>
+        <v>868</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>555</v>
+        <v>877</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>556</v>
+        <v>878</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>558</v>
+        <v>880</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>559</v>
+        <v>881</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>572</v>
+        <v>894</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>573</v>
+        <v>895</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>574</v>
+        <v>896</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>575</v>
+        <v>897</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>576</v>
+        <v>898</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>577</v>
+        <v>899</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>578</v>
+        <v>900</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>579</v>
+        <v>901</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>580</v>
+        <v>902</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>581</v>
+        <v>903</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>582</v>
+        <v>904</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>583</v>
+        <v>905</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>584</v>
+        <v>906</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>585</v>
+        <v>907</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>586</v>
+        <v>908</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>587</v>
+        <v>909</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>588</v>
+        <v>910</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>589</v>
+        <v>911</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>590</v>
+        <v>912</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>591</v>
+        <v>913</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>592</v>
+        <v>914</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>593</v>
+        <v>915</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>594</v>
+        <v>916</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>595</v>
+        <v>917</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>596</v>
+        <v>918</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>597</v>
+        <v>919</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>598</v>
+        <v>920</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>599</v>
+        <v>921</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>600</v>
+        <v>922</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>601</v>
+        <v>923</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>602</v>
+        <v>924</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>603</v>
+        <v>925</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>604</v>
+        <v>926</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>547</v>
+        <v>869</v>
       </c>
       <c r="B2" s="0">
         <v>31218</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>557</v>
+        <v>879</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>560</v>
+        <v>882</v>
       </c>
       <c r="F2" s="0">
         <v>360.89699999999999</v>
@@ -8201,19 +9167,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>547</v>
+        <v>869</v>
       </c>
       <c r="B3" s="0">
         <v>171218</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>557</v>
+        <v>879</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>561</v>
+        <v>883</v>
       </c>
       <c r="F3" s="0">
         <v>457.68700000000001</v>
@@ -8315,19 +9281,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>548</v>
+        <v>870</v>
       </c>
       <c r="B4" s="0">
         <v>171218</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>557</v>
+        <v>879</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>562</v>
+        <v>884</v>
       </c>
       <c r="F4" s="0">
         <v>426.435</v>
@@ -8429,19 +9395,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>549</v>
+        <v>871</v>
       </c>
       <c r="B5" s="0">
         <v>171218</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>557</v>
+        <v>879</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>563</v>
+        <v>885</v>
       </c>
       <c r="F5" s="0">
         <v>428.84899999999999</v>
@@ -8543,19 +9509,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>549</v>
+        <v>871</v>
       </c>
       <c r="B6" s="0">
         <v>171218</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>557</v>
+        <v>879</v>
       </c>
       <c r="D6" s="0">
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>564</v>
+        <v>886</v>
       </c>
       <c r="F6" s="0">
         <v>378.36900000000003</v>
@@ -8657,19 +9623,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>550</v>
+        <v>872</v>
       </c>
       <c r="B7" s="0">
         <v>171218</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>557</v>
+        <v>879</v>
       </c>
       <c r="D7" s="0">
         <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>565</v>
+        <v>887</v>
       </c>
       <c r="F7" s="0">
         <v>416.42399999999998</v>
@@ -8769,19 +9735,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>551</v>
+        <v>873</v>
       </c>
       <c r="B8" s="0">
         <v>70219</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>557</v>
+        <v>879</v>
       </c>
       <c r="D8" s="0">
         <v>3</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>566</v>
+        <v>888</v>
       </c>
       <c r="F8" s="0">
         <v>546.37099999999998</v>
@@ -8885,19 +9851,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>552</v>
+        <v>874</v>
       </c>
       <c r="B9" s="0">
         <v>80219</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>557</v>
+        <v>879</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>567</v>
+        <v>889</v>
       </c>
       <c r="F9" s="0">
         <v>309.95600000000002</v>
@@ -8999,19 +9965,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>553</v>
+        <v>875</v>
       </c>
       <c r="B10" s="0">
         <v>80219</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>557</v>
+        <v>879</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>568</v>
+        <v>890</v>
       </c>
       <c r="F10" s="0">
         <v>500.19600000000003</v>
@@ -9113,19 +10079,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>553</v>
+        <v>875</v>
       </c>
       <c r="B11" s="0">
         <v>80219</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>557</v>
+        <v>879</v>
       </c>
       <c r="D11" s="0">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>569</v>
+        <v>891</v>
       </c>
       <c r="F11" s="0">
         <v>459.149</v>
@@ -9227,19 +10193,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>553</v>
+        <v>875</v>
       </c>
       <c r="B12" s="0">
         <v>80219</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>557</v>
+        <v>879</v>
       </c>
       <c r="D12" s="0">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>570</v>
+        <v>892</v>
       </c>
       <c r="F12" s="0">
         <v>411.88499999999999</v>
@@ -9341,19 +10307,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>554</v>
+        <v>876</v>
       </c>
       <c r="B13" s="0">
         <v>150519</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>557</v>
+        <v>879</v>
       </c>
       <c r="D13" s="0">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>571</v>
+        <v>893</v>
       </c>
       <c r="F13" s="0">
         <v>543.94600000000003</v>

--- a/Data/out/Re-organization_0.xlsx
+++ b/Data/out/Re-organization_0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="1212">
   <si>
     <t>Label</t>
   </si>
@@ -2689,6 +2689,861 @@
   </si>
   <si>
     <t>t5</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>LabelPrediction</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t20</t>
   </si>
   <si>
     <t>t18</t>
@@ -2867,7 +3722,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL16"/>
+  <dimension ref="A1:AL8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
@@ -2903,7 +3758,7 @@
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
     <col min="32" max="32" width="10" customWidth="true"/>
     <col min="33" max="33" width="8.7109375" customWidth="true"/>
-    <col min="34" max="34" width="8.7109375" customWidth="true"/>
+    <col min="34" max="34" width="7.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
     <col min="36" max="36" width="4" customWidth="true"/>
     <col min="37" max="37" width="7.7109375" customWidth="true"/>
@@ -2912,135 +3767,135 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>605</v>
+        <v>927</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>614</v>
+        <v>931</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>615</v>
+        <v>932</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>617</v>
+        <v>934</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>618</v>
+        <v>935</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>634</v>
+        <v>943</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>635</v>
+        <v>944</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>636</v>
+        <v>945</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>637</v>
+        <v>946</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>638</v>
+        <v>947</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>639</v>
+        <v>948</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>640</v>
+        <v>949</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>641</v>
+        <v>950</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>642</v>
+        <v>951</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>643</v>
+        <v>952</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>644</v>
+        <v>953</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>645</v>
+        <v>954</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>646</v>
+        <v>955</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>647</v>
+        <v>956</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>648</v>
+        <v>957</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>649</v>
+        <v>958</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>650</v>
+        <v>959</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>651</v>
+        <v>960</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>652</v>
+        <v>961</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>653</v>
+        <v>962</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>654</v>
+        <v>963</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>655</v>
+        <v>964</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>656</v>
+        <v>965</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>657</v>
+        <v>966</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>658</v>
+        <v>967</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>659</v>
+        <v>968</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>660</v>
+        <v>969</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>661</v>
+        <v>970</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>662</v>
+        <v>971</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>663</v>
+        <v>972</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>664</v>
+        <v>973</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>665</v>
+        <v>974</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>666</v>
+        <v>975</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>606</v>
+        <v>928</v>
       </c>
       <c r="B2" s="0">
         <v>70518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>616</v>
+        <v>933</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>619</v>
+        <v>936</v>
       </c>
       <c r="F2" s="0">
         <v>527.33900000000006</v>
@@ -3126,7 +3981,9 @@
       <c r="AG2" s="0">
         <v>144.8125</v>
       </c>
-      <c r="AH2" s="0"/>
+      <c r="AH2" s="0">
+        <v>0</v>
+      </c>
       <c r="AI2" s="0">
         <v>194.44444444444449</v>
       </c>
@@ -3142,19 +3999,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>607</v>
+        <v>929</v>
       </c>
       <c r="B3" s="0">
         <v>70518</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>616</v>
+        <v>933</v>
       </c>
       <c r="D3" s="0">
         <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>620</v>
+        <v>937</v>
       </c>
       <c r="F3" s="0">
         <v>509.87200000000001</v>
@@ -3240,7 +4097,9 @@
       <c r="AG3" s="0">
         <v>84.65625</v>
       </c>
-      <c r="AH3" s="0"/>
+      <c r="AH3" s="0">
+        <v>0</v>
+      </c>
       <c r="AI3" s="0">
         <v>279.99999999999989</v>
       </c>
@@ -3256,19 +4115,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>607</v>
+        <v>929</v>
       </c>
       <c r="B4" s="0">
         <v>70518</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>616</v>
+        <v>933</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>621</v>
+        <v>938</v>
       </c>
       <c r="F4" s="0">
         <v>414.42200000000003</v>
@@ -3357,7 +4216,9 @@
       <c r="AH4" s="0">
         <v>5.09375</v>
       </c>
-      <c r="AI4" s="0"/>
+      <c r="AI4" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ4" s="0">
         <v>0</v>
       </c>
@@ -3370,111 +4231,115 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>608</v>
+        <v>929</v>
       </c>
       <c r="B5" s="0">
-        <v>70518</v>
+        <v>280420</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>616</v>
+        <v>933</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>622</v>
+        <v>939</v>
       </c>
       <c r="F5" s="0">
-        <v>466.68799999999999</v>
+        <v>375.012</v>
       </c>
       <c r="G5" s="0">
-        <v>271.291</v>
+        <v>276.35300000000001</v>
       </c>
       <c r="H5" s="0">
-        <v>15.522</v>
+        <v>11.593</v>
       </c>
       <c r="I5" s="0">
-        <v>55.988999999999997</v>
+        <v>43.948</v>
       </c>
       <c r="J5" s="0">
-        <v>167.887</v>
+        <v>117.48099999999999</v>
       </c>
       <c r="K5" s="0">
-        <v>4.859</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="L5" s="0">
-        <v>16.542999999999999</v>
+        <v>11.798</v>
       </c>
       <c r="M5" s="0">
-        <v>106.714</v>
+        <v>82.944999999999993</v>
       </c>
       <c r="N5" s="0">
-        <v>53.261000000000003</v>
+        <v>45.835999999999999</v>
       </c>
       <c r="O5" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P5" s="0">
-        <v>232.167</v>
+        <v>81.921000000000006</v>
       </c>
       <c r="Q5" s="0">
-        <v>180.256</v>
+        <v>77.275000000000006</v>
       </c>
       <c r="R5" s="0">
-        <v>33.466000000000001</v>
+        <v>30.238</v>
       </c>
       <c r="S5" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T5" s="0">
         <v>4</v>
       </c>
       <c r="U5" s="0">
-        <v>1.1773573751108484</v>
+        <v>1.0325005078204348</v>
       </c>
       <c r="V5" s="0">
-        <v>1.875</v>
+        <v>1</v>
       </c>
       <c r="W5" s="0">
-        <v>35.23958333333335</v>
+        <v>102.56249999999999</v>
       </c>
       <c r="X5" s="0">
-        <v>-70.896874999999994</v>
+        <v>-69.012500000000003</v>
       </c>
       <c r="Y5" s="0">
-        <v>314.28571428571428</v>
+        <v>108.64705362798583</v>
       </c>
       <c r="Z5" s="0">
-        <v>6.3066818393618282</v>
+        <v>8.9867400505191455</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.17896584587015527</v>
+        <v>0.087622084587633361</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.59104477611940287</v>
+        <v>0.37364130434782605</v>
       </c>
       <c r="AC5" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD5" s="0">
-        <v>112.77187499999999</v>
+        <v>108.41874999999999</v>
       </c>
       <c r="AE5" s="0">
-        <v>0.65779596931710271</v>
+        <v>0.82643578752963265</v>
       </c>
       <c r="AF5" s="0">
-        <v>351.09375</v>
+        <v>214.25</v>
       </c>
       <c r="AG5" s="0">
-        <v>130.8125</v>
-      </c>
-      <c r="AH5" s="0"/>
-      <c r="AI5" s="0"/>
+        <v>89.625</v>
+      </c>
+      <c r="AH5" s="0">
+        <v>8.0625</v>
+      </c>
+      <c r="AI5" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ5" s="0">
         <v>0</v>
       </c>
       <c r="AK5" s="0">
-        <v>1.75</v>
+        <v>-1.8125</v>
       </c>
       <c r="AL5" s="0">
         <v>0</v>
@@ -3482,115 +4347,115 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>608</v>
+        <v>929</v>
       </c>
       <c r="B6" s="0">
-        <v>50618</v>
+        <v>290420</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>616</v>
+        <v>933</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>623</v>
+        <v>940</v>
       </c>
       <c r="F6" s="0">
-        <v>383.32900000000001</v>
+        <v>381.83600000000001</v>
       </c>
       <c r="G6" s="0">
-        <v>216.12</v>
+        <v>285.56299999999999</v>
       </c>
       <c r="H6" s="0">
-        <v>10.491</v>
+        <v>4.3220000000000001</v>
       </c>
       <c r="I6" s="0">
-        <v>62.238</v>
+        <v>56.036000000000001</v>
       </c>
       <c r="J6" s="0">
-        <v>221.24799999999999</v>
+        <v>181.983</v>
       </c>
       <c r="K6" s="0">
-        <v>3.129</v>
+        <v>3.125</v>
       </c>
       <c r="L6" s="0">
-        <v>14.43</v>
+        <v>11.273</v>
       </c>
       <c r="M6" s="0">
-        <v>73.939999999999998</v>
+        <v>113.04600000000001</v>
       </c>
       <c r="N6" s="0">
-        <v>62.941000000000003</v>
+        <v>102.65600000000001</v>
       </c>
       <c r="O6" s="0">
+        <v>6</v>
+      </c>
+      <c r="P6" s="0">
+        <v>148</v>
+      </c>
+      <c r="Q6" s="0">
+        <v>79.790000000000006</v>
+      </c>
+      <c r="R6" s="0">
+        <v>47.314999999999998</v>
+      </c>
+      <c r="S6" s="0">
+        <v>4</v>
+      </c>
+      <c r="T6" s="0">
+        <v>4</v>
+      </c>
+      <c r="U6" s="0">
+        <v>1.0362362604179249</v>
+      </c>
+      <c r="V6" s="0">
+        <v>0.9375</v>
+      </c>
+      <c r="W6" s="0">
+        <v>86.239583333333329</v>
+      </c>
+      <c r="X6" s="0">
+        <v>-82.096874999999997</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>123.89918534205724</v>
+      </c>
+      <c r="Z6" s="0">
+        <v>7.733340752718628</v>
+      </c>
+      <c r="AA6" s="0">
+        <v>0.089672751813140272</v>
+      </c>
+      <c r="AB6" s="0">
+        <v>0.29614873837981404</v>
+      </c>
+      <c r="AC6" s="0">
         <v>5</v>
       </c>
-      <c r="P6" s="0">
-        <v>156.215</v>
-      </c>
-      <c r="Q6" s="0">
-        <v>157.73699999999999</v>
-      </c>
-      <c r="R6" s="0">
-        <v>59.805</v>
-      </c>
-      <c r="S6" s="0">
-        <v>3</v>
-      </c>
-      <c r="T6" s="0">
-        <v>5</v>
-      </c>
-      <c r="U6" s="0">
-        <v>1.2355499999999999</v>
-      </c>
-      <c r="V6" s="0">
-        <v>2.2650000000000001</v>
-      </c>
-      <c r="W6" s="0">
-        <v>45.465299999999999</v>
-      </c>
-      <c r="X6" s="0">
-        <v>-72.092699999999994</v>
-      </c>
-      <c r="Y6" s="0">
-        <v>240</v>
-      </c>
-      <c r="Z6" s="0">
-        <v>194.75</v>
-      </c>
-      <c r="AA6" s="0">
-        <v>4.2834865270876907</v>
-      </c>
-      <c r="AB6" s="0">
-        <v>0.44233378561736764</v>
-      </c>
-      <c r="AC6" s="0">
-        <v>0</v>
-      </c>
       <c r="AD6" s="0">
-        <v>112.91</v>
+        <v>120.69062500000001</v>
       </c>
       <c r="AE6" s="0">
-        <v>1.125</v>
+        <v>1.0669826698695886</v>
       </c>
       <c r="AF6" s="0">
-        <v>336.625</v>
+        <v>221.5</v>
       </c>
       <c r="AG6" s="0">
-        <v>137.5</v>
+        <v>66</v>
       </c>
       <c r="AH6" s="0">
-        <v>3.125</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="0">
-        <v>101.24209046168268</v>
+        <v>216.21621621621603</v>
       </c>
       <c r="AJ6" s="0">
         <v>0</v>
       </c>
       <c r="AK6" s="0">
-        <v>2.8125</v>
+        <v>0.15625</v>
       </c>
       <c r="AL6" s="0">
         <v>0</v>
@@ -3598,113 +4463,115 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>609</v>
+        <v>929</v>
       </c>
       <c r="B7" s="0">
-        <v>50618</v>
+        <v>20520</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>616</v>
+        <v>933</v>
       </c>
       <c r="D7" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>624</v>
+        <v>941</v>
       </c>
       <c r="F7" s="0">
-        <v>476.22300000000001</v>
+        <v>426.51900000000001</v>
       </c>
       <c r="G7" s="0">
-        <v>242.666</v>
+        <v>287.245</v>
       </c>
       <c r="H7" s="0">
-        <v>32.856000000000002</v>
+        <v>9.2070000000000007</v>
       </c>
       <c r="I7" s="0">
-        <v>74.076999999999998</v>
+        <v>37.747</v>
       </c>
       <c r="J7" s="0">
-        <v>261.358</v>
+        <v>73.575000000000003</v>
       </c>
       <c r="K7" s="0">
-        <v>4.1580000000000004</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="L7" s="0">
-        <v>14.595000000000001</v>
+        <v>10.987</v>
       </c>
       <c r="M7" s="0">
-        <v>151.614</v>
+        <v>73.206000000000003</v>
       </c>
       <c r="N7" s="0">
-        <v>93.093999999999994</v>
+        <v>63.298999999999999</v>
       </c>
       <c r="O7" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P7" s="0">
-        <v>255.93199999999999</v>
+        <v>92.992999999999995</v>
       </c>
       <c r="Q7" s="0">
-        <v>213.87299999999999</v>
+        <v>122.372</v>
       </c>
       <c r="R7" s="0">
-        <v>37.518999999999998</v>
+        <v>10.875999999999999</v>
       </c>
       <c r="S7" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T7" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U7" s="0">
-        <v>1.0552555569508979</v>
+        <v>1.0928888430178554</v>
       </c>
       <c r="V7" s="0">
-        <v>1.375</v>
+        <v>2.8125</v>
       </c>
       <c r="W7" s="0">
-        <v>82.947916666666686</v>
+        <v>100.92708333333333</v>
       </c>
       <c r="X7" s="0">
-        <v>-81.584374999999994</v>
+        <v>-62.690624999999997</v>
       </c>
       <c r="Y7" s="0">
-        <v>104.25158770968092</v>
+        <v>48.318366199892886</v>
       </c>
       <c r="Z7" s="0">
-        <v>254.875</v>
+        <v>9.0800398102411819</v>
       </c>
       <c r="AA7" s="0">
-        <v>3.0727112897149307</v>
+        <v>0.089966335203132783</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.26683291770573564</v>
+        <v>0.5101351351351352</v>
       </c>
       <c r="AC7" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AD7" s="0">
-        <v>122.02187499999999</v>
+        <v>97.815625000000011</v>
       </c>
       <c r="AE7" s="0">
-        <v>0.809009375096295</v>
+        <v>0.9174554719694612</v>
       </c>
       <c r="AF7" s="0">
-        <v>254.875</v>
+        <v>229.875</v>
       </c>
       <c r="AG7" s="0">
-        <v>87.5</v>
-      </c>
-      <c r="AH7" s="0"/>
+        <v>101</v>
+      </c>
+      <c r="AH7" s="0">
+        <v>1.78125</v>
+      </c>
       <c r="AI7" s="0">
-        <v>285.71428571428572</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="0">
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>0.0625</v>
+        <v>2.4375</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -3712,1025 +4579,117 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>610</v>
+        <v>930</v>
       </c>
       <c r="B8" s="0">
-        <v>310120</v>
+        <v>20520</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>616</v>
+        <v>933</v>
       </c>
       <c r="D8" s="0">
         <v>3</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>625</v>
+        <v>942</v>
       </c>
       <c r="F8" s="0">
-        <v>380.67500000000001</v>
+        <v>397.04599999999999</v>
       </c>
       <c r="G8" s="0">
-        <v>207.78</v>
+        <v>266.67000000000002</v>
       </c>
       <c r="H8" s="0">
-        <v>13.861000000000001</v>
+        <v>8.3469999999999995</v>
       </c>
       <c r="I8" s="0">
-        <v>53.454999999999998</v>
+        <v>49.276000000000003</v>
       </c>
       <c r="J8" s="0">
-        <v>166.90700000000001</v>
+        <v>136.82400000000001</v>
       </c>
       <c r="K8" s="0">
-        <v>3.4020000000000001</v>
+        <v>2.77</v>
       </c>
       <c r="L8" s="0">
-        <v>14.329000000000001</v>
+        <v>10.654</v>
       </c>
       <c r="M8" s="0">
-        <v>61.456000000000003</v>
+        <v>93.369</v>
       </c>
       <c r="N8" s="0">
-        <v>60.002000000000002</v>
+        <v>56.061999999999998</v>
       </c>
       <c r="O8" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P8" s="0">
-        <v>240.81800000000001</v>
+        <v>86.888000000000005</v>
       </c>
       <c r="Q8" s="0">
-        <v>148.369</v>
+        <v>96.260999999999996</v>
       </c>
       <c r="R8" s="0">
-        <v>50.970999999999997</v>
+        <v>22.527000000000001</v>
       </c>
       <c r="S8" s="0">
+        <v>2</v>
+      </c>
+      <c r="T8" s="0">
         <v>4</v>
       </c>
-      <c r="T8" s="0">
-        <v>5</v>
-      </c>
       <c r="U8" s="0">
-        <v>1.1010449952500216</v>
+        <v>1.132361404181853</v>
       </c>
       <c r="V8" s="0">
-        <v>3.65625</v>
+        <v>2.15625</v>
       </c>
       <c r="W8" s="0">
-        <v>120.61458333333333</v>
+        <v>54.302083333333321</v>
       </c>
       <c r="X8" s="0">
-        <v>-77.690624999999997</v>
+        <v>-58.834375000000001</v>
       </c>
       <c r="Y8" s="0">
-        <v>61.725208091380196</v>
+        <v>165.8374350354444</v>
       </c>
       <c r="Z8" s="0">
-        <v>13.604984616420216</v>
+        <v>8.4133264836066441</v>
       </c>
       <c r="AA8" s="0">
-        <v>0.1127971779235116</v>
+        <v>0.15493561143798926</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.48812351543942994</v>
+        <v>0.42763157894736836</v>
       </c>
       <c r="AC8" s="0">
         <v>1</v>
       </c>
       <c r="AD8" s="0">
-        <v>120.37812500000001</v>
+        <v>125.02187499999999</v>
       </c>
       <c r="AE8" s="0">
-        <v>0.71837688596787785</v>
+        <v>0.94260534543803942</v>
       </c>
       <c r="AF8" s="0">
-        <v>315.875</v>
+        <v>270.375</v>
       </c>
       <c r="AG8" s="0">
-        <v>108.25</v>
+        <v>91.875</v>
       </c>
       <c r="AH8" s="0">
-        <v>3.90625</v>
+        <v>10.90625</v>
       </c>
       <c r="AI8" s="0">
-        <v>363.63636363636368</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="0">
         <v>0</v>
       </c>
       <c r="AK8" s="0">
-        <v>1.9688000000000001</v>
+        <v>1.0625</v>
       </c>
       <c r="AL8" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="B9" s="0">
-        <v>260420</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="D9" s="0">
-        <v>2</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="F9" s="0">
-        <v>373.99900000000002</v>
-      </c>
-      <c r="G9" s="0">
-        <v>194.15100000000001</v>
-      </c>
-      <c r="H9" s="0">
-        <v>6.7569999999999997</v>
-      </c>
-      <c r="I9" s="0">
-        <v>60.511000000000003</v>
-      </c>
-      <c r="J9" s="0">
-        <v>205.21299999999999</v>
-      </c>
-      <c r="K9" s="0">
-        <v>5.0019999999999998</v>
-      </c>
-      <c r="L9" s="0">
-        <v>16.347999999999999</v>
-      </c>
-      <c r="M9" s="0">
-        <v>128.459</v>
-      </c>
-      <c r="N9" s="0">
-        <v>77.658000000000001</v>
-      </c>
-      <c r="O9" s="0">
-        <v>7</v>
-      </c>
-      <c r="P9" s="0">
-        <v>182.95099999999999</v>
-      </c>
-      <c r="Q9" s="0">
-        <v>114.95999999999999</v>
-      </c>
-      <c r="R9" s="0">
-        <v>54.838000000000001</v>
-      </c>
-      <c r="S9" s="0">
-        <v>3</v>
-      </c>
-      <c r="T9" s="0">
-        <v>4</v>
-      </c>
-      <c r="U9" s="0">
-        <v>1.1162176439513998</v>
-      </c>
-      <c r="V9" s="0">
-        <v>2.0625</v>
-      </c>
-      <c r="W9" s="0">
-        <v>59.15625</v>
-      </c>
-      <c r="X9" s="0">
-        <v>-70.471874999999997</v>
-      </c>
-      <c r="Y9" s="0">
-        <v>129.24044473057808</v>
-      </c>
-      <c r="Z9" s="0">
-        <v>9.5697078632221082</v>
-      </c>
-      <c r="AA9" s="0">
-        <v>0.16177002198790674</v>
-      </c>
-      <c r="AB9" s="0">
-        <v>0.82479141835518477</v>
-      </c>
-      <c r="AC9" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="0">
-        <v>106.90937500000001</v>
-      </c>
-      <c r="AE9" s="0">
-        <v>0.86315785302854664</v>
-      </c>
-      <c r="AF9" s="0">
-        <v>225.5</v>
-      </c>
-      <c r="AG9" s="0">
-        <v>107.125</v>
-      </c>
-      <c r="AH9" s="0">
-        <v>2.53125</v>
-      </c>
-      <c r="AI9" s="0"/>
-      <c r="AJ9" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="0">
-        <v>2.0937999999999999</v>
-      </c>
-      <c r="AL9" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="B10" s="0">
-        <v>260420</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="D10" s="0">
-        <v>2</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="F10" s="0">
-        <v>384.10599999999999</v>
-      </c>
-      <c r="G10" s="0">
-        <v>191.27199999999999</v>
-      </c>
-      <c r="H10" s="0">
-        <v>9.6069999999999993</v>
-      </c>
-      <c r="I10" s="0">
-        <v>56.872999999999998</v>
-      </c>
-      <c r="J10" s="0">
-        <v>170.36600000000001</v>
-      </c>
-      <c r="K10" s="0">
-        <v>4.5519999999999996</v>
-      </c>
-      <c r="L10" s="0">
-        <v>15.195</v>
-      </c>
-      <c r="M10" s="0">
-        <v>132.46000000000001</v>
-      </c>
-      <c r="N10" s="0">
-        <v>98.379000000000005</v>
-      </c>
-      <c r="O10" s="0">
-        <v>6</v>
-      </c>
-      <c r="P10" s="0">
-        <v>118.943</v>
-      </c>
-      <c r="Q10" s="0">
-        <v>132.119</v>
-      </c>
-      <c r="R10" s="0">
-        <v>30.946999999999999</v>
-      </c>
-      <c r="S10" s="0">
-        <v>2</v>
-      </c>
-      <c r="T10" s="0">
-        <v>4</v>
-      </c>
-      <c r="U10" s="0">
-        <v>1.1447712921607884</v>
-      </c>
-      <c r="V10" s="0">
-        <v>2.9375</v>
-      </c>
-      <c r="W10" s="0">
-        <v>67.635416666666686</v>
-      </c>
-      <c r="X10" s="0">
-        <v>-77.178124999999994</v>
-      </c>
-      <c r="Y10" s="0">
-        <v>137.78728784039453</v>
-      </c>
-      <c r="Z10" s="0">
-        <v>7.4311812071266097</v>
-      </c>
-      <c r="AA10" s="0">
-        <v>0.10987115291608722</v>
-      </c>
-      <c r="AB10" s="0">
-        <v>0.76534296028880866</v>
-      </c>
-      <c r="AC10" s="0">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="0">
-        <v>116.27187499999999</v>
-      </c>
-      <c r="AE10" s="0">
-        <v>0.9036789091281463</v>
-      </c>
-      <c r="AF10" s="0">
-        <v>255.125</v>
-      </c>
-      <c r="AG10" s="0">
-        <v>100.625</v>
-      </c>
-      <c r="AH10" s="0">
-        <v>2.9375</v>
-      </c>
-      <c r="AI10" s="0"/>
-      <c r="AJ10" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="0">
-        <v>2.625</v>
-      </c>
-      <c r="AL10" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="B11" s="0">
-        <v>280420</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="D11" s="0">
-        <v>2</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="F11" s="0">
-        <v>319.63099999999997</v>
-      </c>
-      <c r="G11" s="0">
-        <v>213.84800000000001</v>
-      </c>
-      <c r="H11" s="0">
-        <v>11.976000000000001</v>
-      </c>
-      <c r="I11" s="0">
-        <v>62.308</v>
-      </c>
-      <c r="J11" s="0">
-        <v>96.745999999999995</v>
-      </c>
-      <c r="K11" s="0">
-        <v>3.4329999999999998</v>
-      </c>
-      <c r="L11" s="0">
-        <v>13.683</v>
-      </c>
-      <c r="M11" s="0">
-        <v>84.173000000000002</v>
-      </c>
-      <c r="N11" s="0">
-        <v>121.715</v>
-      </c>
-      <c r="O11" s="0">
-        <v>5</v>
-      </c>
-      <c r="P11" s="0">
-        <v>117.182</v>
-      </c>
-      <c r="Q11" s="0">
-        <v>95.575000000000003</v>
-      </c>
-      <c r="R11" s="0">
-        <v>50.439999999999998</v>
-      </c>
-      <c r="S11" s="0">
-        <v>4</v>
-      </c>
-      <c r="T11" s="0">
-        <v>6</v>
-      </c>
-      <c r="U11" s="0">
-        <v>1.1460415065334357</v>
-      </c>
-      <c r="V11" s="0">
-        <v>2.375</v>
-      </c>
-      <c r="W11" s="0">
-        <v>54.208333333333336</v>
-      </c>
-      <c r="X11" s="0">
-        <v>-61.768749999999997</v>
-      </c>
-      <c r="Y11" s="0">
-        <v>311.56133881416559</v>
-      </c>
-      <c r="Z11" s="0">
-        <v>7.1158948291965052</v>
-      </c>
-      <c r="AA11" s="0">
-        <v>0.13126938962391707</v>
-      </c>
-      <c r="AB11" s="0">
-        <v>0.48802395209580846</v>
-      </c>
-      <c r="AC11" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="0">
-        <v>101.42500000000001</v>
-      </c>
-      <c r="AE11" s="0">
-        <v>0.89302636252721967</v>
-      </c>
-      <c r="AF11" s="0">
-        <v>180.625</v>
-      </c>
-      <c r="AG11" s="0">
-        <v>91.375</v>
-      </c>
-      <c r="AH11" s="0">
-        <v>4.625</v>
-      </c>
-      <c r="AI11" s="0"/>
-      <c r="AJ11" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="0">
-        <v>1.7188000000000001</v>
-      </c>
-      <c r="AL11" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="B12" s="0">
-        <v>280420</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="D12" s="0">
-        <v>3</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="F12" s="0">
-        <v>375.012</v>
-      </c>
-      <c r="G12" s="0">
-        <v>276.35300000000001</v>
-      </c>
-      <c r="H12" s="0">
-        <v>11.593</v>
-      </c>
-      <c r="I12" s="0">
-        <v>43.948</v>
-      </c>
-      <c r="J12" s="0">
-        <v>117.48099999999999</v>
-      </c>
-      <c r="K12" s="0">
-        <v>2.2770000000000001</v>
-      </c>
-      <c r="L12" s="0">
-        <v>11.798</v>
-      </c>
-      <c r="M12" s="0">
-        <v>82.944999999999993</v>
-      </c>
-      <c r="N12" s="0">
-        <v>45.835999999999999</v>
-      </c>
-      <c r="O12" s="0">
-        <v>4</v>
-      </c>
-      <c r="P12" s="0">
-        <v>81.921000000000006</v>
-      </c>
-      <c r="Q12" s="0">
-        <v>77.275000000000006</v>
-      </c>
-      <c r="R12" s="0">
-        <v>30.238</v>
-      </c>
-      <c r="S12" s="0">
-        <v>2</v>
-      </c>
-      <c r="T12" s="0">
-        <v>4</v>
-      </c>
-      <c r="U12" s="0">
-        <v>1.0325005078204348</v>
-      </c>
-      <c r="V12" s="0">
-        <v>1</v>
-      </c>
-      <c r="W12" s="0">
-        <v>102.56249999999999</v>
-      </c>
-      <c r="X12" s="0">
-        <v>-69.012500000000003</v>
-      </c>
-      <c r="Y12" s="0">
-        <v>108.64705362798583</v>
-      </c>
-      <c r="Z12" s="0">
-        <v>8.9867400505191455</v>
-      </c>
-      <c r="AA12" s="0">
-        <v>0.087622084587633361</v>
-      </c>
-      <c r="AB12" s="0">
-        <v>0.37364130434782605</v>
-      </c>
-      <c r="AC12" s="0">
-        <v>9</v>
-      </c>
-      <c r="AD12" s="0">
-        <v>108.41874999999999</v>
-      </c>
-      <c r="AE12" s="0">
-        <v>0.82643578752963265</v>
-      </c>
-      <c r="AF12" s="0">
-        <v>214.25</v>
-      </c>
-      <c r="AG12" s="0">
-        <v>89.625</v>
-      </c>
-      <c r="AH12" s="0">
-        <v>8.0625</v>
-      </c>
-      <c r="AI12" s="0"/>
-      <c r="AJ12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="0">
-        <v>-1.8125</v>
-      </c>
-      <c r="AL12" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="B13" s="0">
-        <v>290420</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="D13" s="0">
-        <v>2</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="F13" s="0">
-        <v>381.83600000000001</v>
-      </c>
-      <c r="G13" s="0">
-        <v>285.56299999999999</v>
-      </c>
-      <c r="H13" s="0">
-        <v>4.3220000000000001</v>
-      </c>
-      <c r="I13" s="0">
-        <v>56.036000000000001</v>
-      </c>
-      <c r="J13" s="0">
-        <v>181.983</v>
-      </c>
-      <c r="K13" s="0">
-        <v>3.125</v>
-      </c>
-      <c r="L13" s="0">
-        <v>11.273</v>
-      </c>
-      <c r="M13" s="0">
-        <v>113.04600000000001</v>
-      </c>
-      <c r="N13" s="0">
-        <v>102.65600000000001</v>
-      </c>
-      <c r="O13" s="0">
-        <v>6</v>
-      </c>
-      <c r="P13" s="0">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="0">
-        <v>79.790000000000006</v>
-      </c>
-      <c r="R13" s="0">
-        <v>47.314999999999998</v>
-      </c>
-      <c r="S13" s="0">
-        <v>4</v>
-      </c>
-      <c r="T13" s="0">
-        <v>4</v>
-      </c>
-      <c r="U13" s="0">
-        <v>1.0362362604179249</v>
-      </c>
-      <c r="V13" s="0">
-        <v>0.9375</v>
-      </c>
-      <c r="W13" s="0">
-        <v>86.239583333333329</v>
-      </c>
-      <c r="X13" s="0">
-        <v>-82.096874999999997</v>
-      </c>
-      <c r="Y13" s="0">
-        <v>123.89918534205724</v>
-      </c>
-      <c r="Z13" s="0">
-        <v>7.733340752718628</v>
-      </c>
-      <c r="AA13" s="0">
-        <v>0.089672751813140272</v>
-      </c>
-      <c r="AB13" s="0">
-        <v>0.29614873837981404</v>
-      </c>
-      <c r="AC13" s="0">
-        <v>5</v>
-      </c>
-      <c r="AD13" s="0">
-        <v>120.69062500000001</v>
-      </c>
-      <c r="AE13" s="0">
-        <v>1.0669826698695886</v>
-      </c>
-      <c r="AF13" s="0">
-        <v>221.5</v>
-      </c>
-      <c r="AG13" s="0">
-        <v>66</v>
-      </c>
-      <c r="AH13" s="0"/>
-      <c r="AI13" s="0">
-        <v>216.21621621621603</v>
-      </c>
-      <c r="AJ13" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="0">
-        <v>0.15625</v>
-      </c>
-      <c r="AL13" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="B14" s="0">
-        <v>20520</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="D14" s="0">
-        <v>3</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="F14" s="0">
-        <v>426.51900000000001</v>
-      </c>
-      <c r="G14" s="0">
-        <v>287.245</v>
-      </c>
-      <c r="H14" s="0">
-        <v>9.2070000000000007</v>
-      </c>
-      <c r="I14" s="0">
-        <v>37.747</v>
-      </c>
-      <c r="J14" s="0">
-        <v>73.575000000000003</v>
-      </c>
-      <c r="K14" s="0">
-        <v>2.0329999999999999</v>
-      </c>
-      <c r="L14" s="0">
-        <v>10.987</v>
-      </c>
-      <c r="M14" s="0">
-        <v>73.206000000000003</v>
-      </c>
-      <c r="N14" s="0">
-        <v>63.298999999999999</v>
-      </c>
-      <c r="O14" s="0">
-        <v>3</v>
-      </c>
-      <c r="P14" s="0">
-        <v>92.992999999999995</v>
-      </c>
-      <c r="Q14" s="0">
-        <v>122.372</v>
-      </c>
-      <c r="R14" s="0">
-        <v>10.875999999999999</v>
-      </c>
-      <c r="S14" s="0">
-        <v>3</v>
-      </c>
-      <c r="T14" s="0">
-        <v>6</v>
-      </c>
-      <c r="U14" s="0">
-        <v>1.0928888430178554</v>
-      </c>
-      <c r="V14" s="0">
-        <v>2.8125</v>
-      </c>
-      <c r="W14" s="0">
-        <v>100.92708333333333</v>
-      </c>
-      <c r="X14" s="0">
-        <v>-62.690624999999997</v>
-      </c>
-      <c r="Y14" s="0">
-        <v>48.318366199892886</v>
-      </c>
-      <c r="Z14" s="0">
-        <v>9.0800398102411819</v>
-      </c>
-      <c r="AA14" s="0">
-        <v>0.089966335203132783</v>
-      </c>
-      <c r="AB14" s="0">
-        <v>0.5101351351351352</v>
-      </c>
-      <c r="AC14" s="0">
-        <v>12</v>
-      </c>
-      <c r="AD14" s="0">
-        <v>97.815625000000011</v>
-      </c>
-      <c r="AE14" s="0">
-        <v>0.9174554719694612</v>
-      </c>
-      <c r="AF14" s="0">
-        <v>229.875</v>
-      </c>
-      <c r="AG14" s="0">
-        <v>101</v>
-      </c>
-      <c r="AH14" s="0">
-        <v>1.78125</v>
-      </c>
-      <c r="AI14" s="0"/>
-      <c r="AJ14" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="0">
-        <v>2.4375</v>
-      </c>
-      <c r="AL14" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="B15" s="0">
-        <v>20520</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="D15" s="0">
-        <v>3</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="F15" s="0">
-        <v>397.04599999999999</v>
-      </c>
-      <c r="G15" s="0">
-        <v>266.67000000000002</v>
-      </c>
-      <c r="H15" s="0">
-        <v>8.3469999999999995</v>
-      </c>
-      <c r="I15" s="0">
-        <v>49.276000000000003</v>
-      </c>
-      <c r="J15" s="0">
-        <v>136.82400000000001</v>
-      </c>
-      <c r="K15" s="0">
-        <v>2.77</v>
-      </c>
-      <c r="L15" s="0">
-        <v>10.654</v>
-      </c>
-      <c r="M15" s="0">
-        <v>93.369</v>
-      </c>
-      <c r="N15" s="0">
-        <v>56.061999999999998</v>
-      </c>
-      <c r="O15" s="0">
-        <v>4</v>
-      </c>
-      <c r="P15" s="0">
-        <v>86.888000000000005</v>
-      </c>
-      <c r="Q15" s="0">
-        <v>96.260999999999996</v>
-      </c>
-      <c r="R15" s="0">
-        <v>22.527000000000001</v>
-      </c>
-      <c r="S15" s="0">
-        <v>2</v>
-      </c>
-      <c r="T15" s="0">
-        <v>4</v>
-      </c>
-      <c r="U15" s="0">
-        <v>1.132361404181853</v>
-      </c>
-      <c r="V15" s="0">
-        <v>2.15625</v>
-      </c>
-      <c r="W15" s="0">
-        <v>54.302083333333321</v>
-      </c>
-      <c r="X15" s="0">
-        <v>-58.834375000000001</v>
-      </c>
-      <c r="Y15" s="0">
-        <v>165.8374350354444</v>
-      </c>
-      <c r="Z15" s="0">
-        <v>8.4133264836066441</v>
-      </c>
-      <c r="AA15" s="0">
-        <v>0.15493561143798926</v>
-      </c>
-      <c r="AB15" s="0">
-        <v>0.42763157894736836</v>
-      </c>
-      <c r="AC15" s="0">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="0">
-        <v>125.02187499999999</v>
-      </c>
-      <c r="AE15" s="0">
-        <v>0.94260534543803942</v>
-      </c>
-      <c r="AF15" s="0">
-        <v>270.375</v>
-      </c>
-      <c r="AG15" s="0">
-        <v>91.875</v>
-      </c>
-      <c r="AH15" s="0">
-        <v>10.90625</v>
-      </c>
-      <c r="AI15" s="0"/>
-      <c r="AJ15" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="0">
-        <v>1.0625</v>
-      </c>
-      <c r="AL15" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="B16" s="0">
-        <v>30221</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="D16" s="0">
-        <v>2</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="F16" s="0">
-        <v>378.37099999999998</v>
-      </c>
-      <c r="G16" s="0">
-        <v>273.03199999999998</v>
-      </c>
-      <c r="H16" s="0">
-        <v>-14.442</v>
-      </c>
-      <c r="I16" s="0">
-        <v>59.229999999999997</v>
-      </c>
-      <c r="J16" s="0">
-        <v>229.012</v>
-      </c>
-      <c r="K16" s="0">
-        <v>2.2829999999999999</v>
-      </c>
-      <c r="L16" s="0">
-        <v>11.513</v>
-      </c>
-      <c r="M16" s="0">
-        <v>100.44499999999999</v>
-      </c>
-      <c r="N16" s="0">
-        <v>107.889</v>
-      </c>
-      <c r="O16" s="0">
-        <v>5</v>
-      </c>
-      <c r="P16" s="0">
-        <v>69.867999999999995</v>
-      </c>
-      <c r="Q16" s="0">
-        <v>64.617000000000004</v>
-      </c>
-      <c r="R16" s="0">
-        <v>16.260000000000002</v>
-      </c>
-      <c r="S16" s="0">
-        <v>2</v>
-      </c>
-      <c r="T16" s="0">
-        <v>1</v>
-      </c>
-      <c r="U16" s="0">
-        <v>1.0862909882194043</v>
-      </c>
-      <c r="V16" s="0">
-        <v>3.59375</v>
-      </c>
-      <c r="W16" s="0">
-        <v>138.82291666666666</v>
-      </c>
-      <c r="X16" s="0">
-        <v>-59.978124999999999</v>
-      </c>
-      <c r="Y16" s="0">
-        <v>95.363082021589804</v>
-      </c>
-      <c r="Z16" s="0">
-        <v>16.822555921591242</v>
-      </c>
-      <c r="AA16" s="0">
-        <v>0.12117996311793797</v>
-      </c>
-      <c r="AB16" s="0"/>
-      <c r="AC16" s="0">
-        <v>3</v>
-      </c>
-      <c r="AD16" s="0">
-        <v>97.540625000000006</v>
-      </c>
-      <c r="AE16" s="0">
-        <v>1.2720690028306052</v>
-      </c>
-      <c r="AF16" s="0">
-        <v>191.625</v>
-      </c>
-      <c r="AG16" s="0">
-        <v>58.25</v>
-      </c>
-      <c r="AH16" s="0"/>
-      <c r="AI16" s="0"/>
-      <c r="AJ16" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="0">
-        <v>3.1562000000000001</v>
-      </c>
-      <c r="AL16" s="0">
         <v>0</v>
       </c>
     </row>
@@ -4740,7 +4699,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL16"/>
+  <dimension ref="A1:AL9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
@@ -4785,231 +4744,231 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>667</v>
+        <v>976</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>678</v>
+        <v>981</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>679</v>
+        <v>982</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>681</v>
+        <v>984</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>682</v>
+        <v>985</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>698</v>
+        <v>993</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>699</v>
+        <v>994</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>700</v>
+        <v>995</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>701</v>
+        <v>996</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>702</v>
+        <v>997</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>703</v>
+        <v>998</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>704</v>
+        <v>999</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>705</v>
+        <v>1000</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>706</v>
+        <v>1001</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>707</v>
+        <v>1002</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>708</v>
+        <v>1003</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>709</v>
+        <v>1004</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>710</v>
+        <v>1005</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>711</v>
+        <v>1006</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>712</v>
+        <v>1007</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>713</v>
+        <v>1008</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>714</v>
+        <v>1009</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>715</v>
+        <v>1010</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>716</v>
+        <v>1011</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>717</v>
+        <v>1012</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>718</v>
+        <v>1013</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>719</v>
+        <v>1014</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>720</v>
+        <v>1015</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>721</v>
+        <v>1016</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>722</v>
+        <v>1017</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>723</v>
+        <v>1018</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>724</v>
+        <v>1019</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>725</v>
+        <v>1020</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>726</v>
+        <v>1021</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>727</v>
+        <v>1022</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>728</v>
+        <v>1023</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>729</v>
+        <v>1024</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>730</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>668</v>
+        <v>977</v>
       </c>
       <c r="B2" s="0">
-        <v>250320</v>
+        <v>260320</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>680</v>
+        <v>983</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>683</v>
+        <v>986</v>
       </c>
       <c r="F2" s="0">
-        <v>428.44900000000001</v>
+        <v>465.96699999999998</v>
       </c>
       <c r="G2" s="0">
-        <v>244.93600000000001</v>
+        <v>411.06299999999999</v>
       </c>
       <c r="H2" s="0">
-        <v>14.455</v>
+        <v>21.547999999999998</v>
       </c>
       <c r="I2" s="0">
-        <v>58.414000000000001</v>
+        <v>43.334000000000003</v>
       </c>
       <c r="J2" s="0">
-        <v>207.01599999999999</v>
+        <v>107.39</v>
       </c>
       <c r="K2" s="0">
-        <v>3.4119999999999999</v>
+        <v>2.3239999999999998</v>
       </c>
       <c r="L2" s="0">
-        <v>14.134</v>
+        <v>12.127000000000001</v>
       </c>
       <c r="M2" s="0">
-        <v>121.843</v>
+        <v>41.887</v>
       </c>
       <c r="N2" s="0">
-        <v>92.150999999999996</v>
+        <v>42.332000000000001</v>
       </c>
       <c r="O2" s="0">
         <v>4</v>
       </c>
       <c r="P2" s="0">
-        <v>70.560000000000002</v>
+        <v>79.477000000000004</v>
       </c>
       <c r="Q2" s="0">
-        <v>171.214</v>
+        <v>68.290999999999997</v>
       </c>
       <c r="R2" s="0">
-        <v>28.427</v>
+        <v>45</v>
       </c>
       <c r="S2" s="0">
+        <v>3</v>
+      </c>
+      <c r="T2" s="0">
         <v>2</v>
       </c>
-      <c r="T2" s="0">
-        <v>4</v>
-      </c>
       <c r="U2" s="0">
-        <v>1.3763883175647882</v>
+        <v>1.1101371094628005</v>
       </c>
       <c r="V2" s="0">
-        <v>5.71875</v>
+        <v>3.0625</v>
       </c>
       <c r="W2" s="0">
-        <v>50.645833333333336</v>
+        <v>92.6875</v>
       </c>
       <c r="X2" s="0">
-        <v>-59.243749999999999</v>
+        <v>-78.099999999999994</v>
       </c>
       <c r="Y2" s="0">
-        <v>37.307657433587536</v>
+        <v>115.38141185193219</v>
       </c>
       <c r="Z2" s="0">
-        <v>8.4094816443854867</v>
+        <v>6.7046073428019026</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.16604488643788701</v>
+        <v>0.072335615296581557</v>
       </c>
       <c r="AB2" s="0">
-        <v>0.47076461769115441</v>
+        <v>0.5163398692810458</v>
       </c>
       <c r="AC2" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD2" s="0">
-        <v>80.681250000000006</v>
+        <v>116.53749999999999</v>
       </c>
       <c r="AE2" s="0">
-        <v>0.92731218977323238</v>
+        <v>0.96076771816668582</v>
       </c>
       <c r="AF2" s="0">
-        <v>263.375</v>
+        <v>248.75</v>
       </c>
       <c r="AG2" s="0">
-        <v>93.25</v>
+        <v>73.125</v>
       </c>
       <c r="AH2" s="0">
-        <v>3.03125</v>
+        <v>1.96875</v>
       </c>
       <c r="AI2" s="0">
-        <v>246.15384615384613</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="0">
         <v>0</v>
       </c>
       <c r="AK2" s="0">
-        <v>1.0938000000000001</v>
+        <v>1.0311999999999999</v>
       </c>
       <c r="AL2" s="0">
         <v>0</v>
@@ -5017,113 +4976,111 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>669</v>
+        <v>978</v>
       </c>
       <c r="B3" s="0">
-        <v>260320</v>
+        <v>150520</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>680</v>
+        <v>983</v>
       </c>
       <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="F3" s="0">
+        <v>500.041</v>
+      </c>
+      <c r="G3" s="0">
+        <v>377.28100000000001</v>
+      </c>
+      <c r="H3" s="0">
+        <v>9.5879999999999992</v>
+      </c>
+      <c r="I3" s="0">
+        <v>38.5</v>
+      </c>
+      <c r="J3" s="0">
+        <v>103.508</v>
+      </c>
+      <c r="K3" s="0">
+        <v>1.998</v>
+      </c>
+      <c r="L3" s="0">
+        <v>14.798</v>
+      </c>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0">
         <v>2</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>684</v>
-      </c>
-      <c r="F3" s="0">
-        <v>465.96699999999998</v>
-      </c>
-      <c r="G3" s="0">
-        <v>411.06299999999999</v>
-      </c>
-      <c r="H3" s="0">
-        <v>21.547999999999998</v>
-      </c>
-      <c r="I3" s="0">
-        <v>43.334000000000003</v>
-      </c>
-      <c r="J3" s="0">
-        <v>107.39</v>
-      </c>
-      <c r="K3" s="0">
-        <v>2.3239999999999998</v>
-      </c>
-      <c r="L3" s="0">
-        <v>12.127000000000001</v>
-      </c>
-      <c r="M3" s="0">
-        <v>41.887</v>
-      </c>
-      <c r="N3" s="0">
-        <v>42.332000000000001</v>
-      </c>
-      <c r="O3" s="0">
-        <v>4</v>
-      </c>
       <c r="P3" s="0">
-        <v>79.477000000000004</v>
+        <v>81.224000000000004</v>
       </c>
       <c r="Q3" s="0">
-        <v>68.290999999999997</v>
+        <v>78.978999999999999</v>
       </c>
       <c r="R3" s="0">
-        <v>45</v>
+        <v>32.523000000000003</v>
       </c>
       <c r="S3" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" s="0">
         <v>2</v>
       </c>
       <c r="U3" s="0">
-        <v>1.1101371094628005</v>
+        <v>1.0486448922863099</v>
       </c>
       <c r="V3" s="0">
-        <v>3.0625</v>
+        <v>1.53125</v>
       </c>
       <c r="W3" s="0">
-        <v>92.6875</v>
+        <v>104.92708333333336</v>
       </c>
       <c r="X3" s="0">
-        <v>-78.099999999999994</v>
+        <v>-67.928124999999994</v>
       </c>
       <c r="Y3" s="0">
-        <v>115.38141185193219</v>
+        <v>28.739011250235642</v>
       </c>
       <c r="Z3" s="0">
-        <v>6.7046073428019026</v>
+        <v>14.322849155230552</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.072335615296581557</v>
+        <v>0.13650288085993573</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.5163398692810458</v>
+        <v>0.51195219123505975</v>
       </c>
       <c r="AC3" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD3" s="0">
-        <v>116.53749999999999</v>
+        <v>107.61562499999999</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.96076771816668582</v>
+        <v>0.86849944508601595</v>
       </c>
       <c r="AF3" s="0">
-        <v>248.75</v>
+        <v>284.75</v>
       </c>
       <c r="AG3" s="0">
-        <v>73.125</v>
+        <v>86.625</v>
       </c>
       <c r="AH3" s="0">
-        <v>1.96875</v>
-      </c>
-      <c r="AI3" s="0"/>
+        <v>4.28125</v>
+      </c>
+      <c r="AI3" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ3" s="0">
         <v>0</v>
       </c>
       <c r="AK3" s="0">
-        <v>1.0311999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AL3" s="0">
         <v>0</v>
@@ -5131,109 +5088,115 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>670</v>
+        <v>978</v>
       </c>
       <c r="B4" s="0">
-        <v>260320</v>
+        <v>190520</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>680</v>
+        <v>983</v>
       </c>
       <c r="D4" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>685</v>
+        <v>988</v>
       </c>
       <c r="F4" s="0">
-        <v>514.60299999999995</v>
+        <v>475.017</v>
       </c>
       <c r="G4" s="0">
-        <v>337.81299999999999</v>
+        <v>282.97399999999999</v>
       </c>
       <c r="H4" s="0">
-        <v>8.8300000000000001</v>
+        <v>6.6719999999999997</v>
       </c>
       <c r="I4" s="0">
-        <v>41.557000000000002</v>
+        <v>66.231999999999999</v>
       </c>
       <c r="J4" s="0">
-        <v>87.981999999999999</v>
+        <v>268.43799999999999</v>
       </c>
       <c r="K4" s="0">
-        <v>2.3719999999999999</v>
+        <v>2.8399999999999999</v>
       </c>
       <c r="L4" s="0">
-        <v>11.571</v>
-      </c>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
+        <v>17.035</v>
+      </c>
+      <c r="M4" s="0">
+        <v>80.162999999999997</v>
+      </c>
+      <c r="N4" s="0">
+        <v>68.194000000000003</v>
+      </c>
       <c r="O4" s="0">
-        <v>2</v>
-      </c>
-      <c r="P4" s="0"/>
+        <v>8</v>
+      </c>
+      <c r="P4" s="0">
+        <v>144.26900000000001</v>
+      </c>
       <c r="Q4" s="0">
-        <v>158.20699999999999</v>
+        <v>165.39500000000001</v>
       </c>
       <c r="R4" s="0">
-        <v>40.133000000000003</v>
+        <v>75.587000000000003</v>
       </c>
       <c r="S4" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T4" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U4" s="0">
-        <v>1.0711543862934183</v>
+        <v>1.0604497461110662</v>
       </c>
       <c r="V4" s="0">
-        <v>2.375</v>
+        <v>2.34375</v>
       </c>
       <c r="W4" s="0">
-        <v>111.26041666666663</v>
+        <v>129.23958333333331</v>
       </c>
       <c r="X4" s="0">
-        <v>-68.403125000000003</v>
+        <v>-71.446875000000006</v>
       </c>
       <c r="Y4" s="0">
-        <v>16.151027276723951</v>
+        <v>30.13090052258481</v>
       </c>
       <c r="Z4" s="0">
-        <v>18.515559105089373</v>
+        <v>20.005598894991298</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.166416409895008</v>
+        <v>0.15479467187226284</v>
       </c>
       <c r="AB4" s="0">
-        <v>0.30529595015576322</v>
+        <v>0.6164705882352941</v>
       </c>
       <c r="AC4" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD4" s="0">
-        <v>104.09062499999999</v>
+        <v>118.35312500000001</v>
       </c>
       <c r="AE4" s="0">
-        <v>0.90377426236934966</v>
+        <v>0.8470045500505563</v>
       </c>
       <c r="AF4" s="0">
-        <v>292.25</v>
+        <v>140.125</v>
       </c>
       <c r="AG4" s="0">
-        <v>82.25</v>
+        <v>66.125</v>
       </c>
       <c r="AH4" s="0">
-        <v>6.71875</v>
+        <v>1.125</v>
       </c>
       <c r="AI4" s="0">
-        <v>296.29629629629625</v>
+        <v>146.78899082568807</v>
       </c>
       <c r="AJ4" s="0">
         <v>0</v>
       </c>
       <c r="AK4" s="0">
-        <v>0.96875</v>
+        <v>1.7188000000000001</v>
       </c>
       <c r="AL4" s="0">
         <v>0</v>
@@ -5241,107 +5204,115 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>670</v>
+        <v>978</v>
       </c>
       <c r="B5" s="0">
-        <v>140520</v>
+        <v>190520</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>680</v>
+        <v>983</v>
       </c>
       <c r="D5" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>686</v>
+        <v>989</v>
       </c>
       <c r="F5" s="0">
-        <v>490.94</v>
+        <v>570.43799999999999</v>
       </c>
       <c r="G5" s="0">
-        <v>317.09500000000003</v>
+        <v>446.63299999999998</v>
       </c>
       <c r="H5" s="0">
-        <v>15.06</v>
+        <v>-12.054</v>
       </c>
       <c r="I5" s="0">
-        <v>46.274000000000001</v>
+        <v>60.530000000000001</v>
       </c>
       <c r="J5" s="0">
-        <v>132.94</v>
+        <v>262.005</v>
       </c>
       <c r="K5" s="0">
-        <v>2.1480000000000001</v>
+        <v>2.2759999999999998</v>
       </c>
       <c r="L5" s="0">
-        <v>10.635</v>
-      </c>
-      <c r="M5" s="0"/>
-      <c r="N5" s="0"/>
-      <c r="O5" s="0"/>
+        <v>14.884</v>
+      </c>
+      <c r="M5" s="0">
+        <v>104.479</v>
+      </c>
+      <c r="N5" s="0">
+        <v>84.162999999999997</v>
+      </c>
+      <c r="O5" s="0">
+        <v>5</v>
+      </c>
       <c r="P5" s="0">
-        <v>171.285</v>
+        <v>121.485</v>
       </c>
       <c r="Q5" s="0">
-        <v>150.13</v>
+        <v>102.249</v>
       </c>
       <c r="R5" s="0">
-        <v>34.140999999999998</v>
+        <v>16.068999999999999</v>
       </c>
       <c r="S5" s="0">
         <v>3</v>
       </c>
       <c r="T5" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U5" s="0">
-        <v>1.056046065259117</v>
+        <v>1.0800301289897374</v>
       </c>
       <c r="V5" s="0">
-        <v>2.28125</v>
+        <v>2.65625</v>
       </c>
       <c r="W5" s="0">
-        <v>135.67708333333331</v>
+        <v>110.63541666666663</v>
       </c>
       <c r="X5" s="0">
-        <v>-70.921875</v>
+        <v>-78.434375000000003</v>
       </c>
       <c r="Y5" s="0">
-        <v>28.143064981177741</v>
+        <v>108.12020743054313</v>
       </c>
       <c r="Z5" s="0">
-        <v>20.075054277825497</v>
+        <v>19.548722159451188</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.14796201233560446</v>
+        <v>0.17669497479590573</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.54620976116303221</v>
+        <v>0.46772228989037762</v>
       </c>
       <c r="AC5" s="0">
         <v>11</v>
       </c>
       <c r="AD5" s="0">
-        <v>120.609375</v>
+        <v>125.49687499999999</v>
       </c>
       <c r="AE5" s="0">
-        <v>0.76146563065771744</v>
+        <v>0.83921863898927995</v>
       </c>
       <c r="AF5" s="0">
-        <v>317.625</v>
+        <v>261.75</v>
       </c>
       <c r="AG5" s="0">
-        <v>107.25</v>
+        <v>92.125</v>
       </c>
       <c r="AH5" s="0">
-        <v>4.96875</v>
-      </c>
-      <c r="AI5" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="0">
+        <v>140.35087719298247</v>
+      </c>
       <c r="AJ5" s="0">
         <v>0</v>
       </c>
       <c r="AK5" s="0">
-        <v>0.09375</v>
+        <v>2.4375</v>
       </c>
       <c r="AL5" s="0">
         <v>0</v>
@@ -5349,113 +5320,115 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>671</v>
+        <v>978</v>
       </c>
       <c r="B6" s="0">
-        <v>150520</v>
+        <v>210520</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>680</v>
+        <v>983</v>
       </c>
       <c r="D6" s="0">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>687</v>
+        <v>989</v>
       </c>
       <c r="F6" s="0">
-        <v>515.92899999999997</v>
+        <v>482.98500000000001</v>
       </c>
       <c r="G6" s="0">
-        <v>365.92200000000003</v>
+        <v>300.43700000000001</v>
       </c>
       <c r="H6" s="0">
-        <v>7.3819999999999997</v>
+        <v>12.933999999999999</v>
       </c>
       <c r="I6" s="0">
-        <v>45.533999999999999</v>
+        <v>58.000999999999998</v>
       </c>
       <c r="J6" s="0">
-        <v>144.911</v>
+        <v>201.346</v>
       </c>
       <c r="K6" s="0">
-        <v>2.1800000000000002</v>
+        <v>3.2679999999999998</v>
       </c>
       <c r="L6" s="0">
-        <v>10.096</v>
+        <v>11.938000000000001</v>
       </c>
       <c r="M6" s="0">
-        <v>71.634</v>
+        <v>86.382999999999996</v>
       </c>
       <c r="N6" s="0">
-        <v>57.225999999999999</v>
+        <v>70.540999999999997</v>
       </c>
       <c r="O6" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P6" s="0">
-        <v>183.23599999999999</v>
+        <v>183.33199999999999</v>
       </c>
       <c r="Q6" s="0">
-        <v>129.55600000000001</v>
+        <v>139.53299999999999</v>
       </c>
       <c r="R6" s="0">
-        <v>37.377000000000002</v>
+        <v>61.478000000000002</v>
       </c>
       <c r="S6" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T6" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U6" s="0">
-        <v>1.3205918618988903</v>
+        <v>1.0391530163803435</v>
       </c>
       <c r="V6" s="0">
-        <v>4.0625</v>
+        <v>1.53125</v>
       </c>
       <c r="W6" s="0">
-        <v>42.239583333333329</v>
+        <v>130.36458333333331</v>
       </c>
       <c r="X6" s="0">
-        <v>-66.859375</v>
+        <v>-62.171875</v>
       </c>
       <c r="Y6" s="0">
-        <v>209.10039721902959</v>
+        <v>10.651933454212083</v>
       </c>
       <c r="Z6" s="0">
-        <v>5.6787935694239025</v>
+        <v>21.776728365764313</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.13444246181620093</v>
+        <v>0.16704482006499197</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.73811833171677976</v>
+        <v>0.5824915824915825</v>
       </c>
       <c r="AC6" s="0">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD6" s="0">
-        <v>114.546875</v>
+        <v>111.796875</v>
       </c>
       <c r="AE6" s="0">
-        <v>0.67482630926996734</v>
+        <v>0.87712197159565619</v>
       </c>
       <c r="AF6" s="0">
-        <v>333.875</v>
+        <v>338.125</v>
       </c>
       <c r="AG6" s="0">
-        <v>126.125</v>
+        <v>86.375</v>
       </c>
       <c r="AH6" s="0">
-        <v>6.90625</v>
-      </c>
-      <c r="AI6" s="0"/>
+        <v>1.53125</v>
+      </c>
+      <c r="AI6" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ6" s="0">
         <v>0</v>
       </c>
       <c r="AK6" s="0">
-        <v>2.5625</v>
+        <v>0.65625</v>
       </c>
       <c r="AL6" s="0">
         <v>0</v>
@@ -5463,109 +5436,115 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>672</v>
+        <v>979</v>
       </c>
       <c r="B7" s="0">
-        <v>150520</v>
+        <v>210520</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>680</v>
+        <v>983</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>688</v>
+        <v>990</v>
       </c>
       <c r="F7" s="0">
-        <v>500.041</v>
+        <v>510.274</v>
       </c>
       <c r="G7" s="0">
-        <v>377.28100000000001</v>
+        <v>365.94400000000002</v>
       </c>
       <c r="H7" s="0">
-        <v>9.5879999999999992</v>
+        <v>-13.125999999999999</v>
       </c>
       <c r="I7" s="0">
-        <v>38.5</v>
+        <v>55.468000000000004</v>
       </c>
       <c r="J7" s="0">
-        <v>103.508</v>
+        <v>215.54300000000001</v>
       </c>
       <c r="K7" s="0">
-        <v>1.998</v>
+        <v>1.9019999999999999</v>
       </c>
       <c r="L7" s="0">
-        <v>14.798</v>
-      </c>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
+        <v>14.015000000000001</v>
+      </c>
+      <c r="M7" s="0">
+        <v>107.991</v>
+      </c>
+      <c r="N7" s="0">
+        <v>84.094999999999999</v>
+      </c>
       <c r="O7" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7" s="0">
-        <v>81.224000000000004</v>
+        <v>112.581</v>
       </c>
       <c r="Q7" s="0">
-        <v>78.978999999999999</v>
+        <v>127.07599999999999</v>
       </c>
       <c r="R7" s="0">
-        <v>32.523000000000003</v>
+        <v>50.265000000000001</v>
       </c>
       <c r="S7" s="0">
         <v>2</v>
       </c>
       <c r="T7" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U7" s="0">
-        <v>1.0486448922863099</v>
+        <v>1.1090299133351971</v>
       </c>
       <c r="V7" s="0">
-        <v>1.53125</v>
+        <v>2.4375</v>
       </c>
       <c r="W7" s="0">
-        <v>104.92708333333336</v>
+        <v>74.520833333333343</v>
       </c>
       <c r="X7" s="0">
-        <v>-67.928124999999994</v>
+        <v>-81.737499999999997</v>
       </c>
       <c r="Y7" s="0">
-        <v>28.739011250235642</v>
+        <v>114.71276970177878</v>
       </c>
       <c r="Z7" s="0">
-        <v>14.322849155230552</v>
+        <v>6.551330149847038</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.13650288085993573</v>
+        <v>0.087912733349918309</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.51195219123505975</v>
+        <v>0.36061381074168791</v>
       </c>
       <c r="AC7" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AD7" s="0">
-        <v>107.61562499999999</v>
+        <v>120.11250000000001</v>
       </c>
       <c r="AE7" s="0">
-        <v>0.86849944508601595</v>
+        <v>0.91116994165744813</v>
       </c>
       <c r="AF7" s="0">
-        <v>284.75</v>
+        <v>242.5</v>
       </c>
       <c r="AG7" s="0">
-        <v>86.625</v>
+        <v>73.25</v>
       </c>
       <c r="AH7" s="0">
-        <v>4.28125</v>
-      </c>
-      <c r="AI7" s="0"/>
+        <v>3.34375</v>
+      </c>
+      <c r="AI7" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ7" s="0">
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>0.875</v>
+        <v>0.5625</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -5573,115 +5552,115 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>672</v>
+        <v>979</v>
       </c>
       <c r="B8" s="0">
-        <v>190520</v>
+        <v>210520</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>680</v>
+        <v>983</v>
       </c>
       <c r="D8" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>689</v>
+        <v>991</v>
       </c>
       <c r="F8" s="0">
-        <v>475.017</v>
+        <v>570.12</v>
       </c>
       <c r="G8" s="0">
-        <v>282.97399999999999</v>
+        <v>510.767</v>
       </c>
       <c r="H8" s="0">
-        <v>6.6719999999999997</v>
+        <v>21.114000000000001</v>
       </c>
       <c r="I8" s="0">
-        <v>66.231999999999999</v>
+        <v>65.046999999999997</v>
       </c>
       <c r="J8" s="0">
-        <v>268.43799999999999</v>
+        <v>300.72500000000002</v>
       </c>
       <c r="K8" s="0">
-        <v>2.8399999999999999</v>
+        <v>2.4790000000000001</v>
       </c>
       <c r="L8" s="0">
-        <v>17.035</v>
+        <v>13.869999999999999</v>
       </c>
       <c r="M8" s="0">
-        <v>80.162999999999997</v>
+        <v>124.932</v>
       </c>
       <c r="N8" s="0">
-        <v>68.194000000000003</v>
+        <v>96.975999999999999</v>
       </c>
       <c r="O8" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P8" s="0">
-        <v>144.26900000000001</v>
+        <v>101.184</v>
       </c>
       <c r="Q8" s="0">
-        <v>165.39500000000001</v>
+        <v>101.547</v>
       </c>
       <c r="R8" s="0">
-        <v>75.587000000000003</v>
+        <v>35.856999999999999</v>
       </c>
       <c r="S8" s="0">
+        <v>3</v>
+      </c>
+      <c r="T8" s="0">
         <v>4</v>
       </c>
-      <c r="T8" s="0">
-        <v>6</v>
-      </c>
       <c r="U8" s="0">
-        <v>1.0604497461110662</v>
+        <v>1.1091317605520783</v>
       </c>
       <c r="V8" s="0">
-        <v>2.34375</v>
+        <v>2.125</v>
       </c>
       <c r="W8" s="0">
-        <v>129.23958333333331</v>
+        <v>64.906249999999972</v>
       </c>
       <c r="X8" s="0">
-        <v>-71.446875000000006</v>
+        <v>-80.309375000000003</v>
       </c>
       <c r="Y8" s="0">
-        <v>30.13090052258481</v>
+        <v>139.47832833673655</v>
       </c>
       <c r="Z8" s="0">
-        <v>20.005598894991298</v>
+        <v>7.7774356271048841</v>
       </c>
       <c r="AA8" s="0">
-        <v>0.15479467187226284</v>
+        <v>0.11982568130349369</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.6164705882352941</v>
+        <v>0.30366492146596857</v>
       </c>
       <c r="AC8" s="0">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AD8" s="0">
-        <v>118.35312500000001</v>
+        <v>130.27812499999999</v>
       </c>
       <c r="AE8" s="0">
-        <v>0.8470045500505563</v>
+        <v>0.79323234999341707</v>
       </c>
       <c r="AF8" s="0">
-        <v>140.125</v>
+        <v>284</v>
       </c>
       <c r="AG8" s="0">
-        <v>66.125</v>
+        <v>103.625</v>
       </c>
       <c r="AH8" s="0">
-        <v>1.125</v>
+        <v>7</v>
       </c>
       <c r="AI8" s="0">
-        <v>146.78899082568807</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="0">
         <v>0</v>
       </c>
       <c r="AK8" s="0">
-        <v>1.7188000000000001</v>
+        <v>0.53125</v>
       </c>
       <c r="AL8" s="0">
         <v>0</v>
@@ -5689,915 +5668,117 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>672</v>
+        <v>980</v>
       </c>
       <c r="B9" s="0">
-        <v>190520</v>
+        <v>240520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>680</v>
+        <v>983</v>
       </c>
       <c r="D9" s="0">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>690</v>
+        <v>992</v>
       </c>
       <c r="F9" s="0">
-        <v>570.43799999999999</v>
+        <v>352.471</v>
       </c>
       <c r="G9" s="0">
-        <v>446.63299999999998</v>
+        <v>236.59800000000001</v>
       </c>
       <c r="H9" s="0">
-        <v>-12.054</v>
+        <v>4.9779999999999998</v>
       </c>
       <c r="I9" s="0">
-        <v>60.530000000000001</v>
+        <v>63.286000000000001</v>
       </c>
       <c r="J9" s="0">
-        <v>262.005</v>
+        <v>270.41500000000002</v>
       </c>
       <c r="K9" s="0">
-        <v>2.2759999999999998</v>
+        <v>2.8439999999999999</v>
       </c>
       <c r="L9" s="0">
-        <v>14.884</v>
+        <v>14.407999999999999</v>
       </c>
       <c r="M9" s="0">
-        <v>104.479</v>
+        <v>101.306</v>
       </c>
       <c r="N9" s="0">
-        <v>84.162999999999997</v>
+        <v>93.275999999999996</v>
       </c>
       <c r="O9" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P9" s="0">
-        <v>121.485</v>
+        <v>100.38800000000001</v>
       </c>
       <c r="Q9" s="0">
-        <v>102.249</v>
+        <v>68.780000000000001</v>
       </c>
       <c r="R9" s="0">
-        <v>16.068999999999999</v>
+        <v>62.270000000000003</v>
       </c>
       <c r="S9" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U9" s="0">
-        <v>1.0800301289897374</v>
+        <v>1.0644329896907216</v>
       </c>
       <c r="V9" s="0">
-        <v>2.65625</v>
+        <v>2.03125</v>
       </c>
       <c r="W9" s="0">
-        <v>110.63541666666663</v>
+        <v>105.08333333333333</v>
       </c>
       <c r="X9" s="0">
-        <v>-78.434375000000003</v>
+        <v>-81.724999999999994</v>
       </c>
       <c r="Y9" s="0">
-        <v>108.12020743054313</v>
+        <v>105.14040738935778</v>
       </c>
       <c r="Z9" s="0">
-        <v>19.548722159451188</v>
+        <v>10.047035651150617</v>
       </c>
       <c r="AA9" s="0">
-        <v>0.17669497479590573</v>
+        <v>0.095610172731013021</v>
       </c>
       <c r="AB9" s="0">
-        <v>0.46772228989037762</v>
+        <v>0.32650862068965519</v>
       </c>
       <c r="AC9" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD9" s="0">
-        <v>125.49687499999999</v>
+        <v>137.09999999999999</v>
       </c>
       <c r="AE9" s="0">
-        <v>0.83921863898927995</v>
+        <v>0.76008185963142338</v>
       </c>
       <c r="AF9" s="0">
-        <v>261.75</v>
+        <v>364.5</v>
       </c>
       <c r="AG9" s="0">
-        <v>92.125</v>
-      </c>
-      <c r="AH9" s="0"/>
+        <v>111.625</v>
+      </c>
+      <c r="AH9" s="0">
+        <v>9.875</v>
+      </c>
       <c r="AI9" s="0">
-        <v>140.35087719298247</v>
+        <v>158.41584158415841</v>
       </c>
       <c r="AJ9" s="0">
         <v>0</v>
       </c>
       <c r="AK9" s="0">
-        <v>2.4375</v>
+        <v>0.25</v>
       </c>
       <c r="AL9" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>673</v>
-      </c>
-      <c r="B10" s="0">
-        <v>200520</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="D10" s="0">
-        <v>2</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="F10" s="0">
-        <v>512.58900000000006</v>
-      </c>
-      <c r="G10" s="0">
-        <v>342.065</v>
-      </c>
-      <c r="H10" s="0">
-        <v>7.7610000000000001</v>
-      </c>
-      <c r="I10" s="0">
-        <v>69.331999999999994</v>
-      </c>
-      <c r="J10" s="0">
-        <v>323.95999999999998</v>
-      </c>
-      <c r="K10" s="0">
-        <v>3.1230000000000002</v>
-      </c>
-      <c r="L10" s="0">
-        <v>10.795999999999999</v>
-      </c>
-      <c r="M10" s="0">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="N10" s="0">
-        <v>52.216999999999999</v>
-      </c>
-      <c r="O10" s="0">
-        <v>6</v>
-      </c>
-      <c r="P10" s="0">
-        <v>153.417</v>
-      </c>
-      <c r="Q10" s="0">
-        <v>95.409000000000006</v>
-      </c>
-      <c r="R10" s="0">
-        <v>41.753999999999998</v>
-      </c>
-      <c r="S10" s="0">
-        <v>3</v>
-      </c>
-      <c r="T10" s="0">
-        <v>4</v>
-      </c>
-      <c r="U10" s="0">
-        <v>1.131665569453588</v>
-      </c>
-      <c r="V10" s="0">
-        <v>3.125</v>
-      </c>
-      <c r="W10" s="0">
-        <v>79.114583333333329</v>
-      </c>
-      <c r="X10" s="0">
-        <v>-72.046875</v>
-      </c>
-      <c r="Y10" s="0">
-        <v>123.97538172835853</v>
-      </c>
-      <c r="Z10" s="0">
-        <v>15.317254075770009</v>
-      </c>
-      <c r="AA10" s="0">
-        <v>0.19360847811374865</v>
-      </c>
-      <c r="AB10" s="0">
-        <v>0.40740740740740738</v>
-      </c>
-      <c r="AC10" s="0">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="0">
-        <v>105.203125</v>
-      </c>
-      <c r="AE10" s="0">
-        <v>0.87233612176187947</v>
-      </c>
-      <c r="AF10" s="0">
-        <v>345</v>
-      </c>
-      <c r="AG10" s="0">
-        <v>111.875</v>
-      </c>
-      <c r="AH10" s="0">
-        <v>2.84375</v>
-      </c>
-      <c r="AI10" s="0"/>
-      <c r="AJ10" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="0">
-        <v>2.2812000000000001</v>
-      </c>
-      <c r="AL10" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="B11" s="0">
-        <v>210520</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="D11" s="0">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="F11" s="0">
-        <v>482.98500000000001</v>
-      </c>
-      <c r="G11" s="0">
-        <v>300.43700000000001</v>
-      </c>
-      <c r="H11" s="0">
-        <v>12.933999999999999</v>
-      </c>
-      <c r="I11" s="0">
-        <v>58.000999999999998</v>
-      </c>
-      <c r="J11" s="0">
-        <v>201.346</v>
-      </c>
-      <c r="K11" s="0">
-        <v>3.2679999999999998</v>
-      </c>
-      <c r="L11" s="0">
-        <v>11.938000000000001</v>
-      </c>
-      <c r="M11" s="0">
-        <v>86.382999999999996</v>
-      </c>
-      <c r="N11" s="0">
-        <v>70.540999999999997</v>
-      </c>
-      <c r="O11" s="0">
-        <v>5</v>
-      </c>
-      <c r="P11" s="0">
-        <v>183.33199999999999</v>
-      </c>
-      <c r="Q11" s="0">
-        <v>139.53299999999999</v>
-      </c>
-      <c r="R11" s="0">
-        <v>61.478000000000002</v>
-      </c>
-      <c r="S11" s="0">
-        <v>3</v>
-      </c>
-      <c r="T11" s="0">
-        <v>9</v>
-      </c>
-      <c r="U11" s="0">
-        <v>1.0391530163803435</v>
-      </c>
-      <c r="V11" s="0">
-        <v>1.53125</v>
-      </c>
-      <c r="W11" s="0">
-        <v>130.36458333333331</v>
-      </c>
-      <c r="X11" s="0">
-        <v>-62.171875</v>
-      </c>
-      <c r="Y11" s="0">
-        <v>10.651933454212083</v>
-      </c>
-      <c r="Z11" s="0">
-        <v>21.776728365764313</v>
-      </c>
-      <c r="AA11" s="0">
-        <v>0.16704482006499197</v>
-      </c>
-      <c r="AB11" s="0">
-        <v>0.5824915824915825</v>
-      </c>
-      <c r="AC11" s="0">
-        <v>18</v>
-      </c>
-      <c r="AD11" s="0">
-        <v>111.796875</v>
-      </c>
-      <c r="AE11" s="0">
-        <v>0.87712197159565619</v>
-      </c>
-      <c r="AF11" s="0">
-        <v>338.125</v>
-      </c>
-      <c r="AG11" s="0">
-        <v>86.375</v>
-      </c>
-      <c r="AH11" s="0">
-        <v>1.53125</v>
-      </c>
-      <c r="AI11" s="0"/>
-      <c r="AJ11" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="0">
-        <v>0.65625</v>
-      </c>
-      <c r="AL11" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="B12" s="0">
-        <v>210520</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="D12" s="0">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>693</v>
-      </c>
-      <c r="F12" s="0">
-        <v>510.274</v>
-      </c>
-      <c r="G12" s="0">
-        <v>365.94400000000002</v>
-      </c>
-      <c r="H12" s="0">
-        <v>-13.125999999999999</v>
-      </c>
-      <c r="I12" s="0">
-        <v>55.468000000000004</v>
-      </c>
-      <c r="J12" s="0">
-        <v>215.54300000000001</v>
-      </c>
-      <c r="K12" s="0">
-        <v>1.9019999999999999</v>
-      </c>
-      <c r="L12" s="0">
-        <v>14.015000000000001</v>
-      </c>
-      <c r="M12" s="0">
-        <v>107.991</v>
-      </c>
-      <c r="N12" s="0">
-        <v>84.094999999999999</v>
-      </c>
-      <c r="O12" s="0">
-        <v>4</v>
-      </c>
-      <c r="P12" s="0">
-        <v>112.581</v>
-      </c>
-      <c r="Q12" s="0">
-        <v>127.07599999999999</v>
-      </c>
-      <c r="R12" s="0">
-        <v>50.265000000000001</v>
-      </c>
-      <c r="S12" s="0">
-        <v>2</v>
-      </c>
-      <c r="T12" s="0">
-        <v>4</v>
-      </c>
-      <c r="U12" s="0">
-        <v>1.1090299133351971</v>
-      </c>
-      <c r="V12" s="0">
-        <v>2.4375</v>
-      </c>
-      <c r="W12" s="0">
-        <v>74.520833333333343</v>
-      </c>
-      <c r="X12" s="0">
-        <v>-81.737499999999997</v>
-      </c>
-      <c r="Y12" s="0">
-        <v>114.71276970177878</v>
-      </c>
-      <c r="Z12" s="0">
-        <v>6.551330149847038</v>
-      </c>
-      <c r="AA12" s="0">
-        <v>0.087912733349918309</v>
-      </c>
-      <c r="AB12" s="0">
-        <v>0.36061381074168791</v>
-      </c>
-      <c r="AC12" s="0">
-        <v>7</v>
-      </c>
-      <c r="AD12" s="0">
-        <v>120.11250000000001</v>
-      </c>
-      <c r="AE12" s="0">
-        <v>0.91116994165744813</v>
-      </c>
-      <c r="AF12" s="0">
-        <v>242.5</v>
-      </c>
-      <c r="AG12" s="0">
-        <v>73.25</v>
-      </c>
-      <c r="AH12" s="0">
-        <v>3.34375</v>
-      </c>
-      <c r="AI12" s="0"/>
-      <c r="AJ12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="0">
-        <v>0.5625</v>
-      </c>
-      <c r="AL12" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>675</v>
-      </c>
-      <c r="B13" s="0">
-        <v>210520</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="D13" s="0">
-        <v>2</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="F13" s="0">
-        <v>570.12</v>
-      </c>
-      <c r="G13" s="0">
-        <v>510.767</v>
-      </c>
-      <c r="H13" s="0">
-        <v>21.114000000000001</v>
-      </c>
-      <c r="I13" s="0">
-        <v>65.046999999999997</v>
-      </c>
-      <c r="J13" s="0">
-        <v>300.72500000000002</v>
-      </c>
-      <c r="K13" s="0">
-        <v>2.4790000000000001</v>
-      </c>
-      <c r="L13" s="0">
-        <v>13.869999999999999</v>
-      </c>
-      <c r="M13" s="0">
-        <v>124.932</v>
-      </c>
-      <c r="N13" s="0">
-        <v>96.975999999999999</v>
-      </c>
-      <c r="O13" s="0">
-        <v>7</v>
-      </c>
-      <c r="P13" s="0">
-        <v>101.184</v>
-      </c>
-      <c r="Q13" s="0">
-        <v>101.547</v>
-      </c>
-      <c r="R13" s="0">
-        <v>35.856999999999999</v>
-      </c>
-      <c r="S13" s="0">
-        <v>3</v>
-      </c>
-      <c r="T13" s="0">
-        <v>4</v>
-      </c>
-      <c r="U13" s="0">
-        <v>1.1091317605520783</v>
-      </c>
-      <c r="V13" s="0">
-        <v>2.125</v>
-      </c>
-      <c r="W13" s="0">
-        <v>64.906249999999972</v>
-      </c>
-      <c r="X13" s="0">
-        <v>-80.309375000000003</v>
-      </c>
-      <c r="Y13" s="0">
-        <v>139.47832833673655</v>
-      </c>
-      <c r="Z13" s="0">
-        <v>7.7774356271048841</v>
-      </c>
-      <c r="AA13" s="0">
-        <v>0.11982568130349369</v>
-      </c>
-      <c r="AB13" s="0">
-        <v>0.30366492146596857</v>
-      </c>
-      <c r="AC13" s="0">
-        <v>3</v>
-      </c>
-      <c r="AD13" s="0">
-        <v>130.27812499999999</v>
-      </c>
-      <c r="AE13" s="0">
-        <v>0.79323234999341707</v>
-      </c>
-      <c r="AF13" s="0">
-        <v>284</v>
-      </c>
-      <c r="AG13" s="0">
-        <v>103.625</v>
-      </c>
-      <c r="AH13" s="0">
-        <v>7</v>
-      </c>
-      <c r="AI13" s="0"/>
-      <c r="AJ13" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="0">
-        <v>0.53125</v>
-      </c>
-      <c r="AL13" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="B14" s="0">
-        <v>240520</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="D14" s="0">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="F14" s="0">
-        <v>352.471</v>
-      </c>
-      <c r="G14" s="0">
-        <v>236.59800000000001</v>
-      </c>
-      <c r="H14" s="0">
-        <v>4.9779999999999998</v>
-      </c>
-      <c r="I14" s="0">
-        <v>63.286000000000001</v>
-      </c>
-      <c r="J14" s="0">
-        <v>270.41500000000002</v>
-      </c>
-      <c r="K14" s="0">
-        <v>2.8439999999999999</v>
-      </c>
-      <c r="L14" s="0">
-        <v>14.407999999999999</v>
-      </c>
-      <c r="M14" s="0">
-        <v>101.306</v>
-      </c>
-      <c r="N14" s="0">
-        <v>93.275999999999996</v>
-      </c>
-      <c r="O14" s="0">
-        <v>6</v>
-      </c>
-      <c r="P14" s="0">
-        <v>100.38800000000001</v>
-      </c>
-      <c r="Q14" s="0">
-        <v>68.780000000000001</v>
-      </c>
-      <c r="R14" s="0">
-        <v>62.270000000000003</v>
-      </c>
-      <c r="S14" s="0">
-        <v>2</v>
-      </c>
-      <c r="T14" s="0">
-        <v>2</v>
-      </c>
-      <c r="U14" s="0">
-        <v>1.0644329896907216</v>
-      </c>
-      <c r="V14" s="0">
-        <v>2.03125</v>
-      </c>
-      <c r="W14" s="0">
-        <v>105.08333333333333</v>
-      </c>
-      <c r="X14" s="0">
-        <v>-81.724999999999994</v>
-      </c>
-      <c r="Y14" s="0">
-        <v>105.14040738935778</v>
-      </c>
-      <c r="Z14" s="0">
-        <v>10.047035651150617</v>
-      </c>
-      <c r="AA14" s="0">
-        <v>0.095610172731013021</v>
-      </c>
-      <c r="AB14" s="0">
-        <v>0.32650862068965519</v>
-      </c>
-      <c r="AC14" s="0">
-        <v>12</v>
-      </c>
-      <c r="AD14" s="0">
-        <v>137.09999999999999</v>
-      </c>
-      <c r="AE14" s="0">
-        <v>0.76008185963142338</v>
-      </c>
-      <c r="AF14" s="0">
-        <v>364.5</v>
-      </c>
-      <c r="AG14" s="0">
-        <v>111.625</v>
-      </c>
-      <c r="AH14" s="0">
-        <v>9.875</v>
-      </c>
-      <c r="AI14" s="0">
-        <v>158.41584158415841</v>
-      </c>
-      <c r="AJ14" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AL14" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="B15" s="0">
-        <v>240520</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="D15" s="0">
-        <v>2</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="F15" s="0">
-        <v>432.50099999999998</v>
-      </c>
-      <c r="G15" s="0">
-        <v>327.06700000000001</v>
-      </c>
-      <c r="H15" s="0">
-        <v>11.49</v>
-      </c>
-      <c r="I15" s="0">
-        <v>61.924999999999997</v>
-      </c>
-      <c r="J15" s="0">
-        <v>246.51599999999999</v>
-      </c>
-      <c r="K15" s="0">
-        <v>3.2650000000000001</v>
-      </c>
-      <c r="L15" s="0">
-        <v>16.206</v>
-      </c>
-      <c r="M15" s="0">
-        <v>99.269999999999996</v>
-      </c>
-      <c r="N15" s="0">
-        <v>67.760000000000005</v>
-      </c>
-      <c r="O15" s="0">
-        <v>6</v>
-      </c>
-      <c r="P15" s="0">
-        <v>177.768</v>
-      </c>
-      <c r="Q15" s="0">
-        <v>76.811000000000007</v>
-      </c>
-      <c r="R15" s="0">
-        <v>53.134</v>
-      </c>
-      <c r="S15" s="0">
-        <v>2</v>
-      </c>
-      <c r="T15" s="0">
-        <v>7</v>
-      </c>
-      <c r="U15" s="0">
-        <v>1.2800658978583195</v>
-      </c>
-      <c r="V15" s="0">
-        <v>3.1875</v>
-      </c>
-      <c r="W15" s="0">
-        <v>37.9375</v>
-      </c>
-      <c r="X15" s="0">
-        <v>-61.587499999999999</v>
-      </c>
-      <c r="Y15" s="0">
-        <v>127.66105173263642</v>
-      </c>
-      <c r="Z15" s="0">
-        <v>3.6665786836361458</v>
-      </c>
-      <c r="AA15" s="0">
-        <v>0.096647873044774846</v>
-      </c>
-      <c r="AB15" s="0">
-        <v>0.97216274089935772</v>
-      </c>
-      <c r="AC15" s="0">
-        <v>4</v>
-      </c>
-      <c r="AD15" s="0">
-        <v>103.02500000000001</v>
-      </c>
-      <c r="AE15" s="0">
-        <v>0.85408457655961456</v>
-      </c>
-      <c r="AF15" s="0">
-        <v>273.125</v>
-      </c>
-      <c r="AG15" s="0">
-        <v>281</v>
-      </c>
-      <c r="AH15" s="0">
-        <v>4.6875</v>
-      </c>
-      <c r="AI15" s="0"/>
-      <c r="AJ15" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="0">
-        <v>2.25</v>
-      </c>
-      <c r="AL15" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="B16" s="0">
-        <v>240520</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="D16" s="0">
-        <v>2</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>697</v>
-      </c>
-      <c r="F16" s="0">
-        <v>420.47899999999998</v>
-      </c>
-      <c r="G16" s="0">
-        <v>246.61199999999999</v>
-      </c>
-      <c r="H16" s="0">
-        <v>10.079000000000001</v>
-      </c>
-      <c r="I16" s="0">
-        <v>57.820999999999998</v>
-      </c>
-      <c r="J16" s="0">
-        <v>218.12100000000001</v>
-      </c>
-      <c r="K16" s="0">
-        <v>3.0350000000000001</v>
-      </c>
-      <c r="L16" s="0">
-        <v>10.795999999999999</v>
-      </c>
-      <c r="M16" s="0">
-        <v>86.477999999999994</v>
-      </c>
-      <c r="N16" s="0">
-        <v>67.518000000000001</v>
-      </c>
-      <c r="O16" s="0">
-        <v>6</v>
-      </c>
-      <c r="P16" s="0">
-        <v>389.40899999999999</v>
-      </c>
-      <c r="Q16" s="0">
-        <v>188.00899999999999</v>
-      </c>
-      <c r="R16" s="0">
-        <v>67.186000000000007</v>
-      </c>
-      <c r="S16" s="0">
-        <v>5</v>
-      </c>
-      <c r="T16" s="0">
-        <v>4</v>
-      </c>
-      <c r="U16" s="0">
-        <v>1.1282279608192343</v>
-      </c>
-      <c r="V16" s="0">
-        <v>2.25</v>
-      </c>
-      <c r="W16" s="0">
-        <v>58.489583333333329</v>
-      </c>
-      <c r="X16" s="0">
-        <v>-75.109375</v>
-      </c>
-      <c r="Y16" s="0">
-        <v>214.90867663770265</v>
-      </c>
-      <c r="Z16" s="0">
-        <v>7.374104046552957</v>
-      </c>
-      <c r="AA16" s="0">
-        <v>0.12607550996777986</v>
-      </c>
-      <c r="AB16" s="0">
-        <v>0.59118541033434657</v>
-      </c>
-      <c r="AC16" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="0">
-        <v>123.828125</v>
-      </c>
-      <c r="AE16" s="0">
-        <v>0.75625899226383098</v>
-      </c>
-      <c r="AF16" s="0">
-        <v>315.375</v>
-      </c>
-      <c r="AG16" s="0">
-        <v>106.25</v>
-      </c>
-      <c r="AH16" s="0">
-        <v>2.21875</v>
-      </c>
-      <c r="AI16" s="0"/>
-      <c r="AJ16" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="0">
-        <v>1.9061999999999999</v>
-      </c>
-      <c r="AL16" s="0">
         <v>0</v>
       </c>
     </row>
@@ -6607,7 +5788,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AL4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
@@ -6619,7 +5800,7 @@
     <col min="7" max="7" width="10.85546875" customWidth="true"/>
     <col min="8" max="8" width="8" customWidth="true"/>
     <col min="9" max="9" width="10.140625" customWidth="true"/>
-    <col min="10" max="10" width="7.7109375" customWidth="true"/>
+    <col min="10" max="10" width="6.7109375" customWidth="true"/>
     <col min="11" max="11" width="9.42578125" customWidth="true"/>
     <col min="12" max="12" width="10" customWidth="true"/>
     <col min="13" max="13" width="7.7109375" customWidth="true"/>
@@ -6636,7 +5817,7 @@
     <col min="24" max="24" width="10.42578125" customWidth="true"/>
     <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
-    <col min="27" max="27" width="13.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
     <col min="29" max="29" width="11.28515625" customWidth="true"/>
     <col min="30" max="30" width="13" customWidth="true"/>
@@ -6644,237 +5825,239 @@
     <col min="32" max="32" width="10" customWidth="true"/>
     <col min="33" max="33" width="8.7109375" customWidth="true"/>
     <col min="34" max="34" width="7.7109375" customWidth="true"/>
-    <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="11.7109375" customWidth="true"/>
+    <col min="35" max="35" width="5.7109375" customWidth="true"/>
+    <col min="36" max="36" width="4" customWidth="true"/>
     <col min="37" max="37" width="6.7109375" customWidth="true"/>
     <col min="38" max="38" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>731</v>
+        <v>1026</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>735</v>
+        <v>1029</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>736</v>
+        <v>1030</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>738</v>
+        <v>1032</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>739</v>
+        <v>1033</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>744</v>
+        <v>1037</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>745</v>
+        <v>1038</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>746</v>
+        <v>1039</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>747</v>
+        <v>1040</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>748</v>
+        <v>1041</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>749</v>
+        <v>1042</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>750</v>
+        <v>1043</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>751</v>
+        <v>1044</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>752</v>
+        <v>1045</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>753</v>
+        <v>1046</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>754</v>
+        <v>1047</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>755</v>
+        <v>1048</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>756</v>
+        <v>1049</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>757</v>
+        <v>1050</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>758</v>
+        <v>1051</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>759</v>
+        <v>1052</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>760</v>
+        <v>1053</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>761</v>
+        <v>1054</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>762</v>
+        <v>1055</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>763</v>
+        <v>1056</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>764</v>
+        <v>1057</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>765</v>
+        <v>1058</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>766</v>
+        <v>1059</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>767</v>
+        <v>1060</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>768</v>
+        <v>1061</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>769</v>
+        <v>1062</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>770</v>
+        <v>1063</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>771</v>
+        <v>1064</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>772</v>
+        <v>1065</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>773</v>
+        <v>1066</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>774</v>
+        <v>1067</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>775</v>
+        <v>1068</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>776</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>732</v>
+        <v>1027</v>
       </c>
       <c r="B2" s="0">
-        <v>21018</v>
+        <v>160519</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>737</v>
+        <v>1031</v>
       </c>
       <c r="D2" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>740</v>
+        <v>1034</v>
       </c>
       <c r="F2" s="0">
-        <v>363.99400000000003</v>
+        <v>407.608</v>
       </c>
       <c r="G2" s="0">
-        <v>251.38499999999999</v>
+        <v>296.98899999999998</v>
       </c>
       <c r="H2" s="0">
-        <v>7.4960000000000004</v>
+        <v>8.3279999999999994</v>
       </c>
       <c r="I2" s="0">
-        <v>52.555</v>
-      </c>
-      <c r="J2" s="0"/>
+        <v>56.520000000000003</v>
+      </c>
+      <c r="J2" s="0">
+        <v>206.53</v>
+      </c>
       <c r="K2" s="0">
-        <v>3.4119999999999999</v>
+        <v>2.4550000000000001</v>
       </c>
       <c r="L2" s="0">
-        <v>14.037000000000001</v>
+        <v>14.250999999999999</v>
       </c>
       <c r="M2" s="0">
-        <v>177.44999999999999</v>
+        <v>124.953</v>
       </c>
       <c r="N2" s="0">
-        <v>66.826999999999998</v>
+        <v>93.757000000000005</v>
       </c>
       <c r="O2" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P2" s="0">
-        <v>218.964</v>
+        <v>168.29499999999999</v>
       </c>
       <c r="Q2" s="0">
-        <v>90.998000000000005</v>
+        <v>109.479</v>
       </c>
       <c r="R2" s="0">
-        <v>61.097999999999999</v>
+        <v>63.079999999999998</v>
       </c>
       <c r="S2" s="0">
         <v>3</v>
       </c>
       <c r="T2" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U2" s="0">
-        <v>1.0382923870185017</v>
+        <v>1.1114805398005085</v>
       </c>
       <c r="V2" s="0">
-        <v>1.578125</v>
+        <v>3.5625</v>
       </c>
       <c r="W2" s="0">
-        <v>137.37499999999997</v>
+        <v>106.52083333333331</v>
       </c>
       <c r="X2" s="0">
-        <v>-58.428125000000001</v>
+        <v>-60.668750000000003</v>
       </c>
       <c r="Y2" s="0">
-        <v>10.089421892522813</v>
+        <v>71.266941675277735</v>
       </c>
       <c r="Z2" s="0">
-        <v>18.123586663367671</v>
+        <v>16.564301749092149</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.13192783740395031</v>
+        <v>0.15550293056061476</v>
       </c>
       <c r="AB2" s="0">
-        <v>0.43478260869565222</v>
+        <v>0.47254150702426562</v>
       </c>
       <c r="AC2" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AD2" s="0">
-        <v>97.053124999999994</v>
+        <v>117.04374999999999</v>
       </c>
       <c r="AE2" s="0">
-        <v>1.12237441653701</v>
+        <v>1.0948656371595291</v>
       </c>
       <c r="AF2" s="0">
-        <v>188</v>
+        <v>316.25</v>
       </c>
       <c r="AG2" s="0">
-        <v>62.5</v>
+        <v>134.625</v>
       </c>
       <c r="AH2" s="0">
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="AI2" s="0">
-        <v>161.61616161616163</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="0">
         <v>0</v>
       </c>
       <c r="AK2" s="0">
-        <v>2.6562000000000001</v>
+        <v>3.0625</v>
       </c>
       <c r="AL2" s="0">
         <v>0</v>
@@ -6882,453 +6065,229 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>733</v>
+        <v>1028</v>
       </c>
       <c r="B3" s="0">
         <v>160519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>737</v>
+        <v>1031</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>740</v>
+        <v>1035</v>
       </c>
       <c r="F3" s="0">
-        <v>407.608</v>
+        <v>503.45100000000002</v>
       </c>
       <c r="G3" s="0">
-        <v>296.98899999999998</v>
+        <v>370.47000000000003</v>
       </c>
       <c r="H3" s="0">
-        <v>8.3279999999999994</v>
+        <v>16.588000000000001</v>
       </c>
       <c r="I3" s="0">
-        <v>56.520000000000003</v>
+        <v>59.308</v>
       </c>
       <c r="J3" s="0">
-        <v>206.53</v>
+        <v>194.88999999999999</v>
       </c>
       <c r="K3" s="0">
-        <v>2.4550000000000001</v>
+        <v>2.5550000000000002</v>
       </c>
       <c r="L3" s="0">
-        <v>14.250999999999999</v>
+        <v>19.088000000000001</v>
       </c>
       <c r="M3" s="0">
-        <v>124.953</v>
+        <v>88.653000000000006</v>
       </c>
       <c r="N3" s="0">
-        <v>93.757000000000005</v>
+        <v>101.14700000000001</v>
       </c>
       <c r="O3" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P3" s="0">
-        <v>168.29499999999999</v>
+        <v>218.06399999999999</v>
       </c>
       <c r="Q3" s="0">
-        <v>109.479</v>
+        <v>85.233000000000004</v>
       </c>
       <c r="R3" s="0">
-        <v>63.079999999999998</v>
+        <v>56.792999999999999</v>
       </c>
       <c r="S3" s="0">
         <v>3</v>
       </c>
       <c r="T3" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U3" s="0">
-        <v>1.1114805398005085</v>
+        <v>1.0824358462970349</v>
       </c>
       <c r="V3" s="0">
-        <v>3.5625</v>
+        <v>1.9375</v>
       </c>
       <c r="W3" s="0">
-        <v>106.52083333333331</v>
+        <v>78.343749999999972</v>
       </c>
       <c r="X3" s="0">
-        <v>-60.668750000000003</v>
+        <v>-60.496875000000003</v>
       </c>
       <c r="Y3" s="0">
-        <v>71.266941675277735</v>
+        <v>133.73183890392164</v>
       </c>
       <c r="Z3" s="0">
-        <v>16.564301749092149</v>
+        <v>18.000444314976729</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.15550293056061476</v>
+        <v>0.22976235264429817</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.47254150702426562</v>
+        <v>0.40361445783132532</v>
       </c>
       <c r="AC3" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="0">
-        <v>117.04374999999999</v>
+        <v>95.153124999999989</v>
       </c>
       <c r="AE3" s="0">
-        <v>1.0948656371595291</v>
+        <v>1.4254934779872173</v>
       </c>
       <c r="AF3" s="0">
-        <v>316.25</v>
+        <v>159.25</v>
       </c>
       <c r="AG3" s="0">
-        <v>134.625</v>
+        <v>44.625</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.3125</v>
-      </c>
-      <c r="AI3" s="0"/>
+        <v>0.53125</v>
+      </c>
+      <c r="AI3" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ3" s="0">
         <v>0</v>
       </c>
       <c r="AK3" s="0">
-        <v>3.0625</v>
+        <v>2.375</v>
       </c>
       <c r="AL3" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>734</v>
-      </c>
+      <c r="A4" s="0"/>
       <c r="B4" s="0">
-        <v>160519</v>
+        <v>270319</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>737</v>
+        <v>1031</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>741</v>
+        <v>1036</v>
       </c>
       <c r="F4" s="0">
-        <v>503.45100000000002</v>
+        <v>553.14999999999998</v>
       </c>
       <c r="G4" s="0">
-        <v>370.47000000000003</v>
+        <v>388.49599999999998</v>
       </c>
       <c r="H4" s="0">
-        <v>16.588000000000001</v>
+        <v>46.121000000000002</v>
       </c>
       <c r="I4" s="0">
-        <v>59.308</v>
+        <v>43.274000000000001</v>
       </c>
       <c r="J4" s="0">
-        <v>194.88999999999999</v>
+        <v>115.51900000000001</v>
       </c>
       <c r="K4" s="0">
-        <v>2.5550000000000002</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="L4" s="0">
-        <v>19.088000000000001</v>
+        <v>15.782</v>
       </c>
       <c r="M4" s="0">
-        <v>88.653000000000006</v>
+        <v>95.480999999999995</v>
       </c>
       <c r="N4" s="0">
-        <v>101.14700000000001</v>
+        <v>61.338000000000001</v>
       </c>
       <c r="O4" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P4" s="0">
-        <v>218.06399999999999</v>
+        <v>185.809</v>
       </c>
       <c r="Q4" s="0">
-        <v>85.233000000000004</v>
+        <v>165.83199999999999</v>
       </c>
       <c r="R4" s="0">
-        <v>56.792999999999999</v>
+        <v>26.248999999999999</v>
       </c>
       <c r="S4" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T4" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>1.0824358462970349</v>
+        <v>1.0929203539823009</v>
       </c>
       <c r="V4" s="0">
-        <v>1.9375</v>
+        <v>2.625</v>
       </c>
       <c r="W4" s="0">
-        <v>78.343749999999972</v>
+        <v>95.885416666666657</v>
       </c>
       <c r="X4" s="0">
-        <v>-60.496875000000003</v>
+        <v>-67.640625</v>
       </c>
       <c r="Y4" s="0">
-        <v>133.73183890392164</v>
+        <v>102.89439262185155</v>
       </c>
       <c r="Z4" s="0">
-        <v>18.000444314976729</v>
+        <v>10.773662292714288</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.22976235264429817</v>
+        <v>0.11235975883765038</v>
       </c>
       <c r="AB4" s="0">
-        <v>0.40361445783132532</v>
-      </c>
-      <c r="AC4" s="0">
-        <v>3</v>
-      </c>
+        <v>0.36990595611285271</v>
+      </c>
+      <c r="AC4" s="0"/>
       <c r="AD4" s="0">
-        <v>95.153124999999989</v>
+        <v>113.734375</v>
       </c>
       <c r="AE4" s="0">
-        <v>1.4254934779872173</v>
+        <v>0.64929628877543166</v>
       </c>
       <c r="AF4" s="0">
-        <v>159.25</v>
+        <v>304.375</v>
       </c>
       <c r="AG4" s="0">
-        <v>44.625</v>
+        <v>116.625</v>
       </c>
       <c r="AH4" s="0">
-        <v>0.53125</v>
-      </c>
-      <c r="AI4" s="0"/>
+        <v>18</v>
+      </c>
+      <c r="AI4" s="0">
+        <v>228.57142857142856</v>
+      </c>
       <c r="AJ4" s="0">
-        <v>0</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="AK4" s="0">
-        <v>2.375</v>
+        <v>0.5625</v>
       </c>
       <c r="AL4" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0">
-        <v>21018</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="D5" s="0">
-        <v>2</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="F5" s="0">
-        <v>342.95400000000001</v>
-      </c>
-      <c r="G5" s="0">
-        <v>200.45099999999999</v>
-      </c>
-      <c r="H5" s="0">
-        <v>11.521000000000001</v>
-      </c>
-      <c r="I5" s="0">
-        <v>40.996000000000002</v>
-      </c>
-      <c r="J5" s="0">
-        <v>113.411</v>
-      </c>
-      <c r="K5" s="0">
-        <v>1.744</v>
-      </c>
-      <c r="L5" s="0">
-        <v>9.6910000000000007</v>
-      </c>
-      <c r="M5" s="0">
-        <v>113.45699999999999</v>
-      </c>
-      <c r="N5" s="0">
-        <v>64.356999999999999</v>
-      </c>
-      <c r="O5" s="0">
-        <v>5</v>
-      </c>
-      <c r="P5" s="0">
-        <v>120.851</v>
-      </c>
-      <c r="Q5" s="0">
-        <v>133.298</v>
-      </c>
-      <c r="R5" s="0">
-        <v>27.148</v>
-      </c>
-      <c r="S5" s="0">
-        <v>4</v>
-      </c>
-      <c r="T5" s="0">
-        <v>3</v>
-      </c>
-      <c r="U5" s="0">
-        <v>1.1147036181678214</v>
-      </c>
-      <c r="V5" s="0">
-        <v>2.328125</v>
-      </c>
-      <c r="W5" s="0">
-        <v>68.427083333333343</v>
-      </c>
-      <c r="X5" s="0">
-        <v>-68.049999999999997</v>
-      </c>
-      <c r="Y5" s="0">
-        <v>115.16829686048196</v>
-      </c>
-      <c r="Z5" s="0">
-        <v>5.6067012450175557</v>
-      </c>
-      <c r="AA5" s="0">
-        <v>0.081936873119452774</v>
-      </c>
-      <c r="AB5" s="0">
-        <v>0.53172205438066467</v>
-      </c>
-      <c r="AC5" s="0">
-        <v>7</v>
-      </c>
-      <c r="AD5" s="0">
-        <v>114.11250000000001</v>
-      </c>
-      <c r="AE5" s="0">
-        <v>1.0509376151631962</v>
-      </c>
-      <c r="AF5" s="0">
-        <v>275.625</v>
-      </c>
-      <c r="AG5" s="0">
-        <v>79.625</v>
-      </c>
-      <c r="AH5" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AI5" s="0"/>
-      <c r="AJ5" s="0">
-        <v>11.666666666666668</v>
-      </c>
-      <c r="AK5" s="0">
-        <v>1.1875</v>
-      </c>
-      <c r="AL5" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0">
-        <v>270319</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="D6" s="0">
-        <v>3</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="F6" s="0">
-        <v>553.14999999999998</v>
-      </c>
-      <c r="G6" s="0">
-        <v>388.49599999999998</v>
-      </c>
-      <c r="H6" s="0">
-        <v>46.121000000000002</v>
-      </c>
-      <c r="I6" s="0">
-        <v>43.274000000000001</v>
-      </c>
-      <c r="J6" s="0">
-        <v>115.51900000000001</v>
-      </c>
-      <c r="K6" s="0">
-        <v>1.8959999999999999</v>
-      </c>
-      <c r="L6" s="0">
-        <v>15.782</v>
-      </c>
-      <c r="M6" s="0">
-        <v>95.480999999999995</v>
-      </c>
-      <c r="N6" s="0">
-        <v>61.338000000000001</v>
-      </c>
-      <c r="O6" s="0">
-        <v>5</v>
-      </c>
-      <c r="P6" s="0">
-        <v>185.809</v>
-      </c>
-      <c r="Q6" s="0">
-        <v>165.83199999999999</v>
-      </c>
-      <c r="R6" s="0">
-        <v>26.248999999999999</v>
-      </c>
-      <c r="S6" s="0">
-        <v>2</v>
-      </c>
-      <c r="T6" s="0">
-        <v>0</v>
-      </c>
-      <c r="U6" s="0">
-        <v>1.0929203539823009</v>
-      </c>
-      <c r="V6" s="0">
-        <v>2.625</v>
-      </c>
-      <c r="W6" s="0">
-        <v>95.885416666666657</v>
-      </c>
-      <c r="X6" s="0">
-        <v>-67.640625</v>
-      </c>
-      <c r="Y6" s="0">
-        <v>102.89439262185155</v>
-      </c>
-      <c r="Z6" s="0">
-        <v>10.773662292714288</v>
-      </c>
-      <c r="AA6" s="0">
-        <v>0.11235975883765038</v>
-      </c>
-      <c r="AB6" s="0">
-        <v>0.36990595611285271</v>
-      </c>
-      <c r="AC6" s="0"/>
-      <c r="AD6" s="0">
-        <v>113.734375</v>
-      </c>
-      <c r="AE6" s="0">
-        <v>0.64929628877543166</v>
-      </c>
-      <c r="AF6" s="0">
-        <v>304.375</v>
-      </c>
-      <c r="AG6" s="0">
-        <v>116.625</v>
-      </c>
-      <c r="AH6" s="0">
-        <v>18</v>
-      </c>
-      <c r="AI6" s="0">
-        <v>228.57142857142856</v>
-      </c>
-      <c r="AJ6" s="0">
-        <v>28.333333333333336</v>
-      </c>
-      <c r="AK6" s="0">
-        <v>0.5625</v>
-      </c>
-      <c r="AL6" s="0">
         <v>0</v>
       </c>
     </row>
@@ -7383,135 +6342,135 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>777</v>
+        <v>1070</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>779</v>
+        <v>1072</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>780</v>
+        <v>1073</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>782</v>
+        <v>1075</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>783</v>
+        <v>1076</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>789</v>
+        <v>1082</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>790</v>
+        <v>1083</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>791</v>
+        <v>1084</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>792</v>
+        <v>1085</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>793</v>
+        <v>1086</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>794</v>
+        <v>1087</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>795</v>
+        <v>1088</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>796</v>
+        <v>1089</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>797</v>
+        <v>1090</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>798</v>
+        <v>1091</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>799</v>
+        <v>1092</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>800</v>
+        <v>1093</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>801</v>
+        <v>1094</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>802</v>
+        <v>1095</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>803</v>
+        <v>1096</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>804</v>
+        <v>1097</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>805</v>
+        <v>1098</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>806</v>
+        <v>1099</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>807</v>
+        <v>1100</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>808</v>
+        <v>1101</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>809</v>
+        <v>1102</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>810</v>
+        <v>1103</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>811</v>
+        <v>1104</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>812</v>
+        <v>1105</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>813</v>
+        <v>1106</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>814</v>
+        <v>1107</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>815</v>
+        <v>1108</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>816</v>
+        <v>1109</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>817</v>
+        <v>1110</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>818</v>
+        <v>1111</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>819</v>
+        <v>1112</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>820</v>
+        <v>1113</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>821</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>778</v>
+        <v>1071</v>
       </c>
       <c r="B2" s="0">
         <v>30518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>781</v>
+        <v>1074</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>784</v>
+        <v>1077</v>
       </c>
       <c r="F2" s="0">
         <v>590.19000000000005</v>
@@ -7615,19 +6574,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>778</v>
+        <v>1071</v>
       </c>
       <c r="B3" s="0">
         <v>41220</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>781</v>
+        <v>1074</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>785</v>
+        <v>1078</v>
       </c>
       <c r="F3" s="0">
         <v>527.303</v>
@@ -7713,7 +6672,9 @@
       <c r="AG3" s="0">
         <v>91.125</v>
       </c>
-      <c r="AH3" s="0"/>
+      <c r="AH3" s="0">
+        <v>0</v>
+      </c>
       <c r="AI3" s="0">
         <v>222.2222222222222</v>
       </c>
@@ -7729,19 +6690,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>778</v>
+        <v>1071</v>
       </c>
       <c r="B4" s="0">
         <v>190121</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>781</v>
+        <v>1074</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>786</v>
+        <v>1079</v>
       </c>
       <c r="F4" s="0">
         <v>531.99300000000005</v>
@@ -7830,7 +6791,9 @@
       <c r="AH4" s="0">
         <v>4.90625</v>
       </c>
-      <c r="AI4" s="0"/>
+      <c r="AI4" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ4" s="0">
         <v>0</v>
       </c>
@@ -7843,19 +6806,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>778</v>
+        <v>1071</v>
       </c>
       <c r="B5" s="0">
         <v>190121</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>781</v>
+        <v>1074</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>787</v>
+        <v>1080</v>
       </c>
       <c r="F5" s="0">
         <v>406.07999999999998</v>
@@ -7941,7 +6904,9 @@
       <c r="AG5" s="0">
         <v>110.5</v>
       </c>
-      <c r="AH5" s="0"/>
+      <c r="AH5" s="0">
+        <v>0</v>
+      </c>
       <c r="AI5" s="0">
         <v>280.70175438596493</v>
       </c>
@@ -7957,19 +6922,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>778</v>
+        <v>1071</v>
       </c>
       <c r="B6" s="0">
         <v>190121</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>781</v>
+        <v>1074</v>
       </c>
       <c r="D6" s="0">
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>788</v>
+        <v>1081</v>
       </c>
       <c r="F6" s="0">
         <v>363.67099999999999</v>
@@ -8058,7 +7023,9 @@
       <c r="AH6" s="0">
         <v>0.4375</v>
       </c>
-      <c r="AI6" s="0"/>
+      <c r="AI6" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ6" s="0">
         <v>0</v>
       </c>
@@ -8075,7 +7042,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AL6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
@@ -8120,135 +7087,135 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>822</v>
+        <v>1115</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>826</v>
+        <v>1119</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>827</v>
+        <v>1120</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>829</v>
+        <v>1122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>830</v>
+        <v>1123</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>835</v>
+        <v>1129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>836</v>
+        <v>1130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>837</v>
+        <v>1131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>838</v>
+        <v>1132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>839</v>
+        <v>1133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>840</v>
+        <v>1134</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>841</v>
+        <v>1135</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>842</v>
+        <v>1136</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>843</v>
+        <v>1137</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>844</v>
+        <v>1138</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>845</v>
+        <v>1139</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>846</v>
+        <v>1140</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>847</v>
+        <v>1141</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>848</v>
+        <v>1142</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>849</v>
+        <v>1143</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>850</v>
+        <v>1144</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>851</v>
+        <v>1145</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>852</v>
+        <v>1146</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>853</v>
+        <v>1147</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>854</v>
+        <v>1148</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>855</v>
+        <v>1149</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>856</v>
+        <v>1150</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>857</v>
+        <v>1151</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>858</v>
+        <v>1152</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>859</v>
+        <v>1153</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>860</v>
+        <v>1154</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>861</v>
+        <v>1155</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>862</v>
+        <v>1156</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>863</v>
+        <v>1157</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>864</v>
+        <v>1158</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>865</v>
+        <v>1159</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>866</v>
+        <v>1160</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>867</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>823</v>
+        <v>1116</v>
       </c>
       <c r="B2" s="0">
         <v>220519</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>828</v>
+        <v>1121</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>831</v>
+        <v>1124</v>
       </c>
       <c r="F2" s="0">
         <v>507.31400000000002</v>
@@ -8352,19 +7319,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>823</v>
+        <v>1116</v>
       </c>
       <c r="B3" s="0">
         <v>290519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>828</v>
+        <v>1121</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>832</v>
+        <v>1125</v>
       </c>
       <c r="F3" s="0">
         <v>404.71699999999998</v>
@@ -8453,7 +7420,9 @@
       <c r="AH3" s="0">
         <v>4.40625</v>
       </c>
-      <c r="AI3" s="0"/>
+      <c r="AI3" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ3" s="0">
         <v>0</v>
       </c>
@@ -8466,19 +7435,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>824</v>
+        <v>1117</v>
       </c>
       <c r="B4" s="0">
         <v>290519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>828</v>
+        <v>1121</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>833</v>
+        <v>1126</v>
       </c>
       <c r="F4" s="0">
         <v>585.452</v>
@@ -8564,7 +7533,9 @@
       <c r="AG4" s="0">
         <v>95.375</v>
       </c>
-      <c r="AH4" s="0"/>
+      <c r="AH4" s="0">
+        <v>0</v>
+      </c>
       <c r="AI4" s="0">
         <v>226.41509433962267</v>
       </c>
@@ -8580,111 +7551,115 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>825</v>
+        <v>1118</v>
       </c>
       <c r="B5" s="0">
-        <v>270520</v>
+        <v>300519</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>828</v>
+        <v>1121</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>834</v>
+        <v>1127</v>
       </c>
       <c r="F5" s="0">
-        <v>393.995</v>
+        <v>593.97900000000004</v>
       </c>
       <c r="G5" s="0">
-        <v>202.55600000000001</v>
+        <v>437.91899999999998</v>
       </c>
       <c r="H5" s="0">
-        <v>11.835000000000001</v>
+        <v>25.027999999999999</v>
       </c>
       <c r="I5" s="0">
-        <v>61.149000000000001</v>
+        <v>45.125999999999998</v>
       </c>
       <c r="J5" s="0">
-        <v>228.44999999999999</v>
+        <v>118.73999999999999</v>
       </c>
       <c r="K5" s="0">
-        <v>2.5710000000000002</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="L5" s="0">
-        <v>12.175000000000001</v>
+        <v>8.6419999999999995</v>
       </c>
       <c r="M5" s="0">
-        <v>120.68600000000001</v>
+        <v>106.04000000000001</v>
       </c>
       <c r="N5" s="0">
-        <v>85.019000000000005</v>
+        <v>50.476999999999997</v>
       </c>
       <c r="O5" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P5" s="0">
-        <v>165.958</v>
+        <v>162.13399999999999</v>
       </c>
       <c r="Q5" s="0">
-        <v>155.822</v>
+        <v>68.161000000000001</v>
       </c>
       <c r="R5" s="0">
-        <v>37.122999999999998</v>
+        <v>12</v>
       </c>
       <c r="S5" s="0">
         <v>3</v>
       </c>
       <c r="T5" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U5" s="0">
-        <v>1.0667126754083276</v>
+        <v>1.0645098230866974</v>
       </c>
       <c r="V5" s="0">
-        <v>1.8125</v>
+        <v>2.0625</v>
       </c>
       <c r="W5" s="0">
-        <v>90.5625</v>
+        <v>106.57291666666664</v>
       </c>
       <c r="X5" s="0">
-        <v>-64.612499999999997</v>
+        <v>-73.278125000000003</v>
       </c>
       <c r="Y5" s="0">
-        <v>37.051979539591187</v>
+        <v>107.69911634216403</v>
       </c>
       <c r="Z5" s="0">
-        <v>15.202855782921098</v>
+        <v>10.181405083293999</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.16787142341389757</v>
+        <v>0.095534638646879499</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.57964184731385493</v>
+        <v>0.23994252873563218</v>
       </c>
       <c r="AC5" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD5" s="0">
-        <v>109.39375000000001</v>
+        <v>120.37187499999999</v>
       </c>
       <c r="AE5" s="0">
-        <v>1.0357212974818566</v>
+        <v>0.74697572683325397</v>
       </c>
       <c r="AF5" s="0">
-        <v>241.5</v>
+        <v>303.625</v>
       </c>
       <c r="AG5" s="0">
-        <v>79.375</v>
-      </c>
-      <c r="AH5" s="0"/>
-      <c r="AI5" s="0"/>
+        <v>104.75</v>
+      </c>
+      <c r="AH5" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="0">
+        <v>340.42553191489372</v>
+      </c>
       <c r="AJ5" s="0">
         <v>0</v>
       </c>
       <c r="AK5" s="0">
-        <v>1.8438000000000001</v>
+        <v>2.4062000000000001</v>
       </c>
       <c r="AL5" s="0">
         <v>0</v>
@@ -8692,199 +7667,117 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>195</v>
+        <v>1118</v>
       </c>
       <c r="B6" s="0">
-        <v>300519</v>
+        <v>270520</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>198</v>
+        <v>1121</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>205</v>
+        <v>1128</v>
       </c>
       <c r="F6" s="0">
-        <v>593.97900000000004</v>
+        <v>393.995</v>
       </c>
       <c r="G6" s="0">
-        <v>437.91899999999998</v>
+        <v>202.55600000000001</v>
       </c>
       <c r="H6" s="0">
-        <v>25.027999999999999</v>
+        <v>11.835000000000001</v>
       </c>
       <c r="I6" s="0">
-        <v>45.125999999999998</v>
+        <v>61.149000000000001</v>
       </c>
       <c r="J6" s="0">
-        <v>118.73999999999999</v>
+        <v>228.44999999999999</v>
       </c>
       <c r="K6" s="0">
-        <v>2.7650000000000001</v>
+        <v>2.5710000000000002</v>
       </c>
       <c r="L6" s="0">
-        <v>8.6419999999999995</v>
+        <v>12.175000000000001</v>
       </c>
       <c r="M6" s="0">
-        <v>106.04000000000001</v>
+        <v>120.68600000000001</v>
       </c>
       <c r="N6" s="0">
-        <v>50.476999999999997</v>
+        <v>85.019000000000005</v>
       </c>
       <c r="O6" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P6" s="0">
-        <v>162.13399999999999</v>
+        <v>165.958</v>
       </c>
       <c r="Q6" s="0">
-        <v>68.161000000000001</v>
+        <v>155.822</v>
       </c>
       <c r="R6" s="0">
-        <v>12</v>
+        <v>37.122999999999998</v>
       </c>
       <c r="S6" s="0">
         <v>3</v>
       </c>
       <c r="T6" s="0">
+        <v>5</v>
+      </c>
+      <c r="U6" s="0">
+        <v>1.0667126754083276</v>
+      </c>
+      <c r="V6" s="0">
+        <v>1.8125</v>
+      </c>
+      <c r="W6" s="0">
+        <v>90.5625</v>
+      </c>
+      <c r="X6" s="0">
+        <v>-64.612499999999997</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>37.051979539591187</v>
+      </c>
+      <c r="Z6" s="0">
+        <v>15.202855782921098</v>
+      </c>
+      <c r="AA6" s="0">
+        <v>0.16787142341389757</v>
+      </c>
+      <c r="AB6" s="0">
+        <v>0.57964184731385493</v>
+      </c>
+      <c r="AC6" s="0">
         <v>10</v>
       </c>
-      <c r="U6" s="0">
-        <v>1.0645098230866974</v>
-      </c>
-      <c r="V6" s="0">
-        <v>2.0625</v>
-      </c>
-      <c r="W6" s="0">
-        <v>106.57291666666664</v>
-      </c>
-      <c r="X6" s="0">
-        <v>-73.278125000000003</v>
-      </c>
-      <c r="Y6" s="0">
-        <v>107.69911634216403</v>
-      </c>
-      <c r="Z6" s="0">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="0">
-        <v>120.37187499999999</v>
-      </c>
-      <c r="AB6" s="0">
-        <v>0.74697572683325397</v>
-      </c>
-      <c r="AC6" s="0"/>
-      <c r="AD6" s="0" t="s">
-        <v>232</v>
+      <c r="AD6" s="0">
+        <v>109.39375000000001</v>
       </c>
       <c r="AE6" s="0">
-        <v>18.333333333333336</v>
+        <v>1.0357212974818566</v>
       </c>
       <c r="AF6" s="0">
-        <v>2.4062000000000001</v>
+        <v>241.5</v>
       </c>
       <c r="AG6" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="0">
-        <v>270520</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="0">
-        <v>2</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="0">
-        <v>393.995</v>
-      </c>
-      <c r="G7" s="0">
-        <v>202.55600000000001</v>
-      </c>
-      <c r="H7" s="0">
-        <v>11.835000000000001</v>
-      </c>
-      <c r="I7" s="0">
-        <v>61.149000000000001</v>
-      </c>
-      <c r="J7" s="0">
-        <v>228.44999999999999</v>
-      </c>
-      <c r="K7" s="0">
-        <v>2.5710000000000002</v>
-      </c>
-      <c r="L7" s="0">
-        <v>12.175000000000001</v>
-      </c>
-      <c r="M7" s="0">
-        <v>120.68600000000001</v>
-      </c>
-      <c r="N7" s="0">
-        <v>85.019000000000005</v>
-      </c>
-      <c r="O7" s="0">
-        <v>7</v>
-      </c>
-      <c r="P7" s="0">
-        <v>165.958</v>
-      </c>
-      <c r="Q7" s="0">
-        <v>155.822</v>
-      </c>
-      <c r="R7" s="0">
-        <v>37.122999999999998</v>
-      </c>
-      <c r="S7" s="0">
-        <v>3</v>
-      </c>
-      <c r="T7" s="0">
-        <v>5</v>
-      </c>
-      <c r="U7" s="0">
-        <v>1.0667126754083276</v>
-      </c>
-      <c r="V7" s="0">
-        <v>1.8125</v>
-      </c>
-      <c r="W7" s="0">
-        <v>90.5625</v>
-      </c>
-      <c r="X7" s="0">
-        <v>-64.612499999999997</v>
-      </c>
-      <c r="Y7" s="0">
-        <v>37.051979539591187</v>
-      </c>
-      <c r="Z7" s="0">
-        <v>10</v>
-      </c>
-      <c r="AA7" s="0">
-        <v>109.39375000000001</v>
-      </c>
-      <c r="AB7" s="0">
-        <v>1.0357212974818566</v>
-      </c>
-      <c r="AC7" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0">
-        <v>16.666666666666668</v>
-      </c>
-      <c r="AF7" s="0">
+        <v>79.375</v>
+      </c>
+      <c r="AH6" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="0">
         <v>1.8438000000000001</v>
       </c>
-      <c r="AG7" s="0">
+      <c r="AL6" s="0">
         <v>0</v>
       </c>
     </row>
@@ -8894,7 +7787,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL13"/>
+  <dimension ref="A1:AL10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
@@ -8939,135 +7832,135 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>868</v>
+        <v>1162</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>877</v>
+        <v>1165</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>878</v>
+        <v>1166</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>880</v>
+        <v>1168</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>881</v>
+        <v>1169</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>894</v>
+        <v>1179</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>895</v>
+        <v>1180</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>896</v>
+        <v>1181</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>897</v>
+        <v>1182</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>898</v>
+        <v>1183</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>899</v>
+        <v>1184</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>900</v>
+        <v>1185</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>901</v>
+        <v>1186</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>902</v>
+        <v>1187</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>903</v>
+        <v>1188</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>904</v>
+        <v>1189</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>905</v>
+        <v>1190</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>906</v>
+        <v>1191</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>907</v>
+        <v>1192</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>908</v>
+        <v>1193</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>909</v>
+        <v>1194</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>910</v>
+        <v>1195</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>911</v>
+        <v>1196</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>912</v>
+        <v>1197</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>913</v>
+        <v>1198</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>914</v>
+        <v>1199</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>915</v>
+        <v>1200</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>916</v>
+        <v>1201</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>917</v>
+        <v>1202</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>918</v>
+        <v>1203</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>919</v>
+        <v>1204</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>920</v>
+        <v>1205</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>921</v>
+        <v>1206</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>922</v>
+        <v>1207</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>923</v>
+        <v>1208</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>924</v>
+        <v>1209</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>925</v>
+        <v>1210</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>926</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>869</v>
+        <v>1163</v>
       </c>
       <c r="B2" s="0">
         <v>31218</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>879</v>
+        <v>1167</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>882</v>
+        <v>1170</v>
       </c>
       <c r="F2" s="0">
         <v>360.89699999999999</v>
@@ -9153,8 +8046,12 @@
       <c r="AG2" s="0">
         <v>93.625</v>
       </c>
-      <c r="AH2" s="0"/>
-      <c r="AI2" s="0"/>
+      <c r="AH2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ2" s="0">
         <v>0</v>
       </c>
@@ -9167,19 +8064,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>869</v>
+        <v>1163</v>
       </c>
       <c r="B3" s="0">
         <v>171218</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>879</v>
+        <v>1167</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>883</v>
+        <v>1171</v>
       </c>
       <c r="F3" s="0">
         <v>457.68700000000001</v>
@@ -9268,7 +8165,9 @@
       <c r="AH3" s="0">
         <v>5.0625</v>
       </c>
-      <c r="AI3" s="0"/>
+      <c r="AI3" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ3" s="0">
         <v>0</v>
       </c>
@@ -9281,113 +8180,115 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>870</v>
+        <v>1163</v>
       </c>
       <c r="B4" s="0">
         <v>171218</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>879</v>
+        <v>1167</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>884</v>
+        <v>1172</v>
       </c>
       <c r="F4" s="0">
-        <v>426.435</v>
+        <v>428.84899999999999</v>
       </c>
       <c r="G4" s="0">
-        <v>330.71899999999999</v>
+        <v>286.29000000000002</v>
       </c>
       <c r="H4" s="0">
-        <v>9.9169999999999998</v>
+        <v>4.1079999999999997</v>
       </c>
       <c r="I4" s="0">
-        <v>48.747999999999998</v>
+        <v>49.32</v>
       </c>
       <c r="J4" s="0">
-        <v>158.364</v>
+        <v>160.96000000000001</v>
       </c>
       <c r="K4" s="0">
-        <v>2.948</v>
+        <v>3.3650000000000002</v>
       </c>
       <c r="L4" s="0">
-        <v>13.593999999999999</v>
+        <v>11.268000000000001</v>
       </c>
       <c r="M4" s="0">
-        <v>94.265000000000001</v>
+        <v>59.247999999999998</v>
       </c>
       <c r="N4" s="0">
-        <v>91.216999999999999</v>
+        <v>49.561</v>
       </c>
       <c r="O4" s="0">
+        <v>3</v>
+      </c>
+      <c r="P4" s="0">
+        <v>170.68799999999999</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>105.706</v>
+      </c>
+      <c r="R4" s="0">
+        <v>48.366</v>
+      </c>
+      <c r="S4" s="0">
         <v>5</v>
       </c>
-      <c r="P4" s="0">
-        <v>110.98</v>
-      </c>
-      <c r="Q4" s="0">
-        <v>130.523</v>
-      </c>
-      <c r="R4" s="0">
-        <v>22.029</v>
-      </c>
-      <c r="S4" s="0">
-        <v>2</v>
-      </c>
       <c r="T4" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U4" s="0">
-        <v>1.1767554479418887</v>
+        <v>1.0535405872193437</v>
       </c>
       <c r="V4" s="0">
-        <v>2.28125</v>
+        <v>0.96875</v>
       </c>
       <c r="W4" s="0">
-        <v>43.020833333333329</v>
+        <v>60.312499999999986</v>
       </c>
       <c r="X4" s="0">
-        <v>-61</v>
+        <v>-70.53125</v>
       </c>
       <c r="Y4" s="0">
-        <v>215.05975621741132</v>
+        <v>210.35450769286749</v>
       </c>
       <c r="Z4" s="0">
-        <v>7.1491951805600724</v>
+        <v>8.2013499802586711</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.16617983954812762</v>
+        <v>0.13598093231516972</v>
       </c>
       <c r="AB4" s="0">
-        <v>0.56086142322097376</v>
+        <v>0.39897698209718668</v>
       </c>
       <c r="AC4" s="0">
         <v>8</v>
       </c>
       <c r="AD4" s="0">
-        <v>98.03125</v>
+        <v>111.5</v>
       </c>
       <c r="AE4" s="0">
-        <v>0.99330412657113965</v>
+        <v>0.92646101967645222</v>
       </c>
       <c r="AF4" s="0">
-        <v>212.375</v>
+        <v>259.625</v>
       </c>
       <c r="AG4" s="0">
-        <v>86.875</v>
+        <v>91.625</v>
       </c>
       <c r="AH4" s="0">
-        <v>3.15625</v>
-      </c>
-      <c r="AI4" s="0"/>
+        <v>3.78125</v>
+      </c>
+      <c r="AI4" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ4" s="0">
         <v>0</v>
       </c>
       <c r="AK4" s="0">
-        <v>2</v>
+        <v>0.875</v>
       </c>
       <c r="AL4" s="0">
         <v>0</v>
@@ -9395,113 +8296,115 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>871</v>
+        <v>1163</v>
       </c>
       <c r="B5" s="0">
         <v>171218</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>879</v>
+        <v>1167</v>
       </c>
       <c r="D5" s="0">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F5" s="0">
+        <v>378.36900000000003</v>
+      </c>
+      <c r="G5" s="0">
+        <v>147.30500000000001</v>
+      </c>
+      <c r="H5" s="0">
+        <v>3.556</v>
+      </c>
+      <c r="I5" s="0">
+        <v>50.728999999999999</v>
+      </c>
+      <c r="J5" s="0">
+        <v>154.46899999999999</v>
+      </c>
+      <c r="K5" s="0">
+        <v>3.2480000000000002</v>
+      </c>
+      <c r="L5" s="0">
+        <v>12.624000000000001</v>
+      </c>
+      <c r="M5" s="0">
+        <v>114.806</v>
+      </c>
+      <c r="N5" s="0">
+        <v>71.200999999999993</v>
+      </c>
+      <c r="O5" s="0">
+        <v>4</v>
+      </c>
+      <c r="P5" s="0">
+        <v>110.959</v>
+      </c>
+      <c r="Q5" s="0">
+        <v>140.51900000000001</v>
+      </c>
+      <c r="R5" s="0">
+        <v>38.991</v>
+      </c>
+      <c r="S5" s="0">
         <v>2</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>885</v>
-      </c>
-      <c r="F5" s="0">
-        <v>428.84899999999999</v>
-      </c>
-      <c r="G5" s="0">
-        <v>286.29000000000002</v>
-      </c>
-      <c r="H5" s="0">
-        <v>4.1079999999999997</v>
-      </c>
-      <c r="I5" s="0">
-        <v>49.32</v>
-      </c>
-      <c r="J5" s="0">
-        <v>160.96000000000001</v>
-      </c>
-      <c r="K5" s="0">
-        <v>3.3650000000000002</v>
-      </c>
-      <c r="L5" s="0">
-        <v>11.268000000000001</v>
-      </c>
-      <c r="M5" s="0">
-        <v>59.247999999999998</v>
-      </c>
-      <c r="N5" s="0">
-        <v>49.561</v>
-      </c>
-      <c r="O5" s="0">
-        <v>3</v>
-      </c>
-      <c r="P5" s="0">
-        <v>170.68799999999999</v>
-      </c>
-      <c r="Q5" s="0">
-        <v>105.706</v>
-      </c>
-      <c r="R5" s="0">
-        <v>48.366</v>
-      </c>
-      <c r="S5" s="0">
-        <v>5</v>
-      </c>
       <c r="T5" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5" s="0">
-        <v>1.0535405872193437</v>
+        <v>1.0730491577861809</v>
       </c>
       <c r="V5" s="0">
-        <v>0.96875</v>
+        <v>2.65625</v>
       </c>
       <c r="W5" s="0">
-        <v>60.312499999999986</v>
+        <v>121.20833333333331</v>
       </c>
       <c r="X5" s="0">
-        <v>-70.53125</v>
+        <v>-63.418750000000003</v>
       </c>
       <c r="Y5" s="0">
-        <v>210.35450769286749</v>
+        <v>20.712718261614199</v>
       </c>
       <c r="Z5" s="0">
-        <v>8.2013499802586711</v>
+        <v>20.359104055409716</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.13598093231516972</v>
+        <v>0.16796785745267559</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.39897698209718668</v>
+        <v>0.54623450905624404</v>
       </c>
       <c r="AC5" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD5" s="0">
-        <v>111.5</v>
+        <v>120.29374999999999</v>
       </c>
       <c r="AE5" s="0">
-        <v>0.92646101967645222</v>
+        <v>0.91147240990991207</v>
       </c>
       <c r="AF5" s="0">
-        <v>259.625</v>
+        <v>300.5</v>
       </c>
       <c r="AG5" s="0">
-        <v>91.625</v>
+        <v>89.875</v>
       </c>
       <c r="AH5" s="0">
-        <v>3.78125</v>
-      </c>
-      <c r="AI5" s="0"/>
+        <v>3.71875</v>
+      </c>
+      <c r="AI5" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ5" s="0">
         <v>0</v>
       </c>
       <c r="AK5" s="0">
-        <v>0.875</v>
+        <v>1.4375</v>
       </c>
       <c r="AL5" s="0">
         <v>0</v>
@@ -9509,113 +8412,115 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>871</v>
+        <v>1163</v>
       </c>
       <c r="B6" s="0">
-        <v>171218</v>
+        <v>70219</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>879</v>
+        <v>1167</v>
       </c>
       <c r="D6" s="0">
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>886</v>
+        <v>1174</v>
       </c>
       <c r="F6" s="0">
-        <v>378.36900000000003</v>
+        <v>546.37099999999998</v>
       </c>
       <c r="G6" s="0">
-        <v>147.30500000000001</v>
+        <v>462.14100000000002</v>
       </c>
       <c r="H6" s="0">
-        <v>3.556</v>
+        <v>19.387</v>
       </c>
       <c r="I6" s="0">
-        <v>50.728999999999999</v>
+        <v>48.978000000000002</v>
       </c>
       <c r="J6" s="0">
-        <v>154.46899999999999</v>
+        <v>115.244</v>
       </c>
       <c r="K6" s="0">
-        <v>3.2480000000000002</v>
+        <v>2.2040000000000002</v>
       </c>
       <c r="L6" s="0">
-        <v>12.624000000000001</v>
+        <v>8.3689999999999998</v>
       </c>
       <c r="M6" s="0">
-        <v>114.806</v>
+        <v>106.113</v>
       </c>
       <c r="N6" s="0">
-        <v>71.200999999999993</v>
+        <v>69.138999999999996</v>
       </c>
       <c r="O6" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6" s="0">
-        <v>110.959</v>
+        <v>62.262</v>
       </c>
       <c r="Q6" s="0">
-        <v>140.51900000000001</v>
+        <v>72.912000000000006</v>
       </c>
       <c r="R6" s="0">
-        <v>38.991</v>
+        <v>50.451000000000001</v>
       </c>
       <c r="S6" s="0">
         <v>2</v>
       </c>
       <c r="T6" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U6" s="0">
-        <v>1.0730491577861809</v>
+        <v>1.0758435661954391</v>
       </c>
       <c r="V6" s="0">
-        <v>2.65625</v>
+        <v>4.59375</v>
       </c>
       <c r="W6" s="0">
-        <v>121.20833333333331</v>
+        <v>201.89583333333329</v>
       </c>
       <c r="X6" s="0">
-        <v>-63.418750000000003</v>
+        <v>-76.837500000000006</v>
       </c>
       <c r="Y6" s="0">
-        <v>20.712718261614199</v>
+        <v>8.8704838206953216</v>
       </c>
       <c r="Z6" s="0">
-        <v>20.359104055409716</v>
+        <v>7.0109569313361844</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.16796785745267559</v>
+        <v>0.034725614766704875</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.54623450905624404</v>
+        <v>0.53417015341701524</v>
       </c>
       <c r="AC6" s="0">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="AD6" s="0">
-        <v>120.29374999999999</v>
+        <v>131.43125000000001</v>
       </c>
       <c r="AE6" s="0">
-        <v>0.91147240990991207</v>
+        <v>0.7701839701759674</v>
       </c>
       <c r="AF6" s="0">
-        <v>300.5</v>
+        <v>378.5</v>
       </c>
       <c r="AG6" s="0">
-        <v>89.875</v>
+        <v>118</v>
       </c>
       <c r="AH6" s="0">
-        <v>3.71875</v>
-      </c>
-      <c r="AI6" s="0"/>
+        <v>5.03125</v>
+      </c>
+      <c r="AI6" s="0">
+        <v>108.84353741496597</v>
+      </c>
       <c r="AJ6" s="0">
         <v>0</v>
       </c>
       <c r="AK6" s="0">
-        <v>1.4375</v>
+        <v>1.385</v>
       </c>
       <c r="AL6" s="0">
         <v>0</v>
@@ -9623,111 +8528,115 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>872</v>
+        <v>1163</v>
       </c>
       <c r="B7" s="0">
-        <v>171218</v>
+        <v>80219</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>879</v>
+        <v>1167</v>
       </c>
       <c r="D7" s="0">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F7" s="0">
+        <v>500.19600000000003</v>
+      </c>
+      <c r="G7" s="0">
+        <v>384.01299999999998</v>
+      </c>
+      <c r="H7" s="0">
+        <v>9.3279999999999994</v>
+      </c>
+      <c r="I7" s="0">
+        <v>54.976999999999997</v>
+      </c>
+      <c r="J7" s="0">
+        <v>167.44999999999999</v>
+      </c>
+      <c r="K7" s="0">
+        <v>2.556</v>
+      </c>
+      <c r="L7" s="0">
+        <v>13.678000000000001</v>
+      </c>
+      <c r="M7" s="0">
+        <v>90.186999999999998</v>
+      </c>
+      <c r="N7" s="0">
+        <v>96.903000000000006</v>
+      </c>
+      <c r="O7" s="0">
         <v>3</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>887</v>
-      </c>
-      <c r="F7" s="0">
-        <v>416.42399999999998</v>
-      </c>
-      <c r="G7" s="0">
-        <v>172.61199999999999</v>
-      </c>
-      <c r="H7" s="0">
-        <v>12.199999999999999</v>
-      </c>
-      <c r="I7" s="0">
-        <v>57.106999999999999</v>
-      </c>
-      <c r="J7" s="0">
-        <v>142.78700000000001</v>
-      </c>
-      <c r="K7" s="0">
-        <v>3.2879999999999998</v>
-      </c>
-      <c r="L7" s="0">
-        <v>10.451000000000001</v>
-      </c>
-      <c r="M7" s="0">
-        <v>131.96299999999999</v>
-      </c>
-      <c r="N7" s="0">
-        <v>79.548000000000002</v>
-      </c>
-      <c r="O7" s="0">
-        <v>4</v>
-      </c>
       <c r="P7" s="0">
-        <v>272.09800000000001</v>
+        <v>98.787999999999997</v>
       </c>
       <c r="Q7" s="0">
-        <v>217.50800000000001</v>
+        <v>158.05199999999999</v>
       </c>
       <c r="R7" s="0">
-        <v>37.875</v>
+        <v>33.465000000000003</v>
       </c>
       <c r="S7" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T7" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U7" s="0">
-        <v>1.1185081910073196</v>
+        <v>1.06698297516048</v>
       </c>
       <c r="V7" s="0">
-        <v>2.125</v>
+        <v>1.5</v>
       </c>
       <c r="W7" s="0">
-        <v>59.770833333333343</v>
+        <v>74.645833333333314</v>
       </c>
       <c r="X7" s="0">
-        <v>-64.474999999999994</v>
+        <v>-66.106250000000003</v>
       </c>
       <c r="Y7" s="0">
-        <v>214.16801880146352</v>
+        <v>48.539738553902211</v>
       </c>
       <c r="Z7" s="0">
-        <v>7.6366382766488696</v>
+        <v>17.555817694478979</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.12776529706488174</v>
+        <v>0.23518818011024034</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.50436046511627908</v>
+        <v>0.39010989010989011</v>
       </c>
       <c r="AC7" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD7" s="0">
-        <v>110.53749999999999</v>
+        <v>109.16874999999999</v>
       </c>
       <c r="AE7" s="0">
-        <v>0.8599593971863726</v>
+        <v>1.0050217425995385</v>
       </c>
       <c r="AF7" s="0">
-        <v>250.125</v>
+        <v>280</v>
       </c>
       <c r="AG7" s="0">
-        <v>104.25</v>
-      </c>
-      <c r="AH7" s="0"/>
-      <c r="AI7" s="0"/>
+        <v>79.875</v>
+      </c>
+      <c r="AH7" s="0">
+        <v>9</v>
+      </c>
+      <c r="AI7" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ7" s="0">
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -9735,115 +8644,115 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>873</v>
+        <v>1163</v>
       </c>
       <c r="B8" s="0">
-        <v>70219</v>
+        <v>80219</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>879</v>
+        <v>1167</v>
       </c>
       <c r="D8" s="0">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F8" s="0">
+        <v>459.149</v>
+      </c>
+      <c r="G8" s="0">
+        <v>319.01100000000002</v>
+      </c>
+      <c r="H8" s="0">
+        <v>5.7110000000000003</v>
+      </c>
+      <c r="I8" s="0">
+        <v>46.642000000000003</v>
+      </c>
+      <c r="J8" s="0">
+        <v>129.80600000000001</v>
+      </c>
+      <c r="K8" s="0">
+        <v>2.8839999999999999</v>
+      </c>
+      <c r="L8" s="0">
+        <v>11.773</v>
+      </c>
+      <c r="M8" s="0">
+        <v>30.911000000000001</v>
+      </c>
+      <c r="N8" s="0">
+        <v>87.762</v>
+      </c>
+      <c r="O8" s="0">
+        <v>4</v>
+      </c>
+      <c r="P8" s="0">
+        <v>88.875</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>113.938</v>
+      </c>
+      <c r="R8" s="0">
+        <v>33.110999999999997</v>
+      </c>
+      <c r="S8" s="0">
         <v>3</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>888</v>
-      </c>
-      <c r="F8" s="0">
-        <v>546.37099999999998</v>
-      </c>
-      <c r="G8" s="0">
-        <v>462.14100000000002</v>
-      </c>
-      <c r="H8" s="0">
-        <v>19.387</v>
-      </c>
-      <c r="I8" s="0">
-        <v>48.978000000000002</v>
-      </c>
-      <c r="J8" s="0">
-        <v>115.244</v>
-      </c>
-      <c r="K8" s="0">
-        <v>2.2040000000000002</v>
-      </c>
-      <c r="L8" s="0">
-        <v>8.3689999999999998</v>
-      </c>
-      <c r="M8" s="0">
-        <v>106.113</v>
-      </c>
-      <c r="N8" s="0">
-        <v>69.138999999999996</v>
-      </c>
-      <c r="O8" s="0">
-        <v>3</v>
-      </c>
-      <c r="P8" s="0">
-        <v>62.262</v>
-      </c>
-      <c r="Q8" s="0">
-        <v>72.912000000000006</v>
-      </c>
-      <c r="R8" s="0">
-        <v>50.451000000000001</v>
-      </c>
-      <c r="S8" s="0">
+      <c r="T8" s="0">
         <v>2</v>
       </c>
-      <c r="T8" s="0">
-        <v>0</v>
-      </c>
       <c r="U8" s="0">
-        <v>1.0758435661954391</v>
+        <v>1.0354492079317603</v>
       </c>
       <c r="V8" s="0">
-        <v>4.59375</v>
+        <v>1</v>
       </c>
       <c r="W8" s="0">
-        <v>201.89583333333329</v>
+        <v>94.031249999999972</v>
       </c>
       <c r="X8" s="0">
-        <v>-76.837500000000006</v>
+        <v>-68.759375000000006</v>
       </c>
       <c r="Y8" s="0">
-        <v>8.8704838206953216</v>
+        <v>36.098167828937278</v>
       </c>
       <c r="Z8" s="0">
-        <v>7.0109569313361844</v>
+        <v>20.140283114848799</v>
       </c>
       <c r="AA8" s="0">
-        <v>0.034725614766704875</v>
+        <v>0.21418712518283875</v>
       </c>
       <c r="AB8" s="0">
-        <v>0.53417015341701524</v>
+        <v>0.25836909871244634</v>
       </c>
       <c r="AC8" s="0">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="AD8" s="0">
-        <v>131.43125000000001</v>
+        <v>112.57187500000001</v>
       </c>
       <c r="AE8" s="0">
-        <v>0.7701839701759674</v>
+        <v>1.351778179041105</v>
       </c>
       <c r="AF8" s="0">
-        <v>378.5</v>
+        <v>223.5</v>
       </c>
       <c r="AG8" s="0">
-        <v>118</v>
+        <v>57.75</v>
       </c>
       <c r="AH8" s="0">
-        <v>5.03125</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="0">
-        <v>108.84353741496597</v>
+        <v>155.33980582524271</v>
       </c>
       <c r="AJ8" s="0">
         <v>0</v>
       </c>
       <c r="AK8" s="0">
-        <v>1.385</v>
+        <v>0.59375</v>
       </c>
       <c r="AL8" s="0">
         <v>0</v>
@@ -9851,113 +8760,115 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>874</v>
+        <v>1163</v>
       </c>
       <c r="B9" s="0">
         <v>80219</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>879</v>
+        <v>1167</v>
       </c>
       <c r="D9" s="0">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>889</v>
+        <v>1177</v>
       </c>
       <c r="F9" s="0">
-        <v>309.95600000000002</v>
+        <v>411.88499999999999</v>
       </c>
       <c r="G9" s="0">
-        <v>118.5</v>
+        <v>307.721</v>
       </c>
       <c r="H9" s="0">
-        <v>10.305</v>
+        <v>18.236000000000001</v>
       </c>
       <c r="I9" s="0">
-        <v>56.290999999999997</v>
+        <v>51.046999999999997</v>
       </c>
       <c r="J9" s="0">
-        <v>198.60400000000001</v>
+        <v>138.893</v>
       </c>
       <c r="K9" s="0">
-        <v>3.1560000000000001</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="L9" s="0">
-        <v>11.992000000000001</v>
+        <v>14.141999999999999</v>
       </c>
       <c r="M9" s="0">
-        <v>70.968000000000004</v>
+        <v>41.600999999999999</v>
       </c>
       <c r="N9" s="0">
-        <v>86.257999999999996</v>
+        <v>48.994</v>
       </c>
       <c r="O9" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P9" s="0">
-        <v>165.20599999999999</v>
+        <v>95.709999999999994</v>
       </c>
       <c r="Q9" s="0">
-        <v>168.59700000000001</v>
+        <v>108.242</v>
       </c>
       <c r="R9" s="0">
-        <v>39.003</v>
+        <v>31.759</v>
       </c>
       <c r="S9" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T9" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U9" s="0">
-        <v>1.141444342226311</v>
+        <v>1.0807644181549312</v>
       </c>
       <c r="V9" s="0">
-        <v>3.84375</v>
+        <v>2.21875</v>
       </c>
       <c r="W9" s="0">
-        <v>90.583333333333314</v>
+        <v>91.572916666666643</v>
       </c>
       <c r="X9" s="0">
-        <v>-69.543750000000003</v>
+        <v>-72.590625000000003</v>
       </c>
       <c r="Y9" s="0">
-        <v>136.94290141808446</v>
+        <v>26.465938344594107</v>
       </c>
       <c r="Z9" s="0">
-        <v>8.455679384006471</v>
+        <v>22.029048746089853</v>
       </c>
       <c r="AA9" s="0">
-        <v>0.093346966520770625</v>
+        <v>0.24056292567678608</v>
       </c>
       <c r="AB9" s="0">
-        <v>0.51847940865892284</v>
+        <v>0.56544502617800996</v>
       </c>
       <c r="AC9" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AD9" s="0">
-        <v>99.168749999999989</v>
+        <v>121.09062499999999</v>
       </c>
       <c r="AE9" s="0">
-        <v>1.3290264549338175</v>
+        <v>1.2454815229338578</v>
       </c>
       <c r="AF9" s="0">
-        <v>143</v>
+        <v>379.625</v>
       </c>
       <c r="AG9" s="0">
-        <v>62.25</v>
+        <v>132.25</v>
       </c>
       <c r="AH9" s="0">
-        <v>2.78125</v>
-      </c>
-      <c r="AI9" s="0"/>
+        <v>0.53125</v>
+      </c>
+      <c r="AI9" s="0">
+        <v>0</v>
+      </c>
       <c r="AJ9" s="0">
         <v>0</v>
       </c>
       <c r="AK9" s="0">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="AL9" s="0">
         <v>0</v>
@@ -9965,459 +8876,117 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>875</v>
+        <v>1164</v>
       </c>
       <c r="B10" s="0">
-        <v>80219</v>
+        <v>150519</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>879</v>
+        <v>1167</v>
       </c>
       <c r="D10" s="0">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>890</v>
+        <v>1178</v>
       </c>
       <c r="F10" s="0">
-        <v>500.19600000000003</v>
+        <v>543.94600000000003</v>
       </c>
       <c r="G10" s="0">
-        <v>384.01299999999998</v>
+        <v>306.83999999999997</v>
       </c>
       <c r="H10" s="0">
-        <v>9.3279999999999994</v>
+        <v>5.9699999999999998</v>
       </c>
       <c r="I10" s="0">
-        <v>54.976999999999997</v>
+        <v>48.895000000000003</v>
       </c>
       <c r="J10" s="0">
-        <v>167.44999999999999</v>
+        <v>138.44200000000001</v>
       </c>
       <c r="K10" s="0">
-        <v>2.556</v>
+        <v>2.2040000000000002</v>
       </c>
       <c r="L10" s="0">
-        <v>13.678000000000001</v>
+        <v>11.462999999999999</v>
       </c>
       <c r="M10" s="0">
-        <v>90.186999999999998</v>
+        <v>80.778999999999996</v>
       </c>
       <c r="N10" s="0">
-        <v>96.903000000000006</v>
+        <v>72.798000000000002</v>
       </c>
       <c r="O10" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" s="0">
-        <v>98.787999999999997</v>
+        <v>107.97</v>
       </c>
       <c r="Q10" s="0">
-        <v>158.05199999999999</v>
+        <v>128.85599999999999</v>
       </c>
       <c r="R10" s="0">
-        <v>33.465000000000003</v>
+        <v>26.077000000000002</v>
       </c>
       <c r="S10" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T10" s="0">
         <v>3</v>
       </c>
       <c r="U10" s="0">
-        <v>1.06698297516048</v>
+        <v>1.3376224766851612</v>
       </c>
       <c r="V10" s="0">
-        <v>1.5</v>
+        <v>8.9375</v>
       </c>
       <c r="W10" s="0">
-        <v>74.645833333333314</v>
+        <v>88.239583333333314</v>
       </c>
       <c r="X10" s="0">
-        <v>-66.106250000000003</v>
+        <v>-69.903125000000003</v>
       </c>
       <c r="Y10" s="0">
-        <v>48.539738553902211</v>
+        <v>54.985067294450829</v>
       </c>
       <c r="Z10" s="0">
-        <v>17.555817694478979</v>
+        <v>11.557776588541895</v>
       </c>
       <c r="AA10" s="0">
-        <v>0.23518818011024034</v>
+        <v>0.130981767500888</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.39010989010989011</v>
+        <v>0.21225710014947685</v>
       </c>
       <c r="AC10" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AD10" s="0">
-        <v>109.16874999999999</v>
+        <v>121.55937499999999</v>
       </c>
       <c r="AE10" s="0">
-        <v>1.0050217425995385</v>
+        <v>0.88212927615178671</v>
       </c>
       <c r="AF10" s="0">
-        <v>280</v>
+        <v>303.375</v>
       </c>
       <c r="AG10" s="0">
-        <v>79.875</v>
+        <v>83.5</v>
       </c>
       <c r="AH10" s="0">
-        <v>9</v>
-      </c>
-      <c r="AI10" s="0"/>
+        <v>3.28125</v>
+      </c>
+      <c r="AI10" s="0">
+        <v>169.01408450704224</v>
+      </c>
       <c r="AJ10" s="0">
         <v>0</v>
       </c>
       <c r="AK10" s="0">
-        <v>1.875</v>
+        <v>1.5625</v>
       </c>
       <c r="AL10" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>875</v>
-      </c>
-      <c r="B11" s="0">
-        <v>80219</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>879</v>
-      </c>
-      <c r="D11" s="0">
-        <v>2</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>891</v>
-      </c>
-      <c r="F11" s="0">
-        <v>459.149</v>
-      </c>
-      <c r="G11" s="0">
-        <v>319.01100000000002</v>
-      </c>
-      <c r="H11" s="0">
-        <v>5.7110000000000003</v>
-      </c>
-      <c r="I11" s="0">
-        <v>46.642000000000003</v>
-      </c>
-      <c r="J11" s="0">
-        <v>129.80600000000001</v>
-      </c>
-      <c r="K11" s="0">
-        <v>2.8839999999999999</v>
-      </c>
-      <c r="L11" s="0">
-        <v>11.773</v>
-      </c>
-      <c r="M11" s="0">
-        <v>30.911000000000001</v>
-      </c>
-      <c r="N11" s="0">
-        <v>87.762</v>
-      </c>
-      <c r="O11" s="0">
-        <v>4</v>
-      </c>
-      <c r="P11" s="0">
-        <v>88.875</v>
-      </c>
-      <c r="Q11" s="0">
-        <v>113.938</v>
-      </c>
-      <c r="R11" s="0">
-        <v>33.110999999999997</v>
-      </c>
-      <c r="S11" s="0">
-        <v>3</v>
-      </c>
-      <c r="T11" s="0">
-        <v>2</v>
-      </c>
-      <c r="U11" s="0">
-        <v>1.0354492079317603</v>
-      </c>
-      <c r="V11" s="0">
-        <v>1</v>
-      </c>
-      <c r="W11" s="0">
-        <v>94.031249999999972</v>
-      </c>
-      <c r="X11" s="0">
-        <v>-68.759375000000006</v>
-      </c>
-      <c r="Y11" s="0">
-        <v>36.098167828937278</v>
-      </c>
-      <c r="Z11" s="0">
-        <v>20.140283114848799</v>
-      </c>
-      <c r="AA11" s="0">
-        <v>0.21418712518283875</v>
-      </c>
-      <c r="AB11" s="0">
-        <v>0.25836909871244634</v>
-      </c>
-      <c r="AC11" s="0">
-        <v>11</v>
-      </c>
-      <c r="AD11" s="0">
-        <v>112.57187500000001</v>
-      </c>
-      <c r="AE11" s="0">
-        <v>1.351778179041105</v>
-      </c>
-      <c r="AF11" s="0">
-        <v>223.5</v>
-      </c>
-      <c r="AG11" s="0">
-        <v>57.75</v>
-      </c>
-      <c r="AH11" s="0"/>
-      <c r="AI11" s="0">
-        <v>155.33980582524271</v>
-      </c>
-      <c r="AJ11" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="0">
-        <v>0.59375</v>
-      </c>
-      <c r="AL11" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>875</v>
-      </c>
-      <c r="B12" s="0">
-        <v>80219</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>879</v>
-      </c>
-      <c r="D12" s="0">
-        <v>2</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>892</v>
-      </c>
-      <c r="F12" s="0">
-        <v>411.88499999999999</v>
-      </c>
-      <c r="G12" s="0">
-        <v>307.721</v>
-      </c>
-      <c r="H12" s="0">
-        <v>18.236000000000001</v>
-      </c>
-      <c r="I12" s="0">
-        <v>51.046999999999997</v>
-      </c>
-      <c r="J12" s="0">
-        <v>138.893</v>
-      </c>
-      <c r="K12" s="0">
-        <v>2.5630000000000002</v>
-      </c>
-      <c r="L12" s="0">
-        <v>14.141999999999999</v>
-      </c>
-      <c r="M12" s="0">
-        <v>41.600999999999999</v>
-      </c>
-      <c r="N12" s="0">
-        <v>48.994</v>
-      </c>
-      <c r="O12" s="0">
-        <v>3</v>
-      </c>
-      <c r="P12" s="0">
-        <v>95.709999999999994</v>
-      </c>
-      <c r="Q12" s="0">
-        <v>108.242</v>
-      </c>
-      <c r="R12" s="0">
-        <v>31.759</v>
-      </c>
-      <c r="S12" s="0">
-        <v>2</v>
-      </c>
-      <c r="T12" s="0">
-        <v>2</v>
-      </c>
-      <c r="U12" s="0">
-        <v>1.0807644181549312</v>
-      </c>
-      <c r="V12" s="0">
-        <v>2.21875</v>
-      </c>
-      <c r="W12" s="0">
-        <v>91.572916666666643</v>
-      </c>
-      <c r="X12" s="0">
-        <v>-72.590625000000003</v>
-      </c>
-      <c r="Y12" s="0">
-        <v>26.465938344594107</v>
-      </c>
-      <c r="Z12" s="0">
-        <v>22.029048746089853</v>
-      </c>
-      <c r="AA12" s="0">
-        <v>0.24056292567678608</v>
-      </c>
-      <c r="AB12" s="0">
-        <v>0.56544502617800996</v>
-      </c>
-      <c r="AC12" s="0">
-        <v>9</v>
-      </c>
-      <c r="AD12" s="0">
-        <v>121.09062499999999</v>
-      </c>
-      <c r="AE12" s="0">
-        <v>1.2454815229338578</v>
-      </c>
-      <c r="AF12" s="0">
-        <v>379.625</v>
-      </c>
-      <c r="AG12" s="0">
-        <v>132.25</v>
-      </c>
-      <c r="AH12" s="0">
-        <v>0.53125</v>
-      </c>
-      <c r="AI12" s="0"/>
-      <c r="AJ12" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="0">
-        <v>2.875</v>
-      </c>
-      <c r="AL12" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>876</v>
-      </c>
-      <c r="B13" s="0">
-        <v>150519</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>879</v>
-      </c>
-      <c r="D13" s="0">
-        <v>2</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>893</v>
-      </c>
-      <c r="F13" s="0">
-        <v>543.94600000000003</v>
-      </c>
-      <c r="G13" s="0">
-        <v>306.83999999999997</v>
-      </c>
-      <c r="H13" s="0">
-        <v>5.9699999999999998</v>
-      </c>
-      <c r="I13" s="0">
-        <v>48.895000000000003</v>
-      </c>
-      <c r="J13" s="0">
-        <v>138.44200000000001</v>
-      </c>
-      <c r="K13" s="0">
-        <v>2.2040000000000002</v>
-      </c>
-      <c r="L13" s="0">
-        <v>11.462999999999999</v>
-      </c>
-      <c r="M13" s="0">
-        <v>80.778999999999996</v>
-      </c>
-      <c r="N13" s="0">
-        <v>72.798000000000002</v>
-      </c>
-      <c r="O13" s="0">
-        <v>2</v>
-      </c>
-      <c r="P13" s="0">
-        <v>107.97</v>
-      </c>
-      <c r="Q13" s="0">
-        <v>128.85599999999999</v>
-      </c>
-      <c r="R13" s="0">
-        <v>26.077000000000002</v>
-      </c>
-      <c r="S13" s="0">
-        <v>2</v>
-      </c>
-      <c r="T13" s="0">
-        <v>3</v>
-      </c>
-      <c r="U13" s="0">
-        <v>1.3376224766851612</v>
-      </c>
-      <c r="V13" s="0">
-        <v>8.9375</v>
-      </c>
-      <c r="W13" s="0">
-        <v>88.239583333333314</v>
-      </c>
-      <c r="X13" s="0">
-        <v>-69.903125000000003</v>
-      </c>
-      <c r="Y13" s="0">
-        <v>54.985067294450829</v>
-      </c>
-      <c r="Z13" s="0">
-        <v>11.557776588541895</v>
-      </c>
-      <c r="AA13" s="0">
-        <v>0.130981767500888</v>
-      </c>
-      <c r="AB13" s="0">
-        <v>0.21225710014947685</v>
-      </c>
-      <c r="AC13" s="0">
-        <v>18</v>
-      </c>
-      <c r="AD13" s="0">
-        <v>121.55937499999999</v>
-      </c>
-      <c r="AE13" s="0">
-        <v>0.88212927615178671</v>
-      </c>
-      <c r="AF13" s="0">
-        <v>303.375</v>
-      </c>
-      <c r="AG13" s="0">
-        <v>83.5</v>
-      </c>
-      <c r="AH13" s="0">
-        <v>3.28125</v>
-      </c>
-      <c r="AI13" s="0">
-        <v>169.01408450704224</v>
-      </c>
-      <c r="AJ13" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="0">
-        <v>1.5625</v>
-      </c>
-      <c r="AL13" s="0">
         <v>0</v>
       </c>
     </row>

--- a/Data/out/Re-organization_0.xlsx
+++ b/Data/out/Re-organization_0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="297">
   <si>
     <t>Label</t>
   </si>
@@ -33,6 +33,9 @@
     <t>b</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -69,6 +72,15 @@
     <t>t30</t>
   </si>
   <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t35</t>
+  </si>
+  <si>
     <t>Depth</t>
   </si>
   <si>
@@ -207,439 +219,457 @@
     <t>t6</t>
   </si>
   <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
     <t>t4</t>
   </si>
   <si>
+    <t>t21</t>
+  </si>
+  <si>
     <t>t5</t>
   </si>
   <si>
     <t>t1</t>
   </si>
   <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>L2/3</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>CFA d7NS</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d1</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t18</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t29</t>
+  </si>
+  <si>
     <t>t23</t>
   </si>
   <si>
-    <t>t1</t>
+    <t>t22</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Polarity</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>MaxH</t>
+  </si>
+  <si>
+    <t>MaxV</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>MaxH_1</t>
+  </si>
+  <si>
+    <t>MaxV_1</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>MaxOrder</t>
+  </si>
+  <si>
+    <t>Oblique</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAGAmp</t>
+  </si>
+  <si>
+    <t>InputR</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>APThreshold</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>SpikeCount</t>
+  </si>
+  <si>
+    <t>APAmplitude</t>
+  </si>
+  <si>
+    <t>APHW</t>
+  </si>
+  <si>
+    <t>VeloDepo</t>
+  </si>
+  <si>
+    <t>VelRepo</t>
+  </si>
+  <si>
+    <t>ICAmp</t>
+  </si>
+  <si>
+    <t>Burst</t>
+  </si>
+  <si>
+    <t>IInj</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>Mdl_predictors</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Saline d7</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>t14</t>
   </si>
   <si>
     <t>t3</t>
   </si>
   <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>Tau</t>
-  </si>
-  <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>Adaptation</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>VeloDepo</t>
-  </si>
-  <si>
-    <t>VelRepo</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>Mdl_predictors</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>CFA d7NS</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>Tau</t>
-  </si>
-  <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>Adaptation</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>VeloDepo</t>
-  </si>
-  <si>
-    <t>VelRepo</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>Mdl_predictors</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d1</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Bifurcation</t>
-  </si>
-  <si>
-    <t>Polarity</t>
-  </si>
-  <si>
-    <t>Perimeter</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Diameter</t>
-  </si>
-  <si>
-    <t>Measured</t>
-  </si>
-  <si>
-    <t>MaxH</t>
-  </si>
-  <si>
-    <t>MaxV</t>
-  </si>
-  <si>
-    <t>Den</t>
-  </si>
-  <si>
-    <t>MaxH_1</t>
-  </si>
-  <si>
-    <t>MaxV_1</t>
-  </si>
-  <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>MaxOrder</t>
-  </si>
-  <si>
-    <t>Oblique</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAGAmp</t>
-  </si>
-  <si>
-    <t>InputR</t>
-  </si>
-  <si>
-    <t>RMP</t>
-  </si>
-  <si>
-    <t>APThreshold</t>
-  </si>
-  <si>
-    <t>Tau</t>
-  </si>
-  <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>Adaptation</t>
-  </si>
-  <si>
-    <t>SpikeCount</t>
-  </si>
-  <si>
-    <t>APAmplitude</t>
-  </si>
-  <si>
-    <t>APHW</t>
-  </si>
-  <si>
-    <t>VeloDepo</t>
-  </si>
-  <si>
-    <t>VelRepo</t>
-  </si>
-  <si>
-    <t>ICAmp</t>
-  </si>
-  <si>
-    <t>Burst</t>
-  </si>
-  <si>
-    <t>IInj</t>
-  </si>
-  <si>
-    <t>ADP</t>
-  </si>
-  <si>
-    <t>Mdl_predictors</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Saline d7</t>
-  </si>
-  <si>
-    <t>Slice</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>t14</t>
   </si>
   <si>
-    <t>t3</t>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t11</t>
   </si>
   <si>
     <t>t14</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t6</t>
   </si>
   <si>
     <t>Depth</t>
@@ -925,7 +955,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AL11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
@@ -961,7 +991,7 @@
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
     <col min="32" max="32" width="10" customWidth="true"/>
     <col min="33" max="33" width="8.7109375" customWidth="true"/>
-    <col min="34" max="34" width="7.7109375" customWidth="true"/>
+    <col min="34" max="34" width="8.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
     <col min="36" max="36" width="4" customWidth="true"/>
     <col min="37" max="37" width="7.7109375" customWidth="true"/>
@@ -973,115 +1003,115 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
@@ -1092,13 +1122,13 @@
         <v>70518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0">
         <v>527.33900000000006</v>
@@ -1208,13 +1238,13 @@
         <v>70518</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="0">
         <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0">
         <v>509.87200000000001</v>
@@ -1324,13 +1354,13 @@
         <v>70518</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0">
         <v>414.42200000000003</v>
@@ -1440,13 +1470,13 @@
         <v>280420</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="0">
         <v>375.012</v>
@@ -1556,13 +1586,13 @@
         <v>290420</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="0">
         <v>381.83600000000001</v>
@@ -1672,13 +1702,13 @@
         <v>20520</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="0">
         <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0">
         <v>426.51900000000001</v>
@@ -1788,13 +1818,13 @@
         <v>20520</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="0">
         <v>3</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="0">
         <v>397.04599999999999</v>
@@ -1893,6 +1923,288 @@
         <v>1.0625</v>
       </c>
       <c r="AL8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0">
+        <v>30221</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0">
+        <v>378.37099999999998</v>
+      </c>
+      <c r="G9" s="0">
+        <v>273.03199999999998</v>
+      </c>
+      <c r="H9" s="0">
+        <v>-14.442</v>
+      </c>
+      <c r="I9" s="0">
+        <v>59.229999999999997</v>
+      </c>
+      <c r="J9" s="0">
+        <v>229.012</v>
+      </c>
+      <c r="K9" s="0">
+        <v>2.2829999999999999</v>
+      </c>
+      <c r="L9" s="0">
+        <v>11.513</v>
+      </c>
+      <c r="M9" s="0">
+        <v>100.44499999999999</v>
+      </c>
+      <c r="N9" s="0">
+        <v>107.889</v>
+      </c>
+      <c r="O9" s="0">
+        <v>5</v>
+      </c>
+      <c r="P9" s="0">
+        <v>69.867999999999995</v>
+      </c>
+      <c r="Q9" s="0">
+        <v>64.617000000000004</v>
+      </c>
+      <c r="R9" s="0">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="S9" s="0">
+        <v>2</v>
+      </c>
+      <c r="T9" s="0">
+        <v>1</v>
+      </c>
+      <c r="U9" s="0">
+        <v>1.0862909882194043</v>
+      </c>
+      <c r="V9" s="0">
+        <v>3.59375</v>
+      </c>
+      <c r="W9" s="0">
+        <v>138.82291666666666</v>
+      </c>
+      <c r="X9" s="0">
+        <v>-59.978124999999999</v>
+      </c>
+      <c r="Y9" s="0">
+        <v>95.363082021589804</v>
+      </c>
+      <c r="Z9" s="0">
+        <v>16.822555921591242</v>
+      </c>
+      <c r="AA9" s="0">
+        <v>0.12117996311793797</v>
+      </c>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="0">
+        <v>97.540625000000006</v>
+      </c>
+      <c r="AE9" s="0">
+        <v>1.2720690028306052</v>
+      </c>
+      <c r="AF9" s="0">
+        <v>191.625</v>
+      </c>
+      <c r="AG9" s="0">
+        <v>58.25</v>
+      </c>
+      <c r="AH9" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="0">
+        <v>3.1562000000000001</v>
+      </c>
+      <c r="AL9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0">
+        <v>70618</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0">
+        <v>1.0600858369098713</v>
+      </c>
+      <c r="V10" s="0">
+        <v>2.1875</v>
+      </c>
+      <c r="W10" s="0">
+        <v>122.44791666666664</v>
+      </c>
+      <c r="X10" s="0">
+        <v>-62.703125</v>
+      </c>
+      <c r="Y10" s="0">
+        <v>20.980592137462267</v>
+      </c>
+      <c r="Z10" s="0">
+        <v>16.032890632875443</v>
+      </c>
+      <c r="AA10" s="0">
+        <v>0.13093641010259829</v>
+      </c>
+      <c r="AB10" s="0">
+        <v>0.49233912155260467</v>
+      </c>
+      <c r="AC10" s="0">
+        <v>12</v>
+      </c>
+      <c r="AD10" s="0">
+        <v>101.578125</v>
+      </c>
+      <c r="AE10" s="0">
+        <v>1.3267997361806465</v>
+      </c>
+      <c r="AF10" s="0">
+        <v>208.625</v>
+      </c>
+      <c r="AG10" s="0">
+        <v>55.5</v>
+      </c>
+      <c r="AH10" s="0">
+        <v>3.09375</v>
+      </c>
+      <c r="AI10" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="0">
+        <v>20</v>
+      </c>
+      <c r="AK10" s="0">
+        <v>-1.0311999999999999</v>
+      </c>
+      <c r="AL10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0">
+        <v>80618</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="0">
+        <v>3</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0">
+        <v>1.0529556650246306</v>
+      </c>
+      <c r="V11" s="0">
+        <v>1.34375</v>
+      </c>
+      <c r="W11" s="0">
+        <v>86.145833333333329</v>
+      </c>
+      <c r="X11" s="0">
+        <v>-60.34375</v>
+      </c>
+      <c r="Y11" s="0">
+        <v>144.4396258816318</v>
+      </c>
+      <c r="Z11" s="0">
+        <v>12.141136969602851</v>
+      </c>
+      <c r="AA11" s="0">
+        <v>0.14093701923601859</v>
+      </c>
+      <c r="AB11" s="0">
+        <v>0.30553037171350861</v>
+      </c>
+      <c r="AC11" s="0">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="0">
+        <v>108.5</v>
+      </c>
+      <c r="AE11" s="0">
+        <v>1.2949654448429726</v>
+      </c>
+      <c r="AF11" s="0">
+        <v>224.5</v>
+      </c>
+      <c r="AG11" s="0">
+        <v>56.5</v>
+      </c>
+      <c r="AH11" s="0">
+        <v>2.46875</v>
+      </c>
+      <c r="AI11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="0">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AK11" s="0">
+        <v>-0.125</v>
+      </c>
+      <c r="AL11" s="0">
         <v>0</v>
       </c>
     </row>
@@ -1902,7 +2214,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AL12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
@@ -1947,135 +2259,135 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B2" s="0">
         <v>260320</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F2" s="0">
         <v>465.96699999999998</v>
@@ -2179,111 +2491,109 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B3" s="0">
-        <v>150520</v>
+        <v>260320</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F3" s="0">
-        <v>500.041</v>
+        <v>514.60299999999995</v>
       </c>
       <c r="G3" s="0">
-        <v>377.28100000000001</v>
+        <v>337.81299999999999</v>
       </c>
       <c r="H3" s="0">
-        <v>9.5879999999999992</v>
+        <v>8.8300000000000001</v>
       </c>
       <c r="I3" s="0">
-        <v>38.5</v>
+        <v>41.557000000000002</v>
       </c>
       <c r="J3" s="0">
-        <v>103.508</v>
+        <v>87.981999999999999</v>
       </c>
       <c r="K3" s="0">
-        <v>1.998</v>
+        <v>2.3719999999999999</v>
       </c>
       <c r="L3" s="0">
-        <v>14.798</v>
+        <v>11.571</v>
       </c>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0">
         <v>2</v>
       </c>
-      <c r="P3" s="0">
-        <v>81.224000000000004</v>
-      </c>
+      <c r="P3" s="0"/>
       <c r="Q3" s="0">
-        <v>78.978999999999999</v>
+        <v>158.20699999999999</v>
       </c>
       <c r="R3" s="0">
-        <v>32.523000000000003</v>
+        <v>40.133000000000003</v>
       </c>
       <c r="S3" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T3" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3" s="0">
-        <v>1.0486448922863099</v>
+        <v>1.0711543862934183</v>
       </c>
       <c r="V3" s="0">
-        <v>1.53125</v>
+        <v>2.375</v>
       </c>
       <c r="W3" s="0">
-        <v>104.92708333333336</v>
+        <v>111.26041666666663</v>
       </c>
       <c r="X3" s="0">
-        <v>-67.928124999999994</v>
+        <v>-68.403125000000003</v>
       </c>
       <c r="Y3" s="0">
-        <v>28.739011250235642</v>
+        <v>16.151027276723951</v>
       </c>
       <c r="Z3" s="0">
-        <v>14.322849155230552</v>
+        <v>18.515559105089373</v>
       </c>
       <c r="AA3" s="0">
-        <v>0.13650288085993573</v>
+        <v>0.166416409895008</v>
       </c>
       <c r="AB3" s="0">
-        <v>0.51195219123505975</v>
+        <v>0.30529595015576322</v>
       </c>
       <c r="AC3" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AD3" s="0">
-        <v>107.61562499999999</v>
+        <v>104.09062499999999</v>
       </c>
       <c r="AE3" s="0">
-        <v>0.86849944508601595</v>
+        <v>0.90377426236934966</v>
       </c>
       <c r="AF3" s="0">
-        <v>284.75</v>
+        <v>292.25</v>
       </c>
       <c r="AG3" s="0">
-        <v>86.625</v>
+        <v>82.25</v>
       </c>
       <c r="AH3" s="0">
-        <v>4.28125</v>
+        <v>6.71875</v>
       </c>
       <c r="AI3" s="0">
-        <v>0</v>
+        <v>296.29629629629625</v>
       </c>
       <c r="AJ3" s="0">
         <v>0</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.875</v>
+        <v>0.96875</v>
       </c>
       <c r="AL3" s="0">
         <v>0</v>
@@ -2291,115 +2601,109 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B4" s="0">
-        <v>190520</v>
+        <v>140520</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D4" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F4" s="0">
-        <v>475.017</v>
+        <v>490.94</v>
       </c>
       <c r="G4" s="0">
-        <v>282.97399999999999</v>
+        <v>317.09500000000003</v>
       </c>
       <c r="H4" s="0">
-        <v>6.6719999999999997</v>
+        <v>15.06</v>
       </c>
       <c r="I4" s="0">
-        <v>66.231999999999999</v>
+        <v>46.274000000000001</v>
       </c>
       <c r="J4" s="0">
-        <v>268.43799999999999</v>
+        <v>132.94</v>
       </c>
       <c r="K4" s="0">
-        <v>2.8399999999999999</v>
+        <v>2.1480000000000001</v>
       </c>
       <c r="L4" s="0">
-        <v>17.035</v>
-      </c>
-      <c r="M4" s="0">
-        <v>80.162999999999997</v>
-      </c>
-      <c r="N4" s="0">
-        <v>68.194000000000003</v>
-      </c>
-      <c r="O4" s="0">
-        <v>8</v>
-      </c>
+        <v>10.635</v>
+      </c>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
       <c r="P4" s="0">
-        <v>144.26900000000001</v>
+        <v>171.285</v>
       </c>
       <c r="Q4" s="0">
-        <v>165.39500000000001</v>
+        <v>150.13</v>
       </c>
       <c r="R4" s="0">
-        <v>75.587000000000003</v>
+        <v>34.140999999999998</v>
       </c>
       <c r="S4" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T4" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U4" s="0">
-        <v>1.0604497461110662</v>
+        <v>1.056046065259117</v>
       </c>
       <c r="V4" s="0">
-        <v>2.34375</v>
+        <v>2.28125</v>
       </c>
       <c r="W4" s="0">
-        <v>129.23958333333331</v>
+        <v>135.67708333333331</v>
       </c>
       <c r="X4" s="0">
-        <v>-71.446875000000006</v>
+        <v>-70.921875</v>
       </c>
       <c r="Y4" s="0">
-        <v>30.13090052258481</v>
+        <v>28.143064981177741</v>
       </c>
       <c r="Z4" s="0">
-        <v>20.005598894991298</v>
+        <v>20.075054277825497</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.15479467187226284</v>
+        <v>0.14796201233560446</v>
       </c>
       <c r="AB4" s="0">
-        <v>0.6164705882352941</v>
+        <v>0.54620976116303221</v>
       </c>
       <c r="AC4" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD4" s="0">
-        <v>118.35312500000001</v>
+        <v>120.609375</v>
       </c>
       <c r="AE4" s="0">
-        <v>0.8470045500505563</v>
+        <v>0.76146563065771744</v>
       </c>
       <c r="AF4" s="0">
-        <v>140.125</v>
+        <v>317.625</v>
       </c>
       <c r="AG4" s="0">
-        <v>66.125</v>
+        <v>107.25</v>
       </c>
       <c r="AH4" s="0">
-        <v>1.125</v>
+        <v>4.96875</v>
       </c>
       <c r="AI4" s="0">
-        <v>146.78899082568807</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="0">
         <v>0</v>
       </c>
       <c r="AK4" s="0">
-        <v>1.7188000000000001</v>
+        <v>0.09375</v>
       </c>
       <c r="AL4" s="0">
         <v>0</v>
@@ -2407,115 +2711,111 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B5" s="0">
-        <v>190520</v>
+        <v>150520</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D5" s="0">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F5" s="0">
-        <v>570.43799999999999</v>
+        <v>500.041</v>
       </c>
       <c r="G5" s="0">
-        <v>446.63299999999998</v>
+        <v>377.28100000000001</v>
       </c>
       <c r="H5" s="0">
-        <v>-12.054</v>
+        <v>9.5879999999999992</v>
       </c>
       <c r="I5" s="0">
-        <v>60.530000000000001</v>
+        <v>38.5</v>
       </c>
       <c r="J5" s="0">
-        <v>262.005</v>
+        <v>103.508</v>
       </c>
       <c r="K5" s="0">
-        <v>2.2759999999999998</v>
+        <v>1.998</v>
       </c>
       <c r="L5" s="0">
-        <v>14.884</v>
-      </c>
-      <c r="M5" s="0">
-        <v>104.479</v>
-      </c>
-      <c r="N5" s="0">
-        <v>84.162999999999997</v>
-      </c>
+        <v>14.798</v>
+      </c>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
       <c r="O5" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P5" s="0">
-        <v>121.485</v>
+        <v>81.224000000000004</v>
       </c>
       <c r="Q5" s="0">
-        <v>102.249</v>
+        <v>78.978999999999999</v>
       </c>
       <c r="R5" s="0">
-        <v>16.068999999999999</v>
+        <v>32.523000000000003</v>
       </c>
       <c r="S5" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T5" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U5" s="0">
-        <v>1.0800301289897374</v>
+        <v>1.0486448922863099</v>
       </c>
       <c r="V5" s="0">
-        <v>2.65625</v>
+        <v>1.53125</v>
       </c>
       <c r="W5" s="0">
-        <v>110.63541666666663</v>
+        <v>104.92708333333336</v>
       </c>
       <c r="X5" s="0">
-        <v>-78.434375000000003</v>
+        <v>-67.928124999999994</v>
       </c>
       <c r="Y5" s="0">
-        <v>108.12020743054313</v>
+        <v>28.739011250235642</v>
       </c>
       <c r="Z5" s="0">
-        <v>19.548722159451188</v>
+        <v>14.322849155230552</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.17669497479590573</v>
+        <v>0.13650288085993573</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.46772228989037762</v>
+        <v>0.51195219123505975</v>
       </c>
       <c r="AC5" s="0">
         <v>11</v>
       </c>
       <c r="AD5" s="0">
-        <v>125.49687499999999</v>
+        <v>107.61562499999999</v>
       </c>
       <c r="AE5" s="0">
-        <v>0.83921863898927995</v>
+        <v>0.86849944508601595</v>
       </c>
       <c r="AF5" s="0">
-        <v>261.75</v>
+        <v>284.75</v>
       </c>
       <c r="AG5" s="0">
-        <v>92.125</v>
+        <v>86.625</v>
       </c>
       <c r="AH5" s="0">
-        <v>0</v>
+        <v>4.28125</v>
       </c>
       <c r="AI5" s="0">
-        <v>140.35087719298247</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="0">
         <v>0</v>
       </c>
       <c r="AK5" s="0">
-        <v>2.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AL5" s="0">
         <v>0</v>
@@ -2523,58 +2823,58 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B6" s="0">
-        <v>200520</v>
+        <v>180520</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D6" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F6" s="0">
-        <v>512.58900000000006</v>
+        <v>383.39499999999998</v>
       </c>
       <c r="G6" s="0">
-        <v>342.065</v>
+        <v>165.46199999999999</v>
       </c>
       <c r="H6" s="0">
-        <v>7.7610000000000001</v>
+        <v>5.3959999999999999</v>
       </c>
       <c r="I6" s="0">
-        <v>69.331999999999994</v>
+        <v>55.219999999999999</v>
       </c>
       <c r="J6" s="0">
-        <v>323.95999999999998</v>
+        <v>214.25200000000001</v>
       </c>
       <c r="K6" s="0">
-        <v>3.1230000000000002</v>
+        <v>2.1480000000000001</v>
       </c>
       <c r="L6" s="0">
-        <v>10.795999999999999</v>
+        <v>11.971</v>
       </c>
       <c r="M6" s="0">
-        <v>81.599999999999994</v>
+        <v>71.588999999999999</v>
       </c>
       <c r="N6" s="0">
-        <v>52.216999999999999</v>
+        <v>54.938000000000002</v>
       </c>
       <c r="O6" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P6" s="0">
-        <v>153.417</v>
+        <v>128.75399999999999</v>
       </c>
       <c r="Q6" s="0">
-        <v>95.409000000000006</v>
+        <v>137.13399999999999</v>
       </c>
       <c r="R6" s="0">
-        <v>41.753999999999998</v>
+        <v>21.603000000000002</v>
       </c>
       <c r="S6" s="0">
         <v>3</v>
@@ -2583,55 +2883,55 @@
         <v>4</v>
       </c>
       <c r="U6" s="0">
-        <v>1.131665569453588</v>
+        <v>1.1480600442949718</v>
       </c>
       <c r="V6" s="0">
-        <v>3.125</v>
+        <v>11.28125</v>
       </c>
       <c r="W6" s="0">
-        <v>79.114583333333329</v>
+        <v>253.9791666666666</v>
       </c>
       <c r="X6" s="0">
-        <v>-72.046875</v>
+        <v>-60.149999999999999</v>
       </c>
       <c r="Y6" s="0">
-        <v>123.97538172835853</v>
+        <v>19.555569177076382</v>
       </c>
       <c r="Z6" s="0">
-        <v>15.317254075770009</v>
+        <v>6.7112583590761297</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.19360847811374865</v>
+        <v>0.026424444363518523</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.40740740740740738</v>
+        <v>0.46027397260273978</v>
       </c>
       <c r="AC6" s="0">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AD6" s="0">
-        <v>105.203125</v>
+        <v>116.71250000000001</v>
       </c>
       <c r="AE6" s="0">
-        <v>0.87233612176187947</v>
+        <v>0.70735597331715994</v>
       </c>
       <c r="AF6" s="0">
-        <v>345</v>
+        <v>331.25</v>
       </c>
       <c r="AG6" s="0">
-        <v>111.875</v>
+        <v>129.5</v>
       </c>
       <c r="AH6" s="0">
-        <v>2.84375</v>
+        <v>11.3125</v>
       </c>
       <c r="AI6" s="0">
-        <v>0</v>
+        <v>142.85714285714286</v>
       </c>
       <c r="AJ6" s="0">
         <v>0</v>
       </c>
       <c r="AK6" s="0">
-        <v>2.2812000000000001</v>
+        <v>2.9062000000000001</v>
       </c>
       <c r="AL6" s="0">
         <v>0</v>
@@ -2639,115 +2939,115 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B7" s="0">
-        <v>210520</v>
+        <v>190520</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D7" s="0">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F7" s="0">
-        <v>482.98500000000001</v>
+        <v>475.017</v>
       </c>
       <c r="G7" s="0">
-        <v>300.43700000000001</v>
+        <v>282.97399999999999</v>
       </c>
       <c r="H7" s="0">
-        <v>12.933999999999999</v>
+        <v>6.6719999999999997</v>
       </c>
       <c r="I7" s="0">
-        <v>58.000999999999998</v>
+        <v>66.231999999999999</v>
       </c>
       <c r="J7" s="0">
-        <v>201.346</v>
+        <v>268.43799999999999</v>
       </c>
       <c r="K7" s="0">
-        <v>3.2679999999999998</v>
+        <v>2.8399999999999999</v>
       </c>
       <c r="L7" s="0">
-        <v>11.938000000000001</v>
+        <v>17.035</v>
       </c>
       <c r="M7" s="0">
-        <v>86.382999999999996</v>
+        <v>80.162999999999997</v>
       </c>
       <c r="N7" s="0">
-        <v>70.540999999999997</v>
+        <v>68.194000000000003</v>
       </c>
       <c r="O7" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P7" s="0">
-        <v>183.33199999999999</v>
+        <v>144.26900000000001</v>
       </c>
       <c r="Q7" s="0">
-        <v>139.53299999999999</v>
+        <v>165.39500000000001</v>
       </c>
       <c r="R7" s="0">
-        <v>61.478000000000002</v>
+        <v>75.587000000000003</v>
       </c>
       <c r="S7" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T7" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U7" s="0">
-        <v>1.0391530163803435</v>
+        <v>1.0604497461110662</v>
       </c>
       <c r="V7" s="0">
-        <v>1.53125</v>
+        <v>2.34375</v>
       </c>
       <c r="W7" s="0">
-        <v>130.36458333333331</v>
+        <v>129.23958333333331</v>
       </c>
       <c r="X7" s="0">
-        <v>-62.171875</v>
+        <v>-71.446875000000006</v>
       </c>
       <c r="Y7" s="0">
-        <v>10.651933454212083</v>
+        <v>30.13090052258481</v>
       </c>
       <c r="Z7" s="0">
-        <v>21.776728365764313</v>
+        <v>20.005598894991298</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.16704482006499197</v>
+        <v>0.15479467187226284</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.5824915824915825</v>
+        <v>0.6164705882352941</v>
       </c>
       <c r="AC7" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AD7" s="0">
-        <v>111.796875</v>
+        <v>118.35312500000001</v>
       </c>
       <c r="AE7" s="0">
-        <v>0.87712197159565619</v>
+        <v>0.8470045500505563</v>
       </c>
       <c r="AF7" s="0">
-        <v>338.125</v>
+        <v>140.125</v>
       </c>
       <c r="AG7" s="0">
-        <v>86.375</v>
+        <v>66.125</v>
       </c>
       <c r="AH7" s="0">
-        <v>1.53125</v>
+        <v>1.125</v>
       </c>
       <c r="AI7" s="0">
-        <v>0</v>
+        <v>146.78899082568807</v>
       </c>
       <c r="AJ7" s="0">
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>0.65625</v>
+        <v>1.7188000000000001</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -2755,115 +3055,115 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" s="0">
-        <v>210520</v>
+        <v>190520</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D8" s="0">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F8" s="0">
-        <v>510.274</v>
+        <v>570.43799999999999</v>
       </c>
       <c r="G8" s="0">
-        <v>365.94400000000002</v>
+        <v>446.63299999999998</v>
       </c>
       <c r="H8" s="0">
-        <v>-13.125999999999999</v>
+        <v>-12.054</v>
       </c>
       <c r="I8" s="0">
-        <v>55.468000000000004</v>
+        <v>60.530000000000001</v>
       </c>
       <c r="J8" s="0">
-        <v>215.54300000000001</v>
+        <v>262.005</v>
       </c>
       <c r="K8" s="0">
-        <v>1.9019999999999999</v>
+        <v>2.2759999999999998</v>
       </c>
       <c r="L8" s="0">
-        <v>14.015000000000001</v>
+        <v>14.884</v>
       </c>
       <c r="M8" s="0">
-        <v>107.991</v>
+        <v>104.479</v>
       </c>
       <c r="N8" s="0">
-        <v>84.094999999999999</v>
+        <v>84.162999999999997</v>
       </c>
       <c r="O8" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P8" s="0">
-        <v>112.581</v>
+        <v>121.485</v>
       </c>
       <c r="Q8" s="0">
-        <v>127.07599999999999</v>
+        <v>102.249</v>
       </c>
       <c r="R8" s="0">
-        <v>50.265000000000001</v>
+        <v>16.068999999999999</v>
       </c>
       <c r="S8" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T8" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U8" s="0">
-        <v>1.1090299133351971</v>
+        <v>1.0800301289897374</v>
       </c>
       <c r="V8" s="0">
+        <v>2.65625</v>
+      </c>
+      <c r="W8" s="0">
+        <v>110.63541666666663</v>
+      </c>
+      <c r="X8" s="0">
+        <v>-78.434375000000003</v>
+      </c>
+      <c r="Y8" s="0">
+        <v>108.12020743054313</v>
+      </c>
+      <c r="Z8" s="0">
+        <v>19.548722159451188</v>
+      </c>
+      <c r="AA8" s="0">
+        <v>0.17669497479590573</v>
+      </c>
+      <c r="AB8" s="0">
+        <v>0.46772228989037762</v>
+      </c>
+      <c r="AC8" s="0">
+        <v>11</v>
+      </c>
+      <c r="AD8" s="0">
+        <v>125.49687499999999</v>
+      </c>
+      <c r="AE8" s="0">
+        <v>0.83921863898927995</v>
+      </c>
+      <c r="AF8" s="0">
+        <v>261.75</v>
+      </c>
+      <c r="AG8" s="0">
+        <v>92.125</v>
+      </c>
+      <c r="AH8" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="0">
+        <v>140.35087719298247</v>
+      </c>
+      <c r="AJ8" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="0">
         <v>2.4375</v>
-      </c>
-      <c r="W8" s="0">
-        <v>74.520833333333343</v>
-      </c>
-      <c r="X8" s="0">
-        <v>-81.737499999999997</v>
-      </c>
-      <c r="Y8" s="0">
-        <v>114.71276970177878</v>
-      </c>
-      <c r="Z8" s="0">
-        <v>6.551330149847038</v>
-      </c>
-      <c r="AA8" s="0">
-        <v>0.087912733349918309</v>
-      </c>
-      <c r="AB8" s="0">
-        <v>0.36061381074168791</v>
-      </c>
-      <c r="AC8" s="0">
-        <v>7</v>
-      </c>
-      <c r="AD8" s="0">
-        <v>120.11250000000001</v>
-      </c>
-      <c r="AE8" s="0">
-        <v>0.91116994165744813</v>
-      </c>
-      <c r="AF8" s="0">
-        <v>242.5</v>
-      </c>
-      <c r="AG8" s="0">
-        <v>73.25</v>
-      </c>
-      <c r="AH8" s="0">
-        <v>3.34375</v>
-      </c>
-      <c r="AI8" s="0">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="0">
-        <v>0.5625</v>
       </c>
       <c r="AL8" s="0">
         <v>0</v>
@@ -2871,106 +3171,106 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B9" s="0">
         <v>210520</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D9" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F9" s="0">
-        <v>570.12</v>
+        <v>482.98500000000001</v>
       </c>
       <c r="G9" s="0">
-        <v>510.767</v>
+        <v>300.43700000000001</v>
       </c>
       <c r="H9" s="0">
-        <v>21.114000000000001</v>
+        <v>12.933999999999999</v>
       </c>
       <c r="I9" s="0">
-        <v>65.046999999999997</v>
+        <v>58.000999999999998</v>
       </c>
       <c r="J9" s="0">
-        <v>300.72500000000002</v>
+        <v>201.346</v>
       </c>
       <c r="K9" s="0">
-        <v>2.4790000000000001</v>
+        <v>3.2679999999999998</v>
       </c>
       <c r="L9" s="0">
-        <v>13.869999999999999</v>
+        <v>11.938000000000001</v>
       </c>
       <c r="M9" s="0">
-        <v>124.932</v>
+        <v>86.382999999999996</v>
       </c>
       <c r="N9" s="0">
-        <v>96.975999999999999</v>
+        <v>70.540999999999997</v>
       </c>
       <c r="O9" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P9" s="0">
-        <v>101.184</v>
+        <v>183.33199999999999</v>
       </c>
       <c r="Q9" s="0">
-        <v>101.547</v>
+        <v>139.53299999999999</v>
       </c>
       <c r="R9" s="0">
-        <v>35.856999999999999</v>
+        <v>61.478000000000002</v>
       </c>
       <c r="S9" s="0">
         <v>3</v>
       </c>
       <c r="T9" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U9" s="0">
-        <v>1.1091317605520783</v>
+        <v>1.0391530163803435</v>
       </c>
       <c r="V9" s="0">
-        <v>2.125</v>
+        <v>1.53125</v>
       </c>
       <c r="W9" s="0">
-        <v>64.906249999999972</v>
+        <v>130.36458333333331</v>
       </c>
       <c r="X9" s="0">
-        <v>-80.309375000000003</v>
+        <v>-62.171875</v>
       </c>
       <c r="Y9" s="0">
-        <v>139.47832833673655</v>
+        <v>10.651933454212083</v>
       </c>
       <c r="Z9" s="0">
-        <v>7.7774356271048841</v>
+        <v>21.776728365764313</v>
       </c>
       <c r="AA9" s="0">
-        <v>0.11982568130349369</v>
+        <v>0.16704482006499197</v>
       </c>
       <c r="AB9" s="0">
-        <v>0.30366492146596857</v>
+        <v>0.5824915824915825</v>
       </c>
       <c r="AC9" s="0">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AD9" s="0">
-        <v>130.27812499999999</v>
+        <v>111.796875</v>
       </c>
       <c r="AE9" s="0">
-        <v>0.79323234999341707</v>
+        <v>0.87712197159565619</v>
       </c>
       <c r="AF9" s="0">
-        <v>284</v>
+        <v>338.125</v>
       </c>
       <c r="AG9" s="0">
-        <v>103.625</v>
+        <v>86.375</v>
       </c>
       <c r="AH9" s="0">
-        <v>7</v>
+        <v>1.53125</v>
       </c>
       <c r="AI9" s="0">
         <v>0</v>
@@ -2979,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="0">
-        <v>0.53125</v>
+        <v>0.65625</v>
       </c>
       <c r="AL9" s="0">
         <v>0</v>
@@ -2987,115 +3287,115 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0">
-        <v>240520</v>
+        <v>210520</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D10" s="0">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F10" s="0">
-        <v>352.471</v>
+        <v>510.274</v>
       </c>
       <c r="G10" s="0">
-        <v>236.59800000000001</v>
+        <v>365.94400000000002</v>
       </c>
       <c r="H10" s="0">
-        <v>4.9779999999999998</v>
+        <v>-13.125999999999999</v>
       </c>
       <c r="I10" s="0">
-        <v>63.286000000000001</v>
+        <v>55.468000000000004</v>
       </c>
       <c r="J10" s="0">
-        <v>270.41500000000002</v>
+        <v>215.54300000000001</v>
       </c>
       <c r="K10" s="0">
-        <v>2.8439999999999999</v>
+        <v>1.9019999999999999</v>
       </c>
       <c r="L10" s="0">
-        <v>14.407999999999999</v>
+        <v>14.015000000000001</v>
       </c>
       <c r="M10" s="0">
-        <v>101.306</v>
+        <v>107.991</v>
       </c>
       <c r="N10" s="0">
-        <v>93.275999999999996</v>
+        <v>84.094999999999999</v>
       </c>
       <c r="O10" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P10" s="0">
-        <v>100.38800000000001</v>
+        <v>112.581</v>
       </c>
       <c r="Q10" s="0">
-        <v>68.780000000000001</v>
+        <v>127.07599999999999</v>
       </c>
       <c r="R10" s="0">
-        <v>62.270000000000003</v>
+        <v>50.265000000000001</v>
       </c>
       <c r="S10" s="0">
         <v>2</v>
       </c>
       <c r="T10" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U10" s="0">
-        <v>1.0644329896907216</v>
+        <v>1.1090299133351971</v>
       </c>
       <c r="V10" s="0">
-        <v>2.03125</v>
+        <v>2.4375</v>
       </c>
       <c r="W10" s="0">
-        <v>105.08333333333333</v>
+        <v>74.520833333333343</v>
       </c>
       <c r="X10" s="0">
-        <v>-81.724999999999994</v>
+        <v>-81.737499999999997</v>
       </c>
       <c r="Y10" s="0">
-        <v>105.14040738935778</v>
+        <v>114.71276970177878</v>
       </c>
       <c r="Z10" s="0">
-        <v>10.047035651150617</v>
+        <v>6.551330149847038</v>
       </c>
       <c r="AA10" s="0">
-        <v>0.095610172731013021</v>
+        <v>0.087912733349918309</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.32650862068965519</v>
+        <v>0.36061381074168791</v>
       </c>
       <c r="AC10" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AD10" s="0">
-        <v>137.09999999999999</v>
+        <v>120.11250000000001</v>
       </c>
       <c r="AE10" s="0">
-        <v>0.76008185963142338</v>
+        <v>0.91116994165744813</v>
       </c>
       <c r="AF10" s="0">
-        <v>364.5</v>
+        <v>242.5</v>
       </c>
       <c r="AG10" s="0">
-        <v>111.625</v>
+        <v>73.25</v>
       </c>
       <c r="AH10" s="0">
-        <v>9.875</v>
+        <v>3.34375</v>
       </c>
       <c r="AI10" s="0">
-        <v>158.41584158415841</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="0">
         <v>0</v>
       </c>
       <c r="AK10" s="0">
-        <v>0.25</v>
+        <v>0.5625</v>
       </c>
       <c r="AL10" s="0">
         <v>0</v>
@@ -3103,117 +3403,233 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B11" s="0">
-        <v>240520</v>
+        <v>210520</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D11" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F11" s="0">
-        <v>378.04399999999998</v>
+        <v>570.12</v>
       </c>
       <c r="G11" s="0">
-        <v>260.12</v>
+        <v>510.767</v>
       </c>
       <c r="H11" s="0">
-        <v>-5.7690000000000001</v>
+        <v>21.114000000000001</v>
       </c>
       <c r="I11" s="0">
-        <v>66.954999999999998</v>
+        <v>65.046999999999997</v>
       </c>
       <c r="J11" s="0">
-        <v>302.76100000000002</v>
+        <v>300.72500000000002</v>
       </c>
       <c r="K11" s="0">
-        <v>2.4940000000000002</v>
+        <v>2.4790000000000001</v>
       </c>
       <c r="L11" s="0">
-        <v>14.579000000000001</v>
+        <v>13.869999999999999</v>
       </c>
       <c r="M11" s="0">
-        <v>69.388000000000005</v>
+        <v>124.932</v>
       </c>
       <c r="N11" s="0">
-        <v>105.37</v>
+        <v>96.975999999999999</v>
       </c>
       <c r="O11" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P11" s="0">
-        <v>214.15799999999999</v>
+        <v>101.184</v>
       </c>
       <c r="Q11" s="0">
-        <v>85.531999999999996</v>
+        <v>101.547</v>
       </c>
       <c r="R11" s="0">
-        <v>57.857999999999997</v>
+        <v>35.856999999999999</v>
       </c>
       <c r="S11" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T11" s="0">
         <v>4</v>
       </c>
       <c r="U11" s="0">
-        <v>1.0758125123607356</v>
+        <v>1.1091317605520783</v>
       </c>
       <c r="V11" s="0">
-        <v>3.59375</v>
+        <v>2.125</v>
       </c>
       <c r="W11" s="0">
-        <v>158.01041666666666</v>
+        <v>64.906249999999972</v>
       </c>
       <c r="X11" s="0">
-        <v>-74.096874999999997</v>
+        <v>-80.309375000000003</v>
       </c>
       <c r="Y11" s="0">
-        <v>20.415417820699627</v>
+        <v>139.47832833673655</v>
       </c>
       <c r="Z11" s="0">
-        <v>19.294309600803491</v>
+        <v>7.7774356271048841</v>
       </c>
       <c r="AA11" s="0">
-        <v>0.12210783319118829</v>
+        <v>0.11982568130349369</v>
       </c>
       <c r="AB11" s="0">
-        <v>0.3586118251928021</v>
+        <v>0.30366492146596857</v>
       </c>
       <c r="AC11" s="0">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AD11" s="0">
-        <v>122.34687500000001</v>
+        <v>130.27812499999999</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.83202383941524971</v>
+        <v>0.79323234999341707</v>
       </c>
       <c r="AF11" s="0">
-        <v>342.25</v>
+        <v>284</v>
       </c>
       <c r="AG11" s="0">
-        <v>91</v>
+        <v>103.625</v>
       </c>
       <c r="AH11" s="0">
+        <v>7</v>
+      </c>
+      <c r="AI11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="0">
+        <v>0.53125</v>
+      </c>
+      <c r="AL11" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="0">
+        <v>240520</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="0">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="0">
+        <v>352.471</v>
+      </c>
+      <c r="G12" s="0">
+        <v>236.59800000000001</v>
+      </c>
+      <c r="H12" s="0">
+        <v>4.9779999999999998</v>
+      </c>
+      <c r="I12" s="0">
+        <v>63.286000000000001</v>
+      </c>
+      <c r="J12" s="0">
+        <v>270.41500000000002</v>
+      </c>
+      <c r="K12" s="0">
+        <v>2.8439999999999999</v>
+      </c>
+      <c r="L12" s="0">
+        <v>14.407999999999999</v>
+      </c>
+      <c r="M12" s="0">
+        <v>101.306</v>
+      </c>
+      <c r="N12" s="0">
+        <v>93.275999999999996</v>
+      </c>
+      <c r="O12" s="0">
+        <v>6</v>
+      </c>
+      <c r="P12" s="0">
+        <v>100.38800000000001</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>68.780000000000001</v>
+      </c>
+      <c r="R12" s="0">
+        <v>62.270000000000003</v>
+      </c>
+      <c r="S12" s="0">
+        <v>2</v>
+      </c>
+      <c r="T12" s="0">
+        <v>2</v>
+      </c>
+      <c r="U12" s="0">
+        <v>1.0644329896907216</v>
+      </c>
+      <c r="V12" s="0">
         <v>2.03125</v>
       </c>
-      <c r="AI11" s="0">
-        <v>175.82417582417582</v>
-      </c>
-      <c r="AJ11" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="0">
-        <v>3.4062000000000001</v>
-      </c>
-      <c r="AL11" s="0">
+      <c r="W12" s="0">
+        <v>105.08333333333333</v>
+      </c>
+      <c r="X12" s="0">
+        <v>-81.724999999999994</v>
+      </c>
+      <c r="Y12" s="0">
+        <v>105.14040738935778</v>
+      </c>
+      <c r="Z12" s="0">
+        <v>10.047035651150617</v>
+      </c>
+      <c r="AA12" s="0">
+        <v>0.095610172731013021</v>
+      </c>
+      <c r="AB12" s="0">
+        <v>0.32650862068965519</v>
+      </c>
+      <c r="AC12" s="0">
+        <v>12</v>
+      </c>
+      <c r="AD12" s="0">
+        <v>137.09999999999999</v>
+      </c>
+      <c r="AE12" s="0">
+        <v>0.76008185963142338</v>
+      </c>
+      <c r="AF12" s="0">
+        <v>364.5</v>
+      </c>
+      <c r="AG12" s="0">
+        <v>111.625</v>
+      </c>
+      <c r="AH12" s="0">
+        <v>9.875</v>
+      </c>
+      <c r="AI12" s="0">
+        <v>158.41584158415841</v>
+      </c>
+      <c r="AJ12" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="AL12" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3223,7 +3639,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AL5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
@@ -3238,7 +3654,7 @@
     <col min="10" max="10" width="6.7109375" customWidth="true"/>
     <col min="11" max="11" width="9.42578125" customWidth="true"/>
     <col min="12" max="12" width="10" customWidth="true"/>
-    <col min="13" max="13" width="7.7109375" customWidth="true"/>
+    <col min="13" max="13" width="6.7109375" customWidth="true"/>
     <col min="14" max="14" width="7.7109375" customWidth="true"/>
     <col min="15" max="15" width="4.7109375" customWidth="true"/>
     <col min="16" max="16" width="8.140625" customWidth="true"/>
@@ -3248,7 +3664,7 @@
     <col min="20" max="20" width="8.28515625" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="8.85546875" customWidth="true"/>
-    <col min="23" max="23" width="11.7109375" customWidth="true"/>
+    <col min="23" max="23" width="8.7109375" customWidth="true"/>
     <col min="24" max="24" width="10.42578125" customWidth="true"/>
     <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
@@ -3260,239 +3676,237 @@
     <col min="32" max="32" width="10" customWidth="true"/>
     <col min="33" max="33" width="8.7109375" customWidth="true"/>
     <col min="34" max="34" width="7.7109375" customWidth="true"/>
-    <col min="35" max="35" width="5.7109375" customWidth="true"/>
-    <col min="36" max="36" width="4" customWidth="true"/>
-    <col min="37" max="37" width="6.7109375" customWidth="true"/>
+    <col min="35" max="35" width="11.7109375" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" customWidth="true"/>
+    <col min="37" max="37" width="7.7109375" customWidth="true"/>
     <col min="38" max="38" width="14.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B2" s="0">
-        <v>160519</v>
+        <v>21018</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F2" s="0">
-        <v>407.608</v>
+        <v>363.99400000000003</v>
       </c>
       <c r="G2" s="0">
-        <v>296.98899999999998</v>
+        <v>251.38499999999999</v>
       </c>
       <c r="H2" s="0">
-        <v>8.3279999999999994</v>
+        <v>7.4960000000000004</v>
       </c>
       <c r="I2" s="0">
-        <v>56.520000000000003</v>
-      </c>
-      <c r="J2" s="0">
-        <v>206.53</v>
-      </c>
+        <v>52.555</v>
+      </c>
+      <c r="J2" s="0"/>
       <c r="K2" s="0">
-        <v>2.4550000000000001</v>
+        <v>3.4119999999999999</v>
       </c>
       <c r="L2" s="0">
-        <v>14.250999999999999</v>
+        <v>14.037000000000001</v>
       </c>
       <c r="M2" s="0">
-        <v>124.953</v>
+        <v>177.44999999999999</v>
       </c>
       <c r="N2" s="0">
-        <v>93.757000000000005</v>
+        <v>66.826999999999998</v>
       </c>
       <c r="O2" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P2" s="0">
-        <v>168.29499999999999</v>
+        <v>218.964</v>
       </c>
       <c r="Q2" s="0">
-        <v>109.479</v>
+        <v>90.998000000000005</v>
       </c>
       <c r="R2" s="0">
-        <v>63.079999999999998</v>
+        <v>61.097999999999999</v>
       </c>
       <c r="S2" s="0">
         <v>3</v>
       </c>
       <c r="T2" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U2" s="0">
-        <v>1.1114805398005085</v>
+        <v>1.0382923870185017</v>
       </c>
       <c r="V2" s="0">
-        <v>3.5625</v>
+        <v>1.578125</v>
       </c>
       <c r="W2" s="0">
-        <v>106.52083333333331</v>
+        <v>137.37499999999997</v>
       </c>
       <c r="X2" s="0">
-        <v>-60.668750000000003</v>
+        <v>-58.428125000000001</v>
       </c>
       <c r="Y2" s="0">
-        <v>71.266941675277735</v>
+        <v>10.089421892522813</v>
       </c>
       <c r="Z2" s="0">
-        <v>16.564301749092149</v>
+        <v>18.123586663367671</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.15550293056061476</v>
+        <v>0.13192783740395031</v>
       </c>
       <c r="AB2" s="0">
-        <v>0.47254150702426562</v>
+        <v>0.43478260869565222</v>
       </c>
       <c r="AC2" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AD2" s="0">
-        <v>117.04374999999999</v>
+        <v>97.053124999999994</v>
       </c>
       <c r="AE2" s="0">
-        <v>1.0948656371595291</v>
+        <v>1.12237441653701</v>
       </c>
       <c r="AF2" s="0">
-        <v>316.25</v>
+        <v>188</v>
       </c>
       <c r="AG2" s="0">
-        <v>134.625</v>
+        <v>62.5</v>
       </c>
       <c r="AH2" s="0">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="AI2" s="0">
-        <v>0</v>
+        <v>161.61616161616163</v>
       </c>
       <c r="AJ2" s="0">
         <v>0</v>
       </c>
       <c r="AK2" s="0">
-        <v>3.0625</v>
+        <v>2.6562000000000001</v>
       </c>
       <c r="AL2" s="0">
         <v>0</v>
@@ -3500,19 +3914,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B3" s="0">
         <v>160519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D3" s="0">
         <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F3" s="0">
         <v>503.45100000000002</v>
@@ -3615,116 +4029,202 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0"/>
+      <c r="A4" s="0" t="s">
+        <v>110</v>
+      </c>
       <c r="B4" s="0">
+        <v>21018</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="0">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0">
+        <v>1.058457711442786</v>
+      </c>
+      <c r="V4" s="0">
+        <v>1.46875</v>
+      </c>
+      <c r="W4" s="0">
+        <v>80.968750000000014</v>
+      </c>
+      <c r="X4" s="0">
+        <v>-67.240624999999994</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>103.98393335187315</v>
+      </c>
+      <c r="Z4" s="0">
+        <v>11.033252284194534</v>
+      </c>
+      <c r="AA4" s="0">
+        <v>0.13626556275346391</v>
+      </c>
+      <c r="AB4" s="0">
+        <v>0.21016949152542372</v>
+      </c>
+      <c r="AC4" s="0">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>110.74062499999999</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>1.0290353798435561</v>
+      </c>
+      <c r="AF4" s="0">
+        <v>232.375</v>
+      </c>
+      <c r="AG4" s="0">
+        <v>70.875</v>
+      </c>
+      <c r="AH4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="0">
+        <v>313.72549019607834</v>
+      </c>
+      <c r="AJ4" s="0">
+        <v>23.333333333333336</v>
+      </c>
+      <c r="AK4" s="0">
+        <v>0.21875</v>
+      </c>
+      <c r="AL4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0"/>
+      <c r="B5" s="0">
         <v>270319</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="0">
+      <c r="C5" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="0">
         <v>3</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="0">
+      <c r="E5" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="0">
         <v>553.14999999999998</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G5" s="0">
         <v>388.49599999999998</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H5" s="0">
         <v>46.121000000000002</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I5" s="0">
         <v>43.274000000000001</v>
       </c>
-      <c r="J4" s="0">
+      <c r="J5" s="0">
         <v>115.51900000000001</v>
       </c>
-      <c r="K4" s="0">
+      <c r="K5" s="0">
         <v>1.8959999999999999</v>
       </c>
-      <c r="L4" s="0">
+      <c r="L5" s="0">
         <v>15.782</v>
       </c>
-      <c r="M4" s="0">
+      <c r="M5" s="0">
         <v>95.480999999999995</v>
       </c>
-      <c r="N4" s="0">
+      <c r="N5" s="0">
         <v>61.338000000000001</v>
       </c>
-      <c r="O4" s="0">
+      <c r="O5" s="0">
         <v>5</v>
       </c>
-      <c r="P4" s="0">
+      <c r="P5" s="0">
         <v>185.809</v>
       </c>
-      <c r="Q4" s="0">
+      <c r="Q5" s="0">
         <v>165.83199999999999</v>
       </c>
-      <c r="R4" s="0">
+      <c r="R5" s="0">
         <v>26.248999999999999</v>
       </c>
-      <c r="S4" s="0">
+      <c r="S5" s="0">
         <v>2</v>
       </c>
-      <c r="T4" s="0">
-        <v>0</v>
-      </c>
-      <c r="U4" s="0">
+      <c r="T5" s="0">
+        <v>0</v>
+      </c>
+      <c r="U5" s="0">
         <v>1.0929203539823009</v>
       </c>
-      <c r="V4" s="0">
+      <c r="V5" s="0">
         <v>2.625</v>
       </c>
-      <c r="W4" s="0">
+      <c r="W5" s="0">
         <v>95.885416666666657</v>
       </c>
-      <c r="X4" s="0">
+      <c r="X5" s="0">
         <v>-67.640625</v>
       </c>
-      <c r="Y4" s="0">
+      <c r="Y5" s="0">
         <v>102.89439262185155</v>
       </c>
-      <c r="Z4" s="0">
+      <c r="Z5" s="0">
         <v>10.773662292714288</v>
       </c>
-      <c r="AA4" s="0">
+      <c r="AA5" s="0">
         <v>0.11235975883765038</v>
       </c>
-      <c r="AB4" s="0">
+      <c r="AB5" s="0">
         <v>0.36990595611285271</v>
       </c>
-      <c r="AC4" s="0">
+      <c r="AC5" s="0">
         <v>17</v>
       </c>
-      <c r="AD4" s="0">
+      <c r="AD5" s="0">
         <v>113.734375</v>
       </c>
-      <c r="AE4" s="0">
+      <c r="AE5" s="0">
         <v>0.64929628877543166</v>
       </c>
-      <c r="AF4" s="0">
+      <c r="AF5" s="0">
         <v>304.375</v>
       </c>
-      <c r="AG4" s="0">
+      <c r="AG5" s="0">
         <v>116.625</v>
       </c>
-      <c r="AH4" s="0">
+      <c r="AH5" s="0">
         <v>18</v>
       </c>
-      <c r="AI4" s="0">
+      <c r="AI5" s="0">
         <v>228.57142857142856</v>
       </c>
-      <c r="AJ4" s="0">
+      <c r="AJ5" s="0">
         <v>28.333333333333336</v>
       </c>
-      <c r="AK4" s="0">
+      <c r="AK5" s="0">
         <v>0.5625</v>
       </c>
-      <c r="AL4" s="0">
+      <c r="AL5" s="0">
         <v>0</v>
       </c>
     </row>
@@ -3734,7 +4234,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AL9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
@@ -3760,7 +4260,7 @@
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="8.85546875" customWidth="true"/>
     <col min="23" max="23" width="11.7109375" customWidth="true"/>
-    <col min="24" max="24" width="9.42578125" customWidth="true"/>
+    <col min="24" max="24" width="12.42578125" customWidth="true"/>
     <col min="25" max="25" width="12.42578125" customWidth="true"/>
     <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="13.7109375" customWidth="true"/>
@@ -3772,142 +4272,142 @@
     <col min="33" max="33" width="8.7109375" customWidth="true"/>
     <col min="34" max="34" width="7.7109375" customWidth="true"/>
     <col min="35" max="35" width="11.7109375" customWidth="true"/>
-    <col min="36" max="36" width="4" customWidth="true"/>
-    <col min="37" max="37" width="7.42578125" customWidth="true"/>
+    <col min="36" max="36" width="11.7109375" customWidth="true"/>
+    <col min="37" max="37" width="8.42578125" customWidth="true"/>
     <col min="38" max="38" width="14.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B2" s="0">
         <v>30518</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F2" s="0">
         <v>590.19000000000005</v>
@@ -4011,19 +4511,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B3" s="0">
         <v>41220</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F3" s="0">
         <v>527.303</v>
@@ -4127,19 +4627,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B4" s="0">
         <v>190121</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F4" s="0">
         <v>531.99300000000005</v>
@@ -4243,19 +4743,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B5" s="0">
         <v>190121</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F5" s="0">
         <v>406.07999999999998</v>
@@ -4358,118 +4858,338 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>149</v>
-      </c>
+      <c r="A6" s="0"/>
       <c r="B6" s="0">
-        <v>190121</v>
+        <v>30818</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D6" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="0">
-        <v>363.67099999999999</v>
-      </c>
-      <c r="G6" s="0">
-        <v>207.81700000000001</v>
-      </c>
-      <c r="H6" s="0">
-        <v>6.6950000000000003</v>
-      </c>
-      <c r="I6" s="0">
-        <v>56.973999999999997</v>
-      </c>
-      <c r="J6" s="0">
-        <v>195.03</v>
-      </c>
-      <c r="K6" s="0">
-        <v>2.48</v>
-      </c>
-      <c r="L6" s="0">
-        <v>17.251000000000001</v>
-      </c>
-      <c r="M6" s="0">
-        <v>140.84899999999999</v>
-      </c>
-      <c r="N6" s="0">
-        <v>70.947999999999993</v>
-      </c>
-      <c r="O6" s="0">
-        <v>4</v>
-      </c>
-      <c r="P6" s="0">
-        <v>226.036</v>
-      </c>
-      <c r="Q6" s="0">
-        <v>111.42</v>
-      </c>
-      <c r="R6" s="0">
-        <v>52.292000000000002</v>
-      </c>
-      <c r="S6" s="0">
-        <v>6</v>
-      </c>
-      <c r="T6" s="0">
-        <v>1</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
       <c r="U6" s="0">
-        <v>1.0427319991453601</v>
+        <v>1.0874097834803529</v>
       </c>
       <c r="V6" s="0">
+        <v>3.40625</v>
+      </c>
+      <c r="W6" s="0">
+        <v>125.63802083333333</v>
+      </c>
+      <c r="X6" s="0">
+        <v>-72.21484375</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>21.647585520447993</v>
+      </c>
+      <c r="Z6" s="0">
+        <v>13.518138973657326</v>
+      </c>
+      <c r="AA6" s="0">
+        <v>0.10759592425918568</v>
+      </c>
+      <c r="AB6" s="0">
+        <v>0.24385964912280703</v>
+      </c>
+      <c r="AC6" s="0">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="0">
+        <v>122.02734375</v>
+      </c>
+      <c r="AE6" s="0">
+        <v>0.80171271338724637</v>
+      </c>
+      <c r="AF6" s="0">
+        <v>347.375</v>
+      </c>
+      <c r="AG6" s="0">
+        <v>101.25</v>
+      </c>
+      <c r="AH6" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="0">
+        <v>172.6618705035971</v>
+      </c>
+      <c r="AJ6" s="0">
+        <v>33</v>
+      </c>
+      <c r="AK6" s="0">
+        <v>-0.28125</v>
+      </c>
+      <c r="AL6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0">
+        <v>70818</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="0">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0">
+        <v>1.0499168053244592</v>
+      </c>
+      <c r="V7" s="0">
         <v>1.875</v>
       </c>
-      <c r="W6" s="0">
-        <v>146.26041666666663</v>
-      </c>
-      <c r="X6" s="0">
-        <v>-71.121875000000003</v>
-      </c>
-      <c r="Y6" s="0">
-        <v>30.228593467919797</v>
-      </c>
-      <c r="Z6" s="0">
-        <v>12.327996041931668</v>
-      </c>
-      <c r="AA6" s="0">
-        <v>0.08428798661245214</v>
-      </c>
-      <c r="AB6" s="0">
-        <v>0.54316546762589923</v>
-      </c>
-      <c r="AC6" s="0">
-        <v>13</v>
-      </c>
-      <c r="AD6" s="0">
-        <v>83.934374999999989</v>
-      </c>
-      <c r="AE6" s="0">
-        <v>1.3499966761468798</v>
-      </c>
-      <c r="AF6" s="0">
-        <v>122.875</v>
-      </c>
-      <c r="AG6" s="0">
-        <v>47.625</v>
-      </c>
-      <c r="AH6" s="0">
-        <v>0.4375</v>
-      </c>
-      <c r="AI6" s="0">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="0">
-        <v>1.0311999999999999</v>
-      </c>
-      <c r="AL6" s="0">
+      <c r="W7" s="0">
+        <v>125.29513888888887</v>
+      </c>
+      <c r="X7" s="0">
+        <v>-83.848958333333329</v>
+      </c>
+      <c r="Y7" s="0">
+        <v>50.940374103526274</v>
+      </c>
+      <c r="Z7" s="0">
+        <v>12.924990996865244</v>
+      </c>
+      <c r="AA7" s="0">
+        <v>0.10315636433690427</v>
+      </c>
+      <c r="AB7" s="0">
+        <v>0.43900414937759324</v>
+      </c>
+      <c r="AC7" s="0">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="0">
+        <v>133.53645833333331</v>
+      </c>
+      <c r="AE7" s="0">
+        <v>1.1157505841915167</v>
+      </c>
+      <c r="AF7" s="0">
+        <v>270.375</v>
+      </c>
+      <c r="AG7" s="0">
+        <v>74.75</v>
+      </c>
+      <c r="AH7" s="0">
+        <v>7.5</v>
+      </c>
+      <c r="AI7" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="0">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AK7" s="0">
+        <v>0.65625</v>
+      </c>
+      <c r="AL7" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0">
+        <v>140818</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="0">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0">
+        <v>1.0589301903898458</v>
+      </c>
+      <c r="V8" s="0">
+        <v>2.03125</v>
+      </c>
+      <c r="W8" s="0">
+        <v>114.28571428571428</v>
+      </c>
+      <c r="X8" s="0">
+        <v>-63.995535714285715</v>
+      </c>
+      <c r="Y8" s="0">
+        <v>13.908492497884833</v>
+      </c>
+      <c r="Z8" s="0">
+        <v>16.782999770437268</v>
+      </c>
+      <c r="AA8" s="0">
+        <v>0.14685124799132609</v>
+      </c>
+      <c r="AB8" s="0">
+        <v>0.55123216601815828</v>
+      </c>
+      <c r="AC8" s="0">
+        <v>14</v>
+      </c>
+      <c r="AD8" s="0">
+        <v>108.52678571428572</v>
+      </c>
+      <c r="AE8" s="0">
+        <v>0.81088065661046826</v>
+      </c>
+      <c r="AF8" s="0">
+        <v>306.875</v>
+      </c>
+      <c r="AG8" s="0">
+        <v>101.5</v>
+      </c>
+      <c r="AH8" s="0">
+        <v>1.1875</v>
+      </c>
+      <c r="AI8" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="0">
+        <v>11.666666666666668</v>
+      </c>
+      <c r="AK8" s="0">
+        <v>-0.125</v>
+      </c>
+      <c r="AL8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0">
+        <v>140818</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="0">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0">
+        <v>1.060556464811784</v>
+      </c>
+      <c r="V9" s="0">
+        <v>1.15625</v>
+      </c>
+      <c r="W9" s="0">
+        <v>66.593750000000014</v>
+      </c>
+      <c r="X9" s="0">
+        <v>-74.646874999999994</v>
+      </c>
+      <c r="Y9" s="0">
+        <v>105.82011441241487</v>
+      </c>
+      <c r="Z9" s="0">
+        <v>11.110290975361922</v>
+      </c>
+      <c r="AA9" s="0">
+        <v>0.16683684242683314</v>
+      </c>
+      <c r="AB9" s="0">
+        <v>0.11480601741884404</v>
+      </c>
+      <c r="AC9" s="0">
+        <v>11</v>
+      </c>
+      <c r="AD9" s="0">
+        <v>121.45937499999999</v>
+      </c>
+      <c r="AE9" s="0">
+        <v>0.87894171019452472</v>
+      </c>
+      <c r="AF9" s="0">
+        <v>301</v>
+      </c>
+      <c r="AG9" s="0">
+        <v>86.5</v>
+      </c>
+      <c r="AH9" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="0">
+        <v>165.51724137931032</v>
+      </c>
+      <c r="AJ9" s="0">
+        <v>18.333333333333336</v>
+      </c>
+      <c r="AK9" s="0">
+        <v>0.34375</v>
+      </c>
+      <c r="AL9" s="0">
         <v>0</v>
       </c>
     </row>
@@ -4479,7 +5199,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AL7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="true"/>
@@ -4494,7 +5214,7 @@
     <col min="10" max="10" width="7.7109375" customWidth="true"/>
     <col min="11" max="11" width="9.42578125" customWidth="true"/>
     <col min="12" max="12" width="10" customWidth="true"/>
-    <col min="13" max="13" width="6.7109375" customWidth="true"/>
+    <col min="13" max="13" width="7.7109375" customWidth="true"/>
     <col min="14" max="14" width="6.7109375" customWidth="true"/>
     <col min="15" max="15" width="4.7109375" customWidth="true"/>
     <col min="16" max="16" width="8.140625" customWidth="true"/>
@@ -4524,135 +5244,135 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B2" s="0">
         <v>220519</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F2" s="0">
         <v>507.31400000000002</v>
@@ -4756,19 +5476,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B3" s="0">
         <v>290519</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D3" s="0">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F3" s="0">
         <v>404.71699999999998</v>
@@ -4872,19 +5592,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B4" s="0">
         <v>290519</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D4" s="0">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F4" s="0">
         <v>585.452</v>
@@ -4988,115 +5708,115 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B5" s="0">
-        <v>300519</v>
+        <v>270520</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D5" s="0">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F5" s="0">
-        <v>593.97900000000004</v>
+        <v>393.995</v>
       </c>
       <c r="G5" s="0">
-        <v>437.91899999999998</v>
+        <v>202.55600000000001</v>
       </c>
       <c r="H5" s="0">
-        <v>25.027999999999999</v>
+        <v>11.835000000000001</v>
       </c>
       <c r="I5" s="0">
-        <v>45.125999999999998</v>
+        <v>61.149000000000001</v>
       </c>
       <c r="J5" s="0">
-        <v>118.73999999999999</v>
+        <v>228.44999999999999</v>
       </c>
       <c r="K5" s="0">
-        <v>2.7650000000000001</v>
+        <v>2.5710000000000002</v>
       </c>
       <c r="L5" s="0">
-        <v>8.6419999999999995</v>
+        <v>12.175000000000001</v>
       </c>
       <c r="M5" s="0">
-        <v>106.04000000000001</v>
+        <v>120.68600000000001</v>
       </c>
       <c r="N5" s="0">
-        <v>50.476999999999997</v>
+        <v>85.019000000000005</v>
       </c>
       <c r="O5" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P5" s="0">
-        <v>162.13399999999999</v>
+        <v>165.958</v>
       </c>
       <c r="Q5" s="0">
-        <v>68.161000000000001</v>
+        <v>155.822</v>
       </c>
       <c r="R5" s="0">
-        <v>12</v>
+        <v>37.122999999999998</v>
       </c>
       <c r="S5" s="0">
         <v>3</v>
       </c>
       <c r="T5" s="0">
+        <v>5</v>
+      </c>
+      <c r="U5" s="0">
+        <v>1.0667126754083276</v>
+      </c>
+      <c r="V5" s="0">
+        <v>1.8125</v>
+      </c>
+      <c r="W5" s="0">
+        <v>90.5625</v>
+      </c>
+      <c r="X5" s="0">
+        <v>-64.612499999999997</v>
+      </c>
+      <c r="Y5" s="0">
+        <v>37.051979539591187</v>
+      </c>
+      <c r="Z5" s="0">
+        <v>15.202855782921098</v>
+      </c>
+      <c r="AA5" s="0">
+        <v>0.16787142341389757</v>
+      </c>
+      <c r="AB5" s="0">
+        <v>0.57964184731385493</v>
+      </c>
+      <c r="AC5" s="0">
         <v>10</v>
       </c>
-      <c r="U5" s="0">
-        <v>1.0853080568720379</v>
-      </c>
-      <c r="V5" s="0">
-        <v>2.25</v>
-      </c>
-      <c r="W5" s="0">
-        <v>86.177083333333343</v>
-      </c>
-      <c r="X5" s="0">
-        <v>-71.428124999999994</v>
-      </c>
-      <c r="Y5" s="0">
-        <v>109.20724577142296</v>
-      </c>
-      <c r="Z5" s="0">
-        <v>10.181405083293999</v>
-      </c>
-      <c r="AA5" s="0">
-        <v>0.11814515749984573</v>
-      </c>
-      <c r="AB5" s="0">
-        <v>0.23994252873563218</v>
-      </c>
-      <c r="AC5" s="0">
-        <v>9</v>
-      </c>
       <c r="AD5" s="0">
-        <v>116.17812499999999</v>
+        <v>109.39375000000001</v>
       </c>
       <c r="AE5" s="0">
-        <v>0.7936542235960502</v>
+        <v>1.0357212974818566</v>
       </c>
       <c r="AF5" s="0">
-        <v>303.625</v>
+        <v>241.5</v>
       </c>
       <c r="AG5" s="0">
-        <v>104.75</v>
+        <v>79.375</v>
       </c>
       <c r="AH5" s="0">
         <v>0</v>
       </c>
       <c r="AI5" s="0">
-        <v>340.42553191489372</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="0">
         <v>0</v>
       </c>
       <c r="AK5" s="0">
-        <v>2.4062000000000001</v>
+        <v>1.8438000000000001</v>
       </c>
       <c r="AL5" s="0">
         <v>0</v>
@@ -5104,117 +5824,171 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B6" s="0">
-        <v>270520</v>
+        <v>251018</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="0">
-        <v>393.995</v>
-      </c>
-      <c r="G6" s="0">
-        <v>202.55600000000001</v>
-      </c>
-      <c r="H6" s="0">
-        <v>11.835000000000001</v>
-      </c>
-      <c r="I6" s="0">
-        <v>61.149000000000001</v>
-      </c>
-      <c r="J6" s="0">
-        <v>228.44999999999999</v>
-      </c>
-      <c r="K6" s="0">
-        <v>2.5710000000000002</v>
-      </c>
-      <c r="L6" s="0">
-        <v>12.175000000000001</v>
-      </c>
-      <c r="M6" s="0">
-        <v>120.68600000000001</v>
-      </c>
-      <c r="N6" s="0">
-        <v>85.019000000000005</v>
-      </c>
-      <c r="O6" s="0">
-        <v>7</v>
-      </c>
-      <c r="P6" s="0">
-        <v>165.958</v>
-      </c>
-      <c r="Q6" s="0">
-        <v>155.822</v>
-      </c>
-      <c r="R6" s="0">
-        <v>37.122999999999998</v>
-      </c>
-      <c r="S6" s="0">
-        <v>3</v>
-      </c>
-      <c r="T6" s="0">
-        <v>5</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
       <c r="U6" s="0">
-        <v>1.0667126754083276</v>
+        <v>1.0717749757516974</v>
       </c>
       <c r="V6" s="0">
-        <v>1.8125</v>
+        <v>2.3125</v>
       </c>
       <c r="W6" s="0">
-        <v>90.5625</v>
+        <v>104.21874999999999</v>
       </c>
       <c r="X6" s="0">
-        <v>-64.612499999999997</v>
+        <v>-75.203125</v>
       </c>
       <c r="Y6" s="0">
-        <v>37.051979539591187</v>
+        <v>47.975891792519235</v>
       </c>
       <c r="Z6" s="0">
-        <v>15.202855782921098</v>
+        <v>9.5699149072447707</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.16787142341389757</v>
+        <v>0.091825270474312659</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.57964184731385493</v>
+        <v>0.45252225519287831</v>
       </c>
       <c r="AC6" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="AD6" s="0">
-        <v>109.39375000000001</v>
+        <v>116.078125</v>
       </c>
       <c r="AE6" s="0">
-        <v>1.0357212974818566</v>
+        <v>1.0647968517550623</v>
       </c>
       <c r="AF6" s="0">
-        <v>241.5</v>
+        <v>233.375</v>
       </c>
       <c r="AG6" s="0">
-        <v>79.375</v>
+        <v>76</v>
       </c>
       <c r="AH6" s="0">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AI6" s="0">
-        <v>0</v>
+        <v>258.06451612903226</v>
       </c>
       <c r="AJ6" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK6" s="0">
-        <v>1.8438000000000001</v>
+        <v>0.65625</v>
       </c>
       <c r="AL6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0">
+        <v>220519</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="0">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0">
+        <v>1.0590943975441289</v>
+      </c>
+      <c r="V7" s="0">
+        <v>2.40625</v>
+      </c>
+      <c r="W7" s="0">
+        <v>135.13541666666666</v>
+      </c>
+      <c r="X7" s="0">
+        <v>-72.428124999999994</v>
+      </c>
+      <c r="Y7" s="0">
+        <v>48.732153600233246</v>
+      </c>
+      <c r="Z7" s="0">
+        <v>8.1452353057250182</v>
+      </c>
+      <c r="AA7" s="0">
+        <v>0.060274615690249118</v>
+      </c>
+      <c r="AB7" s="0">
+        <v>0.29045643153526968</v>
+      </c>
+      <c r="AC7" s="0">
+        <v>17</v>
+      </c>
+      <c r="AD7" s="0">
+        <v>124.24062499999999</v>
+      </c>
+      <c r="AE7" s="0">
+        <v>0.90791852242885795</v>
+      </c>
+      <c r="AF7" s="0">
+        <v>326.75</v>
+      </c>
+      <c r="AG7" s="0">
+        <v>96.375</v>
+      </c>
+      <c r="AH7" s="0">
+        <v>4.6875</v>
+      </c>
+      <c r="AI7" s="0">
+        <v>301.88679245283015</v>
+      </c>
+      <c r="AJ7" s="0">
+        <v>28.333333333333336</v>
+      </c>
+      <c r="AK7" s="0">
+        <v>0.84375</v>
+      </c>
+      <c r="AL7" s="0">
         <v>0</v>
       </c>
     </row>
@@ -5269,135 +6043,135 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B2" s="0">
         <v>171218</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F2" s="0">
         <v>457.68700000000001</v>
@@ -5501,19 +6275,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B3" s="0">
         <v>171218</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D3" s="0">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F3" s="0">
         <v>428.84899999999999</v>
@@ -5617,19 +6391,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B4" s="0">
         <v>171218</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D4" s="0">
         <v>3</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F4" s="0">
         <v>378.36900000000003</v>
@@ -5733,19 +6507,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B5" s="0">
         <v>70219</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D5" s="0">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F5" s="0">
         <v>546.37099999999998</v>
@@ -5849,19 +6623,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B6" s="0">
         <v>80219</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D6" s="0">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F6" s="0">
         <v>500.19600000000003</v>
@@ -5965,19 +6739,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B7" s="0">
         <v>80219</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D7" s="0">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F7" s="0">
         <v>459.149</v>
@@ -6081,19 +6855,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B8" s="0">
         <v>80219</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D8" s="0">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F8" s="0">
         <v>411.88499999999999</v>
